--- a/data/octanol_30pct_avoidance_ALLDATA.xlsx
+++ b/data/octanol_30pct_avoidance_ALLDATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\friv\git\cest-2.1-Project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiabrown/Documents/git/cest-2.1-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3787AEFD-922F-4C2F-9161-9367C30653EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F1C1D4-99A5-A044-A77C-04E99D4C02F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="375" windowWidth="15300" windowHeight="10095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="octanol_30pct_avoidance_210805" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1843" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="16">
   <si>
     <t>genotype</t>
   </si>
@@ -66,6 +66,9 @@
   <si>
     <t>4mM TA</t>
   </si>
+  <si>
+    <t>MD</t>
+  </si>
 </sst>
 </file>
 
@@ -74,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,6 +208,19 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -551,9 +567,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -909,20 +926,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G460"/>
+  <dimension ref="A1:G501"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="B424" sqref="B424:B460"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H492" sqref="H492"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -942,7 +960,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -962,7 +980,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -982,7 +1000,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1002,7 +1020,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1022,7 +1040,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1042,7 +1060,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1062,7 +1080,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1082,7 +1100,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1102,7 +1120,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1122,7 +1140,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1142,7 +1160,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1162,7 +1180,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1182,7 +1200,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1202,7 +1220,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1222,7 +1240,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1242,7 +1260,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1262,7 +1280,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1282,7 +1300,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1302,7 +1320,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1322,7 +1340,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1342,7 +1360,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1362,7 +1380,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1382,7 +1400,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1402,7 +1420,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1422,7 +1440,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -1442,7 +1460,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1462,7 +1480,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1482,7 +1500,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1502,7 +1520,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1522,7 +1540,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1542,7 +1560,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1562,7 +1580,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1582,7 +1600,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1602,7 +1620,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1622,7 +1640,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1642,7 +1660,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1662,7 +1680,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1682,7 +1700,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -1702,7 +1720,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1722,7 +1740,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -1742,7 +1760,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1762,7 +1780,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -1782,7 +1800,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -1802,7 +1820,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -1822,7 +1840,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -1842,7 +1860,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -1862,7 +1880,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>8</v>
       </c>
@@ -1882,7 +1900,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1902,7 +1920,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -1922,7 +1940,7 @@
         <v>44413</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1942,7 +1960,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1962,7 +1980,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1982,7 +2000,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -2002,7 +2020,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -2022,7 +2040,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -2042,7 +2060,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -2062,7 +2080,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2082,7 +2100,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -2102,7 +2120,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>8</v>
       </c>
@@ -2122,7 +2140,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -2142,7 +2160,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -2162,7 +2180,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -2182,7 +2200,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2202,7 +2220,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -2222,7 +2240,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>8</v>
       </c>
@@ -2242,7 +2260,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -2262,7 +2280,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -2282,7 +2300,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -2302,7 +2320,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -2322,7 +2340,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -2342,7 +2360,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -2362,7 +2380,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -2382,7 +2400,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -2402,7 +2420,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -2422,7 +2440,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -2442,7 +2460,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -2462,7 +2480,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -2482,7 +2500,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -2502,7 +2520,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -2522,7 +2540,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -2542,7 +2560,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -2562,7 +2580,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -2582,7 +2600,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -2602,7 +2620,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -2622,7 +2640,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -2642,7 +2660,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>8</v>
       </c>
@@ -2662,7 +2680,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>8</v>
       </c>
@@ -2682,7 +2700,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>8</v>
       </c>
@@ -2702,7 +2720,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>8</v>
       </c>
@@ -2722,7 +2740,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -2742,7 +2760,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>8</v>
       </c>
@@ -2762,7 +2780,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2782,7 +2800,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -2802,7 +2820,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>8</v>
       </c>
@@ -2822,7 +2840,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>8</v>
       </c>
@@ -2842,7 +2860,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>8</v>
       </c>
@@ -2862,7 +2880,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2882,7 +2900,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>8</v>
       </c>
@@ -2902,7 +2920,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>8</v>
       </c>
@@ -2922,7 +2940,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>8</v>
       </c>
@@ -2942,7 +2960,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>8</v>
       </c>
@@ -2962,7 +2980,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>8</v>
       </c>
@@ -2982,7 +3000,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>8</v>
       </c>
@@ -3002,7 +3020,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -3022,7 +3040,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>8</v>
       </c>
@@ -3042,7 +3060,7 @@
         <v>44418</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -3062,7 +3080,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -3082,7 +3100,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -3102,7 +3120,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -3122,7 +3140,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -3142,7 +3160,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -3162,7 +3180,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -3182,7 +3200,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -3202,7 +3220,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -3222,7 +3240,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -3242,7 +3260,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -3262,7 +3280,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -3282,7 +3300,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -3302,7 +3320,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -3322,7 +3340,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -3342,7 +3360,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -3362,7 +3380,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -3382,7 +3400,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -3402,7 +3420,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -3422,7 +3440,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -3442,7 +3460,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>8</v>
       </c>
@@ -3462,7 +3480,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>8</v>
       </c>
@@ -3482,7 +3500,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -3502,7 +3520,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>8</v>
       </c>
@@ -3522,7 +3540,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>8</v>
       </c>
@@ -3542,7 +3560,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>8</v>
       </c>
@@ -3562,7 +3580,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -3582,7 +3600,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>8</v>
       </c>
@@ -3602,7 +3620,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>8</v>
       </c>
@@ -3622,7 +3640,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>8</v>
       </c>
@@ -3642,7 +3660,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>8</v>
       </c>
@@ -3662,7 +3680,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>8</v>
       </c>
@@ -3682,7 +3700,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>8</v>
       </c>
@@ -3702,7 +3720,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -3722,7 +3740,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>8</v>
       </c>
@@ -3742,7 +3760,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>8</v>
       </c>
@@ -3762,7 +3780,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -3782,7 +3800,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>8</v>
       </c>
@@ -3802,7 +3820,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>8</v>
       </c>
@@ -3822,7 +3840,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>8</v>
       </c>
@@ -3842,7 +3860,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -3862,7 +3880,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -3882,7 +3900,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -3902,7 +3920,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -3922,7 +3940,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -3942,7 +3960,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -3962,7 +3980,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -3982,7 +4000,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -4002,7 +4020,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>8</v>
       </c>
@@ -4022,7 +4040,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>8</v>
       </c>
@@ -4042,7 +4060,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -4062,7 +4080,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>8</v>
       </c>
@@ -4082,7 +4100,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -4102,7 +4120,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>8</v>
       </c>
@@ -4122,7 +4140,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -4142,7 +4160,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>8</v>
       </c>
@@ -4162,7 +4180,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>8</v>
       </c>
@@ -4182,7 +4200,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>8</v>
       </c>
@@ -4202,7 +4220,7 @@
         <v>44435</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>8</v>
       </c>
@@ -4222,7 +4240,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>8</v>
       </c>
@@ -4242,7 +4260,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>8</v>
       </c>
@@ -4262,7 +4280,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -4282,7 +4300,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>8</v>
       </c>
@@ -4302,7 +4320,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>8</v>
       </c>
@@ -4322,7 +4340,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>8</v>
       </c>
@@ -4342,7 +4360,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>8</v>
       </c>
@@ -4362,7 +4380,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>8</v>
       </c>
@@ -4382,7 +4400,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>8</v>
       </c>
@@ -4402,7 +4420,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -4422,7 +4440,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>8</v>
       </c>
@@ -4442,7 +4460,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>8</v>
       </c>
@@ -4462,7 +4480,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -4482,7 +4500,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -4502,7 +4520,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -4522,7 +4540,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -4542,7 +4560,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -4562,7 +4580,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -4582,7 +4600,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -4602,7 +4620,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -4622,7 +4640,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -4642,7 +4660,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -4662,7 +4680,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -4682,7 +4700,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -4702,7 +4720,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -4722,7 +4740,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -4742,7 +4760,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -4762,7 +4780,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -4782,7 +4800,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -4802,7 +4820,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -4822,7 +4840,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -4842,7 +4860,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -4862,7 +4880,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -4882,7 +4900,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -4902,7 +4920,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -4922,7 +4940,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>5</v>
       </c>
@@ -4942,7 +4960,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -4962,7 +4980,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -4982,7 +5000,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -5002,7 +5020,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -5022,7 +5040,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -5042,7 +5060,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>8</v>
       </c>
@@ -5062,7 +5080,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>8</v>
       </c>
@@ -5082,7 +5100,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>8</v>
       </c>
@@ -5102,7 +5120,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>8</v>
       </c>
@@ -5122,7 +5140,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>8</v>
       </c>
@@ -5142,7 +5160,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -5162,7 +5180,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>8</v>
       </c>
@@ -5182,7 +5200,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>8</v>
       </c>
@@ -5202,7 +5220,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>8</v>
       </c>
@@ -5222,7 +5240,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>8</v>
       </c>
@@ -5242,7 +5260,7 @@
         <v>44439</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>5</v>
       </c>
@@ -5262,7 +5280,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>5</v>
       </c>
@@ -5282,7 +5300,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -5302,7 +5320,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>5</v>
       </c>
@@ -5322,7 +5340,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>5</v>
       </c>
@@ -5342,7 +5360,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -5362,7 +5380,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>5</v>
       </c>
@@ -5382,7 +5400,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>5</v>
       </c>
@@ -5402,7 +5420,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>5</v>
       </c>
@@ -5422,7 +5440,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>5</v>
       </c>
@@ -5442,7 +5460,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>5</v>
       </c>
@@ -5462,7 +5480,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>5</v>
       </c>
@@ -5482,7 +5500,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>5</v>
       </c>
@@ -5502,7 +5520,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -5522,7 +5540,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>8</v>
       </c>
@@ -5542,7 +5560,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>8</v>
       </c>
@@ -5562,7 +5580,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>8</v>
       </c>
@@ -5582,7 +5600,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>8</v>
       </c>
@@ -5602,7 +5620,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>8</v>
       </c>
@@ -5622,7 +5640,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>8</v>
       </c>
@@ -5642,7 +5660,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>8</v>
       </c>
@@ -5662,7 +5680,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>8</v>
       </c>
@@ -5682,7 +5700,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>8</v>
       </c>
@@ -5702,7 +5720,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>8</v>
       </c>
@@ -5722,7 +5740,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>8</v>
       </c>
@@ -5742,7 +5760,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>8</v>
       </c>
@@ -5762,7 +5780,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>8</v>
       </c>
@@ -5782,7 +5800,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>8</v>
       </c>
@@ -5802,7 +5820,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>8</v>
       </c>
@@ -5822,7 +5840,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -5842,7 +5860,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>5</v>
       </c>
@@ -5862,7 +5880,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>5</v>
       </c>
@@ -5882,7 +5900,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -5902,7 +5920,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -5922,7 +5940,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -5942,7 +5960,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -5962,7 +5980,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -5982,7 +6000,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>5</v>
       </c>
@@ -6002,7 +6020,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -6022,7 +6040,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>5</v>
       </c>
@@ -6042,7 +6060,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -6062,7 +6080,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>5</v>
       </c>
@@ -6082,7 +6100,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -6102,7 +6120,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>8</v>
       </c>
@@ -6122,7 +6140,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>8</v>
       </c>
@@ -6142,7 +6160,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>8</v>
       </c>
@@ -6162,7 +6180,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>8</v>
       </c>
@@ -6182,7 +6200,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>8</v>
       </c>
@@ -6202,7 +6220,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>8</v>
       </c>
@@ -6222,7 +6240,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>8</v>
       </c>
@@ -6242,7 +6260,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>8</v>
       </c>
@@ -6262,7 +6280,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>8</v>
       </c>
@@ -6282,7 +6300,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>8</v>
       </c>
@@ -6302,7 +6320,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>8</v>
       </c>
@@ -6322,7 +6340,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>8</v>
       </c>
@@ -6342,7 +6360,7 @@
         <v>44446</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>5</v>
       </c>
@@ -6362,7 +6380,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>5</v>
       </c>
@@ -6382,7 +6400,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>5</v>
       </c>
@@ -6402,7 +6420,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>5</v>
       </c>
@@ -6422,7 +6440,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>5</v>
       </c>
@@ -6442,7 +6460,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>5</v>
       </c>
@@ -6462,7 +6480,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>5</v>
       </c>
@@ -6482,7 +6500,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>5</v>
       </c>
@@ -6502,7 +6520,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>5</v>
       </c>
@@ -6522,7 +6540,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>5</v>
       </c>
@@ -6542,7 +6560,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>5</v>
       </c>
@@ -6562,7 +6580,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>5</v>
       </c>
@@ -6582,7 +6600,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>5</v>
       </c>
@@ -6602,7 +6620,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>5</v>
       </c>
@@ -6622,7 +6640,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>5</v>
       </c>
@@ -6642,7 +6660,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>5</v>
       </c>
@@ -6662,7 +6680,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>5</v>
       </c>
@@ -6682,7 +6700,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>5</v>
       </c>
@@ -6702,7 +6720,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>5</v>
       </c>
@@ -6722,7 +6740,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>5</v>
       </c>
@@ -6742,7 +6760,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>5</v>
       </c>
@@ -6762,7 +6780,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>5</v>
       </c>
@@ -6782,7 +6800,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>8</v>
       </c>
@@ -6802,7 +6820,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>8</v>
       </c>
@@ -6822,7 +6840,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>8</v>
       </c>
@@ -6842,7 +6860,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>8</v>
       </c>
@@ -6862,7 +6880,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>8</v>
       </c>
@@ -6882,7 +6900,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>8</v>
       </c>
@@ -6902,7 +6920,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>8</v>
       </c>
@@ -6922,7 +6940,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>8</v>
       </c>
@@ -6942,7 +6960,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>8</v>
       </c>
@@ -6962,7 +6980,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>8</v>
       </c>
@@ -6982,7 +7000,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>8</v>
       </c>
@@ -7002,7 +7020,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>8</v>
       </c>
@@ -7022,7 +7040,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>8</v>
       </c>
@@ -7042,7 +7060,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>8</v>
       </c>
@@ -7062,7 +7080,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>8</v>
       </c>
@@ -7082,7 +7100,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>8</v>
       </c>
@@ -7102,7 +7120,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>8</v>
       </c>
@@ -7122,7 +7140,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>8</v>
       </c>
@@ -7142,7 +7160,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>8</v>
       </c>
@@ -7162,7 +7180,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>8</v>
       </c>
@@ -7182,7 +7200,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>8</v>
       </c>
@@ -7202,7 +7220,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>8</v>
       </c>
@@ -7222,7 +7240,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>8</v>
       </c>
@@ -7242,7 +7260,7 @@
         <v>44468</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>8</v>
       </c>
@@ -7262,7 +7280,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>8</v>
       </c>
@@ -7282,7 +7300,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>8</v>
       </c>
@@ -7302,7 +7320,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>8</v>
       </c>
@@ -7322,7 +7340,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>8</v>
       </c>
@@ -7342,7 +7360,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>8</v>
       </c>
@@ -7362,7 +7380,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>8</v>
       </c>
@@ -7382,7 +7400,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>8</v>
       </c>
@@ -7402,7 +7420,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>8</v>
       </c>
@@ -7422,7 +7440,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>8</v>
       </c>
@@ -7442,7 +7460,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>8</v>
       </c>
@@ -7462,7 +7480,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>8</v>
       </c>
@@ -7482,7 +7500,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>8</v>
       </c>
@@ -7502,7 +7520,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>8</v>
       </c>
@@ -7522,7 +7540,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>8</v>
       </c>
@@ -7542,7 +7560,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>8</v>
       </c>
@@ -7562,7 +7580,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>8</v>
       </c>
@@ -7582,7 +7600,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>8</v>
       </c>
@@ -7602,7 +7620,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>8</v>
       </c>
@@ -7622,7 +7640,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>8</v>
       </c>
@@ -7642,7 +7660,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>8</v>
       </c>
@@ -7662,7 +7680,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>8</v>
       </c>
@@ -7682,7 +7700,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>8</v>
       </c>
@@ -7702,7 +7720,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>8</v>
       </c>
@@ -7722,7 +7740,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>8</v>
       </c>
@@ -7742,7 +7760,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>8</v>
       </c>
@@ -7762,7 +7780,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>8</v>
       </c>
@@ -7782,7 +7800,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>8</v>
       </c>
@@ -7802,7 +7820,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>8</v>
       </c>
@@ -7822,7 +7840,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>8</v>
       </c>
@@ -7842,7 +7860,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>8</v>
       </c>
@@ -7862,7 +7880,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>8</v>
       </c>
@@ -7882,7 +7900,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>5</v>
       </c>
@@ -7902,7 +7920,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>5</v>
       </c>
@@ -7922,7 +7940,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>5</v>
       </c>
@@ -7942,7 +7960,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>5</v>
       </c>
@@ -7962,7 +7980,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>5</v>
       </c>
@@ -7982,7 +8000,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>5</v>
       </c>
@@ -8002,7 +8020,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>5</v>
       </c>
@@ -8022,7 +8040,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>5</v>
       </c>
@@ -8042,7 +8060,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>5</v>
       </c>
@@ -8062,7 +8080,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>5</v>
       </c>
@@ -8082,7 +8100,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>5</v>
       </c>
@@ -8102,7 +8120,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>5</v>
       </c>
@@ -8122,7 +8140,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>5</v>
       </c>
@@ -8142,7 +8160,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>5</v>
       </c>
@@ -8162,7 +8180,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>5</v>
       </c>
@@ -8182,7 +8200,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>5</v>
       </c>
@@ -8202,7 +8220,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>5</v>
       </c>
@@ -8222,7 +8240,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>5</v>
       </c>
@@ -8242,7 +8260,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>5</v>
       </c>
@@ -8262,7 +8280,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>5</v>
       </c>
@@ -8282,7 +8300,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>5</v>
       </c>
@@ -8302,7 +8320,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>5</v>
       </c>
@@ -8322,7 +8340,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>5</v>
       </c>
@@ -8342,7 +8360,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>5</v>
       </c>
@@ -8362,7 +8380,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>5</v>
       </c>
@@ -8382,7 +8400,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>5</v>
       </c>
@@ -8402,7 +8420,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>5</v>
       </c>
@@ -8422,7 +8440,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>5</v>
       </c>
@@ -8442,7 +8460,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>5</v>
       </c>
@@ -8462,7 +8480,7 @@
         <v>44475</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>5</v>
       </c>
@@ -8485,7 +8503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>5</v>
       </c>
@@ -8505,7 +8523,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>5</v>
       </c>
@@ -8525,7 +8543,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>5</v>
       </c>
@@ -8545,7 +8563,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>5</v>
       </c>
@@ -8565,7 +8583,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>5</v>
       </c>
@@ -8585,7 +8603,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>5</v>
       </c>
@@ -8605,7 +8623,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>5</v>
       </c>
@@ -8625,7 +8643,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>5</v>
       </c>
@@ -8645,7 +8663,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>5</v>
       </c>
@@ -8665,7 +8683,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>5</v>
       </c>
@@ -8685,7 +8703,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>8</v>
       </c>
@@ -8705,7 +8723,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>8</v>
       </c>
@@ -8725,7 +8743,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>8</v>
       </c>
@@ -8745,7 +8763,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>8</v>
       </c>
@@ -8765,7 +8783,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>8</v>
       </c>
@@ -8785,7 +8803,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>8</v>
       </c>
@@ -8805,7 +8823,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>8</v>
       </c>
@@ -8825,7 +8843,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>8</v>
       </c>
@@ -8845,7 +8863,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>8</v>
       </c>
@@ -8865,7 +8883,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>8</v>
       </c>
@@ -8885,7 +8903,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>8</v>
       </c>
@@ -8905,7 +8923,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>8</v>
       </c>
@@ -8925,7 +8943,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>8</v>
       </c>
@@ -8945,7 +8963,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>8</v>
       </c>
@@ -8965,7 +8983,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>5</v>
       </c>
@@ -8985,7 +9003,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>5</v>
       </c>
@@ -9005,7 +9023,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>5</v>
       </c>
@@ -9025,7 +9043,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>5</v>
       </c>
@@ -9045,7 +9063,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>5</v>
       </c>
@@ -9065,7 +9083,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>5</v>
       </c>
@@ -9085,7 +9103,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>5</v>
       </c>
@@ -9105,7 +9123,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>5</v>
       </c>
@@ -9125,7 +9143,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>5</v>
       </c>
@@ -9145,7 +9163,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>8</v>
       </c>
@@ -9165,7 +9183,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>8</v>
       </c>
@@ -9185,7 +9203,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>8</v>
       </c>
@@ -9205,7 +9223,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>8</v>
       </c>
@@ -9225,7 +9243,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>8</v>
       </c>
@@ -9245,7 +9263,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>8</v>
       </c>
@@ -9265,7 +9283,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>8</v>
       </c>
@@ -9285,7 +9303,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>8</v>
       </c>
@@ -9305,7 +9323,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>8</v>
       </c>
@@ -9325,7 +9343,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>8</v>
       </c>
@@ -9345,7 +9363,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>8</v>
       </c>
@@ -9365,7 +9383,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>8</v>
       </c>
@@ -9385,7 +9403,7 @@
         <v>44539</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>5</v>
       </c>
@@ -9405,7 +9423,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>5</v>
       </c>
@@ -9425,7 +9443,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>5</v>
       </c>
@@ -9445,7 +9463,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>5</v>
       </c>
@@ -9465,7 +9483,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>5</v>
       </c>
@@ -9485,7 +9503,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>5</v>
       </c>
@@ -9505,7 +9523,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>5</v>
       </c>
@@ -9525,7 +9543,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>5</v>
       </c>
@@ -9545,7 +9563,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>5</v>
       </c>
@@ -9565,7 +9583,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>5</v>
       </c>
@@ -9585,7 +9603,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>5</v>
       </c>
@@ -9605,7 +9623,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>5</v>
       </c>
@@ -9625,7 +9643,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>5</v>
       </c>
@@ -9645,7 +9663,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>5</v>
       </c>
@@ -9665,7 +9683,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>5</v>
       </c>
@@ -9685,7 +9703,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>5</v>
       </c>
@@ -9705,7 +9723,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>5</v>
       </c>
@@ -9725,7 +9743,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>5</v>
       </c>
@@ -9745,7 +9763,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>8</v>
       </c>
@@ -9765,7 +9783,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>8</v>
       </c>
@@ -9785,7 +9803,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>8</v>
       </c>
@@ -9805,7 +9823,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>8</v>
       </c>
@@ -9825,7 +9843,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>8</v>
       </c>
@@ -9845,7 +9863,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>8</v>
       </c>
@@ -9865,7 +9883,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>8</v>
       </c>
@@ -9885,7 +9903,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>8</v>
       </c>
@@ -9905,7 +9923,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>8</v>
       </c>
@@ -9925,7 +9943,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>8</v>
       </c>
@@ -9945,7 +9963,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>8</v>
       </c>
@@ -9965,7 +9983,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>8</v>
       </c>
@@ -9985,7 +10003,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>8</v>
       </c>
@@ -10005,7 +10023,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>8</v>
       </c>
@@ -10025,7 +10043,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>8</v>
       </c>
@@ -10045,7 +10063,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>8</v>
       </c>
@@ -10065,7 +10083,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>8</v>
       </c>
@@ -10085,7 +10103,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>8</v>
       </c>
@@ -10105,7 +10123,7 @@
         <v>44580</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>8</v>
       </c>
@@ -10125,7 +10143,825 @@
         <v>44580</v>
       </c>
     </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A461" t="s">
+        <v>5</v>
+      </c>
+      <c r="B461" t="s">
+        <v>13</v>
+      </c>
+      <c r="C461" t="s">
+        <v>6</v>
+      </c>
+      <c r="E461" t="s">
+        <v>15</v>
+      </c>
+      <c r="F461" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A462" t="s">
+        <v>5</v>
+      </c>
+      <c r="B462" t="s">
+        <v>13</v>
+      </c>
+      <c r="C462" t="s">
+        <v>6</v>
+      </c>
+      <c r="D462" s="2">
+        <v>3.96</v>
+      </c>
+      <c r="E462" t="s">
+        <v>15</v>
+      </c>
+      <c r="F462" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A463" t="s">
+        <v>5</v>
+      </c>
+      <c r="B463" t="s">
+        <v>13</v>
+      </c>
+      <c r="C463" t="s">
+        <v>6</v>
+      </c>
+      <c r="D463" s="2">
+        <v>2.66</v>
+      </c>
+      <c r="E463" t="s">
+        <v>15</v>
+      </c>
+      <c r="F463" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A464" t="s">
+        <v>5</v>
+      </c>
+      <c r="B464" t="s">
+        <v>13</v>
+      </c>
+      <c r="C464" t="s">
+        <v>6</v>
+      </c>
+      <c r="D464" s="2">
+        <v>3.43</v>
+      </c>
+      <c r="E464" t="s">
+        <v>15</v>
+      </c>
+      <c r="F464" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A465" t="s">
+        <v>5</v>
+      </c>
+      <c r="B465" t="s">
+        <v>13</v>
+      </c>
+      <c r="C465" t="s">
+        <v>6</v>
+      </c>
+      <c r="D465" s="2">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="E465" t="s">
+        <v>15</v>
+      </c>
+      <c r="F465" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A466" t="s">
+        <v>5</v>
+      </c>
+      <c r="B466" t="s">
+        <v>13</v>
+      </c>
+      <c r="C466" t="s">
+        <v>6</v>
+      </c>
+      <c r="D466" s="2">
+        <v>5.71</v>
+      </c>
+      <c r="E466" t="s">
+        <v>15</v>
+      </c>
+      <c r="F466" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>5</v>
+      </c>
+      <c r="B467" t="s">
+        <v>13</v>
+      </c>
+      <c r="C467" t="s">
+        <v>6</v>
+      </c>
+      <c r="D467" s="2">
+        <v>3.09</v>
+      </c>
+      <c r="E467" t="s">
+        <v>15</v>
+      </c>
+      <c r="F467" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A468" t="s">
+        <v>5</v>
+      </c>
+      <c r="B468" t="s">
+        <v>13</v>
+      </c>
+      <c r="C468" t="s">
+        <v>6</v>
+      </c>
+      <c r="D468" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="E468" t="s">
+        <v>15</v>
+      </c>
+      <c r="F468" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A469" t="s">
+        <v>5</v>
+      </c>
+      <c r="B469" t="s">
+        <v>13</v>
+      </c>
+      <c r="C469" t="s">
+        <v>6</v>
+      </c>
+      <c r="D469" s="2">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E469" t="s">
+        <v>15</v>
+      </c>
+      <c r="F469" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>5</v>
+      </c>
+      <c r="B470" t="s">
+        <v>13</v>
+      </c>
+      <c r="C470" t="s">
+        <v>6</v>
+      </c>
+      <c r="D470" s="2">
+        <v>14.71</v>
+      </c>
+      <c r="E470" t="s">
+        <v>15</v>
+      </c>
+      <c r="F470" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A471" t="s">
+        <v>5</v>
+      </c>
+      <c r="B471" t="s">
+        <v>13</v>
+      </c>
+      <c r="C471" t="s">
+        <v>6</v>
+      </c>
+      <c r="D471" s="2">
+        <v>7.46</v>
+      </c>
+      <c r="E471" t="s">
+        <v>15</v>
+      </c>
+      <c r="F471" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A472" t="s">
+        <v>5</v>
+      </c>
+      <c r="B472" t="s">
+        <v>13</v>
+      </c>
+      <c r="C472" t="s">
+        <v>6</v>
+      </c>
+      <c r="D472" s="2">
+        <v>9.64</v>
+      </c>
+      <c r="E472" t="s">
+        <v>15</v>
+      </c>
+      <c r="F472" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A473" t="s">
+        <v>5</v>
+      </c>
+      <c r="B473" t="s">
+        <v>13</v>
+      </c>
+      <c r="C473" t="s">
+        <v>6</v>
+      </c>
+      <c r="D473" s="2">
+        <v>5.08</v>
+      </c>
+      <c r="E473" t="s">
+        <v>15</v>
+      </c>
+      <c r="F473" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A474" t="s">
+        <v>5</v>
+      </c>
+      <c r="B474" t="s">
+        <v>13</v>
+      </c>
+      <c r="C474" t="s">
+        <v>6</v>
+      </c>
+      <c r="D474" s="2">
+        <v>3.14</v>
+      </c>
+      <c r="E474" t="s">
+        <v>15</v>
+      </c>
+      <c r="F474" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A475" t="s">
+        <v>5</v>
+      </c>
+      <c r="B475" t="s">
+        <v>13</v>
+      </c>
+      <c r="C475" t="s">
+        <v>6</v>
+      </c>
+      <c r="D475" s="2">
+        <v>6.26</v>
+      </c>
+      <c r="E475" t="s">
+        <v>15</v>
+      </c>
+      <c r="F475" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A476" t="s">
+        <v>5</v>
+      </c>
+      <c r="B476" t="s">
+        <v>13</v>
+      </c>
+      <c r="C476" t="s">
+        <v>6</v>
+      </c>
+      <c r="D476" s="2">
+        <v>8.48</v>
+      </c>
+      <c r="E476" t="s">
+        <v>15</v>
+      </c>
+      <c r="F476" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A477" t="s">
+        <v>5</v>
+      </c>
+      <c r="B477" t="s">
+        <v>13</v>
+      </c>
+      <c r="C477" t="s">
+        <v>6</v>
+      </c>
+      <c r="D477" s="2">
+        <v>11.26</v>
+      </c>
+      <c r="E477" t="s">
+        <v>15</v>
+      </c>
+      <c r="F477" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A478" t="s">
+        <v>5</v>
+      </c>
+      <c r="B478" t="s">
+        <v>13</v>
+      </c>
+      <c r="C478" t="s">
+        <v>6</v>
+      </c>
+      <c r="D478" s="2">
+        <v>6.68</v>
+      </c>
+      <c r="E478" t="s">
+        <v>15</v>
+      </c>
+      <c r="F478" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A479" t="s">
+        <v>5</v>
+      </c>
+      <c r="B479" t="s">
+        <v>13</v>
+      </c>
+      <c r="C479" t="s">
+        <v>6</v>
+      </c>
+      <c r="D479" s="2">
+        <v>5.48</v>
+      </c>
+      <c r="E479" t="s">
+        <v>15</v>
+      </c>
+      <c r="F479" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A480" t="s">
+        <v>5</v>
+      </c>
+      <c r="B480" t="s">
+        <v>13</v>
+      </c>
+      <c r="C480" t="s">
+        <v>6</v>
+      </c>
+      <c r="D480" s="2">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E480" t="s">
+        <v>15</v>
+      </c>
+      <c r="F480" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A481" t="s">
+        <v>5</v>
+      </c>
+      <c r="B481" t="s">
+        <v>13</v>
+      </c>
+      <c r="C481" t="s">
+        <v>6</v>
+      </c>
+      <c r="D481" s="2">
+        <v>4.83</v>
+      </c>
+      <c r="E481" t="s">
+        <v>15</v>
+      </c>
+      <c r="F481" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A482" t="s">
+        <v>8</v>
+      </c>
+      <c r="B482" t="s">
+        <v>13</v>
+      </c>
+      <c r="C482" t="s">
+        <v>6</v>
+      </c>
+      <c r="D482">
+        <v>4.01</v>
+      </c>
+      <c r="E482" t="s">
+        <v>15</v>
+      </c>
+      <c r="F482" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>8</v>
+      </c>
+      <c r="B483" t="s">
+        <v>13</v>
+      </c>
+      <c r="C483" t="s">
+        <v>6</v>
+      </c>
+      <c r="D483">
+        <v>11.33</v>
+      </c>
+      <c r="E483" t="s">
+        <v>15</v>
+      </c>
+      <c r="F483" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A484" t="s">
+        <v>8</v>
+      </c>
+      <c r="B484" t="s">
+        <v>13</v>
+      </c>
+      <c r="C484" t="s">
+        <v>6</v>
+      </c>
+      <c r="D484">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="E484" t="s">
+        <v>15</v>
+      </c>
+      <c r="F484" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A485" t="s">
+        <v>8</v>
+      </c>
+      <c r="B485" t="s">
+        <v>13</v>
+      </c>
+      <c r="C485" t="s">
+        <v>6</v>
+      </c>
+      <c r="D485">
+        <v>5.64</v>
+      </c>
+      <c r="E485" t="s">
+        <v>15</v>
+      </c>
+      <c r="F485" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A486" t="s">
+        <v>8</v>
+      </c>
+      <c r="B486" t="s">
+        <v>13</v>
+      </c>
+      <c r="C486" t="s">
+        <v>6</v>
+      </c>
+      <c r="D486">
+        <v>10.16</v>
+      </c>
+      <c r="E486" t="s">
+        <v>15</v>
+      </c>
+      <c r="F486" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>8</v>
+      </c>
+      <c r="B487" t="s">
+        <v>13</v>
+      </c>
+      <c r="C487" t="s">
+        <v>6</v>
+      </c>
+      <c r="D487">
+        <v>2.41</v>
+      </c>
+      <c r="E487" t="s">
+        <v>15</v>
+      </c>
+      <c r="F487" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A488" t="s">
+        <v>8</v>
+      </c>
+      <c r="B488" t="s">
+        <v>13</v>
+      </c>
+      <c r="C488" t="s">
+        <v>6</v>
+      </c>
+      <c r="D488">
+        <v>7.39</v>
+      </c>
+      <c r="E488" t="s">
+        <v>15</v>
+      </c>
+      <c r="F488" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A489" t="s">
+        <v>8</v>
+      </c>
+      <c r="B489" t="s">
+        <v>13</v>
+      </c>
+      <c r="C489" t="s">
+        <v>6</v>
+      </c>
+      <c r="D489">
+        <v>5.31</v>
+      </c>
+      <c r="E489" t="s">
+        <v>15</v>
+      </c>
+      <c r="F489" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A490" t="s">
+        <v>8</v>
+      </c>
+      <c r="B490" t="s">
+        <v>13</v>
+      </c>
+      <c r="C490" t="s">
+        <v>6</v>
+      </c>
+      <c r="D490">
+        <v>2.21</v>
+      </c>
+      <c r="E490" t="s">
+        <v>15</v>
+      </c>
+      <c r="F490" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>8</v>
+      </c>
+      <c r="B491" t="s">
+        <v>13</v>
+      </c>
+      <c r="C491" t="s">
+        <v>6</v>
+      </c>
+      <c r="D491">
+        <v>2.21</v>
+      </c>
+      <c r="E491" t="s">
+        <v>15</v>
+      </c>
+      <c r="F491" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A492" t="s">
+        <v>8</v>
+      </c>
+      <c r="B492" t="s">
+        <v>13</v>
+      </c>
+      <c r="C492" t="s">
+        <v>6</v>
+      </c>
+      <c r="D492">
+        <v>1.99</v>
+      </c>
+      <c r="E492" t="s">
+        <v>15</v>
+      </c>
+      <c r="F492" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A493" t="s">
+        <v>8</v>
+      </c>
+      <c r="B493" t="s">
+        <v>13</v>
+      </c>
+      <c r="C493" t="s">
+        <v>6</v>
+      </c>
+      <c r="D493">
+        <v>5.08</v>
+      </c>
+      <c r="E493" t="s">
+        <v>15</v>
+      </c>
+      <c r="F493" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A494" t="s">
+        <v>8</v>
+      </c>
+      <c r="B494" t="s">
+        <v>13</v>
+      </c>
+      <c r="C494" t="s">
+        <v>6</v>
+      </c>
+      <c r="D494">
+        <v>6.71</v>
+      </c>
+      <c r="E494" t="s">
+        <v>15</v>
+      </c>
+      <c r="F494" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A495" t="s">
+        <v>8</v>
+      </c>
+      <c r="B495" t="s">
+        <v>13</v>
+      </c>
+      <c r="C495" t="s">
+        <v>6</v>
+      </c>
+      <c r="D495">
+        <v>4.76</v>
+      </c>
+      <c r="E495" t="s">
+        <v>15</v>
+      </c>
+      <c r="F495" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>8</v>
+      </c>
+      <c r="B496" t="s">
+        <v>13</v>
+      </c>
+      <c r="C496" t="s">
+        <v>6</v>
+      </c>
+      <c r="D496">
+        <v>6.21</v>
+      </c>
+      <c r="E496" t="s">
+        <v>15</v>
+      </c>
+      <c r="F496" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A497" t="s">
+        <v>8</v>
+      </c>
+      <c r="B497" t="s">
+        <v>13</v>
+      </c>
+      <c r="C497" t="s">
+        <v>6</v>
+      </c>
+      <c r="D497">
+        <v>3.06</v>
+      </c>
+      <c r="E497" t="s">
+        <v>15</v>
+      </c>
+      <c r="F497" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A498" t="s">
+        <v>8</v>
+      </c>
+      <c r="B498" t="s">
+        <v>13</v>
+      </c>
+      <c r="C498" t="s">
+        <v>6</v>
+      </c>
+      <c r="D498">
+        <v>3.56</v>
+      </c>
+      <c r="E498" t="s">
+        <v>15</v>
+      </c>
+      <c r="F498" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A499" t="s">
+        <v>8</v>
+      </c>
+      <c r="B499" t="s">
+        <v>13</v>
+      </c>
+      <c r="C499" t="s">
+        <v>6</v>
+      </c>
+      <c r="D499">
+        <v>6.16</v>
+      </c>
+      <c r="E499" t="s">
+        <v>15</v>
+      </c>
+      <c r="F499" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>8</v>
+      </c>
+      <c r="B500" t="s">
+        <v>13</v>
+      </c>
+      <c r="C500" t="s">
+        <v>6</v>
+      </c>
+      <c r="D500">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E500" t="s">
+        <v>15</v>
+      </c>
+      <c r="F500" s="1">
+        <v>44645</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A501" t="s">
+        <v>8</v>
+      </c>
+      <c r="B501" t="s">
+        <v>13</v>
+      </c>
+      <c r="C501" t="s">
+        <v>6</v>
+      </c>
+      <c r="D501">
+        <v>5.43</v>
+      </c>
+      <c r="E501" t="s">
+        <v>15</v>
+      </c>
+      <c r="F501" s="1">
+        <v>44645</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/octanol_30pct_avoidance_ALLDATA.xlsx
+++ b/data/octanol_30pct_avoidance_ALLDATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiabrown/Documents/git/cest-2.1-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F1C1D4-99A5-A044-A77C-04E99D4C02F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F54821-55AE-F946-8F6D-4E2AB496A302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2007" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="17">
   <si>
     <t>genotype</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>MD</t>
+  </si>
+  <si>
+    <t>tbh-1</t>
   </si>
 </sst>
 </file>
@@ -926,11 +929,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G501"/>
+  <dimension ref="A1:G593"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A476" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H492" sqref="H492"/>
+      <pane ySplit="1" topLeftCell="A573" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J586" sqref="J586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10960,6 +10963,1846 @@
         <v>44645</v>
       </c>
     </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A502" t="s">
+        <v>16</v>
+      </c>
+      <c r="B502" t="s">
+        <v>13</v>
+      </c>
+      <c r="C502" t="s">
+        <v>6</v>
+      </c>
+      <c r="D502">
+        <v>4.75</v>
+      </c>
+      <c r="E502" t="s">
+        <v>9</v>
+      </c>
+      <c r="F502" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A503" t="s">
+        <v>16</v>
+      </c>
+      <c r="B503" t="s">
+        <v>13</v>
+      </c>
+      <c r="C503" t="s">
+        <v>6</v>
+      </c>
+      <c r="D503">
+        <v>6.75</v>
+      </c>
+      <c r="E503" t="s">
+        <v>9</v>
+      </c>
+      <c r="F503" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>16</v>
+      </c>
+      <c r="B504" t="s">
+        <v>13</v>
+      </c>
+      <c r="C504" t="s">
+        <v>6</v>
+      </c>
+      <c r="D504">
+        <v>9.23</v>
+      </c>
+      <c r="E504" t="s">
+        <v>9</v>
+      </c>
+      <c r="F504" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A505" t="s">
+        <v>16</v>
+      </c>
+      <c r="B505" t="s">
+        <v>13</v>
+      </c>
+      <c r="C505" t="s">
+        <v>6</v>
+      </c>
+      <c r="D505">
+        <v>7.44</v>
+      </c>
+      <c r="E505" t="s">
+        <v>9</v>
+      </c>
+      <c r="F505" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A506" t="s">
+        <v>16</v>
+      </c>
+      <c r="B506" t="s">
+        <v>13</v>
+      </c>
+      <c r="C506" t="s">
+        <v>6</v>
+      </c>
+      <c r="D506">
+        <v>5.4</v>
+      </c>
+      <c r="E506" t="s">
+        <v>9</v>
+      </c>
+      <c r="F506" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A507" t="s">
+        <v>16</v>
+      </c>
+      <c r="B507" t="s">
+        <v>13</v>
+      </c>
+      <c r="C507" t="s">
+        <v>6</v>
+      </c>
+      <c r="D507">
+        <v>6.3</v>
+      </c>
+      <c r="E507" t="s">
+        <v>9</v>
+      </c>
+      <c r="F507" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>16</v>
+      </c>
+      <c r="B508" t="s">
+        <v>13</v>
+      </c>
+      <c r="C508" t="s">
+        <v>6</v>
+      </c>
+      <c r="D508">
+        <v>7.94</v>
+      </c>
+      <c r="E508" t="s">
+        <v>9</v>
+      </c>
+      <c r="F508" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A509" t="s">
+        <v>16</v>
+      </c>
+      <c r="B509" t="s">
+        <v>13</v>
+      </c>
+      <c r="C509" t="s">
+        <v>6</v>
+      </c>
+      <c r="D509">
+        <v>3.23</v>
+      </c>
+      <c r="E509" t="s">
+        <v>9</v>
+      </c>
+      <c r="F509" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A510" t="s">
+        <v>16</v>
+      </c>
+      <c r="B510" t="s">
+        <v>13</v>
+      </c>
+      <c r="C510" t="s">
+        <v>6</v>
+      </c>
+      <c r="D510">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E510" t="s">
+        <v>9</v>
+      </c>
+      <c r="F510" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A511" t="s">
+        <v>16</v>
+      </c>
+      <c r="B511" t="s">
+        <v>13</v>
+      </c>
+      <c r="C511" t="s">
+        <v>6</v>
+      </c>
+      <c r="D511">
+        <v>5.23</v>
+      </c>
+      <c r="E511" t="s">
+        <v>9</v>
+      </c>
+      <c r="F511" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A512" t="s">
+        <v>16</v>
+      </c>
+      <c r="B512" t="s">
+        <v>13</v>
+      </c>
+      <c r="C512" t="s">
+        <v>6</v>
+      </c>
+      <c r="D512">
+        <v>2.82</v>
+      </c>
+      <c r="E512" t="s">
+        <v>9</v>
+      </c>
+      <c r="F512" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A513" t="s">
+        <v>16</v>
+      </c>
+      <c r="B513" t="s">
+        <v>13</v>
+      </c>
+      <c r="C513" t="s">
+        <v>6</v>
+      </c>
+      <c r="D513">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="E513" t="s">
+        <v>9</v>
+      </c>
+      <c r="F513" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A514" t="s">
+        <v>16</v>
+      </c>
+      <c r="B514" t="s">
+        <v>13</v>
+      </c>
+      <c r="C514" t="s">
+        <v>6</v>
+      </c>
+      <c r="D514">
+        <v>3.19</v>
+      </c>
+      <c r="E514" t="s">
+        <v>9</v>
+      </c>
+      <c r="F514" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A515" t="s">
+        <v>16</v>
+      </c>
+      <c r="B515" t="s">
+        <v>13</v>
+      </c>
+      <c r="C515" t="s">
+        <v>6</v>
+      </c>
+      <c r="D515">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="E515" t="s">
+        <v>9</v>
+      </c>
+      <c r="F515" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A516" t="s">
+        <v>16</v>
+      </c>
+      <c r="B516" t="s">
+        <v>13</v>
+      </c>
+      <c r="C516" t="s">
+        <v>6</v>
+      </c>
+      <c r="D516">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E516" t="s">
+        <v>9</v>
+      </c>
+      <c r="F516" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A517" t="s">
+        <v>16</v>
+      </c>
+      <c r="B517" t="s">
+        <v>13</v>
+      </c>
+      <c r="C517" t="s">
+        <v>6</v>
+      </c>
+      <c r="D517">
+        <v>6.59</v>
+      </c>
+      <c r="E517" t="s">
+        <v>9</v>
+      </c>
+      <c r="F517" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A518" t="s">
+        <v>8</v>
+      </c>
+      <c r="B518" t="s">
+        <v>13</v>
+      </c>
+      <c r="C518" t="s">
+        <v>6</v>
+      </c>
+      <c r="D518">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E518" t="s">
+        <v>9</v>
+      </c>
+      <c r="F518" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A519" t="s">
+        <v>8</v>
+      </c>
+      <c r="B519" t="s">
+        <v>13</v>
+      </c>
+      <c r="C519" t="s">
+        <v>6</v>
+      </c>
+      <c r="D519">
+        <v>3.84</v>
+      </c>
+      <c r="E519" t="s">
+        <v>9</v>
+      </c>
+      <c r="F519" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A520" t="s">
+        <v>8</v>
+      </c>
+      <c r="B520" t="s">
+        <v>13</v>
+      </c>
+      <c r="C520" t="s">
+        <v>6</v>
+      </c>
+      <c r="D520">
+        <v>2.64</v>
+      </c>
+      <c r="E520" t="s">
+        <v>9</v>
+      </c>
+      <c r="F520" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A521" t="s">
+        <v>8</v>
+      </c>
+      <c r="B521" t="s">
+        <v>13</v>
+      </c>
+      <c r="C521" t="s">
+        <v>6</v>
+      </c>
+      <c r="D521">
+        <v>3.35</v>
+      </c>
+      <c r="E521" t="s">
+        <v>9</v>
+      </c>
+      <c r="F521" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A522" t="s">
+        <v>8</v>
+      </c>
+      <c r="B522" t="s">
+        <v>13</v>
+      </c>
+      <c r="C522" t="s">
+        <v>6</v>
+      </c>
+      <c r="D522">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E522" t="s">
+        <v>9</v>
+      </c>
+      <c r="F522" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A523" t="s">
+        <v>8</v>
+      </c>
+      <c r="B523" t="s">
+        <v>13</v>
+      </c>
+      <c r="C523" t="s">
+        <v>6</v>
+      </c>
+      <c r="D523">
+        <v>3.54</v>
+      </c>
+      <c r="E523" t="s">
+        <v>9</v>
+      </c>
+      <c r="F523" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A524" t="s">
+        <v>8</v>
+      </c>
+      <c r="B524" t="s">
+        <v>13</v>
+      </c>
+      <c r="C524" t="s">
+        <v>6</v>
+      </c>
+      <c r="D524">
+        <v>3.06</v>
+      </c>
+      <c r="E524" t="s">
+        <v>9</v>
+      </c>
+      <c r="F524" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A525" t="s">
+        <v>8</v>
+      </c>
+      <c r="B525" t="s">
+        <v>13</v>
+      </c>
+      <c r="C525" t="s">
+        <v>6</v>
+      </c>
+      <c r="D525">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="E525" t="s">
+        <v>9</v>
+      </c>
+      <c r="F525" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A526" t="s">
+        <v>8</v>
+      </c>
+      <c r="B526" t="s">
+        <v>13</v>
+      </c>
+      <c r="C526" t="s">
+        <v>6</v>
+      </c>
+      <c r="D526">
+        <v>4.25</v>
+      </c>
+      <c r="E526" t="s">
+        <v>9</v>
+      </c>
+      <c r="F526" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A527" t="s">
+        <v>8</v>
+      </c>
+      <c r="B527" t="s">
+        <v>13</v>
+      </c>
+      <c r="C527" t="s">
+        <v>6</v>
+      </c>
+      <c r="D527">
+        <v>5.88</v>
+      </c>
+      <c r="E527" t="s">
+        <v>9</v>
+      </c>
+      <c r="F527" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A528" t="s">
+        <v>8</v>
+      </c>
+      <c r="B528" t="s">
+        <v>13</v>
+      </c>
+      <c r="C528" t="s">
+        <v>6</v>
+      </c>
+      <c r="D528">
+        <v>3.95</v>
+      </c>
+      <c r="E528" t="s">
+        <v>9</v>
+      </c>
+      <c r="F528" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A529" t="s">
+        <v>8</v>
+      </c>
+      <c r="B529" t="s">
+        <v>13</v>
+      </c>
+      <c r="C529" t="s">
+        <v>6</v>
+      </c>
+      <c r="D529">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E529" t="s">
+        <v>9</v>
+      </c>
+      <c r="F529" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A530" t="s">
+        <v>8</v>
+      </c>
+      <c r="B530" t="s">
+        <v>13</v>
+      </c>
+      <c r="C530" t="s">
+        <v>6</v>
+      </c>
+      <c r="D530">
+        <v>4.5</v>
+      </c>
+      <c r="E530" t="s">
+        <v>9</v>
+      </c>
+      <c r="F530" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A531" t="s">
+        <v>8</v>
+      </c>
+      <c r="B531" t="s">
+        <v>13</v>
+      </c>
+      <c r="C531" t="s">
+        <v>6</v>
+      </c>
+      <c r="D531">
+        <v>4.38</v>
+      </c>
+      <c r="E531" t="s">
+        <v>9</v>
+      </c>
+      <c r="F531" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A532" t="s">
+        <v>8</v>
+      </c>
+      <c r="B532" t="s">
+        <v>13</v>
+      </c>
+      <c r="C532" t="s">
+        <v>6</v>
+      </c>
+      <c r="D532">
+        <v>5.55</v>
+      </c>
+      <c r="E532" t="s">
+        <v>9</v>
+      </c>
+      <c r="F532" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A533" t="s">
+        <v>8</v>
+      </c>
+      <c r="B533" t="s">
+        <v>13</v>
+      </c>
+      <c r="C533" t="s">
+        <v>6</v>
+      </c>
+      <c r="D533">
+        <v>3.26</v>
+      </c>
+      <c r="E533" t="s">
+        <v>9</v>
+      </c>
+      <c r="F533" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A534" t="s">
+        <v>5</v>
+      </c>
+      <c r="B534" t="s">
+        <v>13</v>
+      </c>
+      <c r="C534" t="s">
+        <v>6</v>
+      </c>
+      <c r="D534">
+        <v>12.82</v>
+      </c>
+      <c r="E534" t="s">
+        <v>9</v>
+      </c>
+      <c r="F534" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A535" t="s">
+        <v>5</v>
+      </c>
+      <c r="B535" t="s">
+        <v>13</v>
+      </c>
+      <c r="C535" t="s">
+        <v>6</v>
+      </c>
+      <c r="D535">
+        <v>6.16</v>
+      </c>
+      <c r="E535" t="s">
+        <v>9</v>
+      </c>
+      <c r="F535" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A536" t="s">
+        <v>5</v>
+      </c>
+      <c r="B536" t="s">
+        <v>13</v>
+      </c>
+      <c r="C536" t="s">
+        <v>6</v>
+      </c>
+      <c r="D536">
+        <v>6.89</v>
+      </c>
+      <c r="E536" t="s">
+        <v>9</v>
+      </c>
+      <c r="F536" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A537" t="s">
+        <v>5</v>
+      </c>
+      <c r="B537" t="s">
+        <v>13</v>
+      </c>
+      <c r="C537" t="s">
+        <v>6</v>
+      </c>
+      <c r="D537">
+        <v>8.56</v>
+      </c>
+      <c r="E537" t="s">
+        <v>9</v>
+      </c>
+      <c r="F537" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A538" t="s">
+        <v>5</v>
+      </c>
+      <c r="B538" t="s">
+        <v>13</v>
+      </c>
+      <c r="C538" t="s">
+        <v>6</v>
+      </c>
+      <c r="D538">
+        <v>4.26</v>
+      </c>
+      <c r="E538" t="s">
+        <v>9</v>
+      </c>
+      <c r="F538" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A539" t="s">
+        <v>5</v>
+      </c>
+      <c r="B539" t="s">
+        <v>13</v>
+      </c>
+      <c r="C539" t="s">
+        <v>6</v>
+      </c>
+      <c r="D539">
+        <v>11.92</v>
+      </c>
+      <c r="E539" t="s">
+        <v>9</v>
+      </c>
+      <c r="F539" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A540" t="s">
+        <v>5</v>
+      </c>
+      <c r="B540" t="s">
+        <v>13</v>
+      </c>
+      <c r="C540" t="s">
+        <v>6</v>
+      </c>
+      <c r="D540">
+        <v>7.25</v>
+      </c>
+      <c r="E540" t="s">
+        <v>9</v>
+      </c>
+      <c r="F540" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A541" t="s">
+        <v>5</v>
+      </c>
+      <c r="B541" t="s">
+        <v>13</v>
+      </c>
+      <c r="C541" t="s">
+        <v>6</v>
+      </c>
+      <c r="D541">
+        <v>5.26</v>
+      </c>
+      <c r="E541" t="s">
+        <v>9</v>
+      </c>
+      <c r="F541" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A542" t="s">
+        <v>5</v>
+      </c>
+      <c r="B542" t="s">
+        <v>13</v>
+      </c>
+      <c r="C542" t="s">
+        <v>6</v>
+      </c>
+      <c r="D542">
+        <v>6.25</v>
+      </c>
+      <c r="E542" t="s">
+        <v>9</v>
+      </c>
+      <c r="F542" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A543" t="s">
+        <v>5</v>
+      </c>
+      <c r="B543" t="s">
+        <v>13</v>
+      </c>
+      <c r="C543" t="s">
+        <v>6</v>
+      </c>
+      <c r="D543">
+        <v>9.15</v>
+      </c>
+      <c r="E543" t="s">
+        <v>9</v>
+      </c>
+      <c r="F543" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A544" t="s">
+        <v>5</v>
+      </c>
+      <c r="B544" t="s">
+        <v>13</v>
+      </c>
+      <c r="C544" t="s">
+        <v>6</v>
+      </c>
+      <c r="D544">
+        <v>14.08</v>
+      </c>
+      <c r="E544" t="s">
+        <v>9</v>
+      </c>
+      <c r="F544" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A545" t="s">
+        <v>5</v>
+      </c>
+      <c r="B545" t="s">
+        <v>13</v>
+      </c>
+      <c r="C545" t="s">
+        <v>6</v>
+      </c>
+      <c r="D545">
+        <v>11.96</v>
+      </c>
+      <c r="E545" t="s">
+        <v>9</v>
+      </c>
+      <c r="F545" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A546" t="s">
+        <v>5</v>
+      </c>
+      <c r="B546" t="s">
+        <v>13</v>
+      </c>
+      <c r="C546" t="s">
+        <v>6</v>
+      </c>
+      <c r="D546">
+        <v>7.59</v>
+      </c>
+      <c r="E546" t="s">
+        <v>9</v>
+      </c>
+      <c r="F546" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A547" t="s">
+        <v>5</v>
+      </c>
+      <c r="B547" t="s">
+        <v>13</v>
+      </c>
+      <c r="C547" t="s">
+        <v>6</v>
+      </c>
+      <c r="D547">
+        <v>8.73</v>
+      </c>
+      <c r="E547" t="s">
+        <v>9</v>
+      </c>
+      <c r="F547" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A548" t="s">
+        <v>5</v>
+      </c>
+      <c r="B548" t="s">
+        <v>13</v>
+      </c>
+      <c r="C548" t="s">
+        <v>6</v>
+      </c>
+      <c r="D548">
+        <v>7.7</v>
+      </c>
+      <c r="E548" t="s">
+        <v>9</v>
+      </c>
+      <c r="F548" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A549" t="s">
+        <v>5</v>
+      </c>
+      <c r="B549" t="s">
+        <v>13</v>
+      </c>
+      <c r="C549" t="s">
+        <v>6</v>
+      </c>
+      <c r="D549">
+        <v>5.79</v>
+      </c>
+      <c r="E549" t="s">
+        <v>9</v>
+      </c>
+      <c r="F549" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A550" t="s">
+        <v>5</v>
+      </c>
+      <c r="B550" t="s">
+        <v>13</v>
+      </c>
+      <c r="C550" t="s">
+        <v>6</v>
+      </c>
+      <c r="D550">
+        <v>15.47</v>
+      </c>
+      <c r="E550" t="s">
+        <v>9</v>
+      </c>
+      <c r="F550" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A551" t="s">
+        <v>5</v>
+      </c>
+      <c r="B551" t="s">
+        <v>13</v>
+      </c>
+      <c r="C551" t="s">
+        <v>6</v>
+      </c>
+      <c r="D551">
+        <v>4.97</v>
+      </c>
+      <c r="E551" t="s">
+        <v>9</v>
+      </c>
+      <c r="F551" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A552" t="s">
+        <v>5</v>
+      </c>
+      <c r="B552" t="s">
+        <v>13</v>
+      </c>
+      <c r="C552" t="s">
+        <v>6</v>
+      </c>
+      <c r="D552">
+        <v>5.76</v>
+      </c>
+      <c r="E552" t="s">
+        <v>9</v>
+      </c>
+      <c r="F552" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A553" t="s">
+        <v>16</v>
+      </c>
+      <c r="B553" t="s">
+        <v>13</v>
+      </c>
+      <c r="C553" t="s">
+        <v>6</v>
+      </c>
+      <c r="D553">
+        <v>6.48</v>
+      </c>
+      <c r="E553" t="s">
+        <v>15</v>
+      </c>
+      <c r="F553" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A554" t="s">
+        <v>16</v>
+      </c>
+      <c r="B554" t="s">
+        <v>13</v>
+      </c>
+      <c r="C554" t="s">
+        <v>6</v>
+      </c>
+      <c r="D554">
+        <v>4.53</v>
+      </c>
+      <c r="E554" t="s">
+        <v>15</v>
+      </c>
+      <c r="F554" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A555" t="s">
+        <v>16</v>
+      </c>
+      <c r="B555" t="s">
+        <v>13</v>
+      </c>
+      <c r="C555" t="s">
+        <v>6</v>
+      </c>
+      <c r="D555">
+        <v>10.19</v>
+      </c>
+      <c r="E555" t="s">
+        <v>15</v>
+      </c>
+      <c r="F555" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A556" t="s">
+        <v>16</v>
+      </c>
+      <c r="B556" t="s">
+        <v>13</v>
+      </c>
+      <c r="C556" t="s">
+        <v>6</v>
+      </c>
+      <c r="D556">
+        <v>1.66</v>
+      </c>
+      <c r="E556" t="s">
+        <v>15</v>
+      </c>
+      <c r="F556" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A557" t="s">
+        <v>16</v>
+      </c>
+      <c r="B557" t="s">
+        <v>13</v>
+      </c>
+      <c r="C557" t="s">
+        <v>6</v>
+      </c>
+      <c r="D557">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E557" t="s">
+        <v>15</v>
+      </c>
+      <c r="F557" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A558" t="s">
+        <v>16</v>
+      </c>
+      <c r="B558" t="s">
+        <v>13</v>
+      </c>
+      <c r="C558" t="s">
+        <v>6</v>
+      </c>
+      <c r="D558">
+        <v>4.88</v>
+      </c>
+      <c r="E558" t="s">
+        <v>15</v>
+      </c>
+      <c r="F558" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A559" t="s">
+        <v>16</v>
+      </c>
+      <c r="B559" t="s">
+        <v>13</v>
+      </c>
+      <c r="C559" t="s">
+        <v>6</v>
+      </c>
+      <c r="D559">
+        <v>5.21</v>
+      </c>
+      <c r="E559" t="s">
+        <v>15</v>
+      </c>
+      <c r="F559" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A560" t="s">
+        <v>16</v>
+      </c>
+      <c r="B560" t="s">
+        <v>13</v>
+      </c>
+      <c r="C560" t="s">
+        <v>6</v>
+      </c>
+      <c r="D560">
+        <v>8.14</v>
+      </c>
+      <c r="E560" t="s">
+        <v>15</v>
+      </c>
+      <c r="F560" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A561" t="s">
+        <v>16</v>
+      </c>
+      <c r="B561" t="s">
+        <v>13</v>
+      </c>
+      <c r="C561" t="s">
+        <v>6</v>
+      </c>
+      <c r="D561">
+        <v>2.89</v>
+      </c>
+      <c r="E561" t="s">
+        <v>15</v>
+      </c>
+      <c r="F561" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A562" t="s">
+        <v>16</v>
+      </c>
+      <c r="B562" t="s">
+        <v>13</v>
+      </c>
+      <c r="C562" t="s">
+        <v>6</v>
+      </c>
+      <c r="D562">
+        <v>5.84</v>
+      </c>
+      <c r="E562" t="s">
+        <v>15</v>
+      </c>
+      <c r="F562" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A563" t="s">
+        <v>16</v>
+      </c>
+      <c r="B563" t="s">
+        <v>13</v>
+      </c>
+      <c r="C563" t="s">
+        <v>6</v>
+      </c>
+      <c r="D563">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E563" t="s">
+        <v>15</v>
+      </c>
+      <c r="F563" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A564" t="s">
+        <v>16</v>
+      </c>
+      <c r="B564" t="s">
+        <v>13</v>
+      </c>
+      <c r="C564" t="s">
+        <v>6</v>
+      </c>
+      <c r="D564">
+        <v>4.91</v>
+      </c>
+      <c r="E564" t="s">
+        <v>15</v>
+      </c>
+      <c r="F564" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A565" t="s">
+        <v>16</v>
+      </c>
+      <c r="B565" t="s">
+        <v>13</v>
+      </c>
+      <c r="C565" t="s">
+        <v>6</v>
+      </c>
+      <c r="D565">
+        <v>5.01</v>
+      </c>
+      <c r="E565" t="s">
+        <v>15</v>
+      </c>
+      <c r="F565" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A566" t="s">
+        <v>16</v>
+      </c>
+      <c r="B566" t="s">
+        <v>13</v>
+      </c>
+      <c r="C566" t="s">
+        <v>6</v>
+      </c>
+      <c r="D566">
+        <v>5.34</v>
+      </c>
+      <c r="E566" t="s">
+        <v>15</v>
+      </c>
+      <c r="F566" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A567" t="s">
+        <v>8</v>
+      </c>
+      <c r="B567" t="s">
+        <v>13</v>
+      </c>
+      <c r="C567" t="s">
+        <v>6</v>
+      </c>
+      <c r="D567">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E567" t="s">
+        <v>15</v>
+      </c>
+      <c r="F567" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A568" t="s">
+        <v>8</v>
+      </c>
+      <c r="B568" t="s">
+        <v>13</v>
+      </c>
+      <c r="C568" t="s">
+        <v>6</v>
+      </c>
+      <c r="D568">
+        <v>2.94</v>
+      </c>
+      <c r="E568" t="s">
+        <v>15</v>
+      </c>
+      <c r="F568" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A569" t="s">
+        <v>8</v>
+      </c>
+      <c r="B569" t="s">
+        <v>13</v>
+      </c>
+      <c r="C569" t="s">
+        <v>6</v>
+      </c>
+      <c r="D569">
+        <v>2.58</v>
+      </c>
+      <c r="E569" t="s">
+        <v>15</v>
+      </c>
+      <c r="F569" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A570" t="s">
+        <v>8</v>
+      </c>
+      <c r="B570" t="s">
+        <v>13</v>
+      </c>
+      <c r="C570" t="s">
+        <v>6</v>
+      </c>
+      <c r="D570">
+        <v>6.266</v>
+      </c>
+      <c r="E570" t="s">
+        <v>15</v>
+      </c>
+      <c r="F570" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A571" t="s">
+        <v>8</v>
+      </c>
+      <c r="B571" t="s">
+        <v>13</v>
+      </c>
+      <c r="C571" t="s">
+        <v>6</v>
+      </c>
+      <c r="D571">
+        <v>3.91</v>
+      </c>
+      <c r="E571" t="s">
+        <v>15</v>
+      </c>
+      <c r="F571" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A572" t="s">
+        <v>8</v>
+      </c>
+      <c r="B572" t="s">
+        <v>13</v>
+      </c>
+      <c r="C572" t="s">
+        <v>6</v>
+      </c>
+      <c r="D572">
+        <v>10.43</v>
+      </c>
+      <c r="E572" t="s">
+        <v>15</v>
+      </c>
+      <c r="F572" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A573" t="s">
+        <v>8</v>
+      </c>
+      <c r="B573" t="s">
+        <v>13</v>
+      </c>
+      <c r="C573" t="s">
+        <v>6</v>
+      </c>
+      <c r="D573">
+        <v>1.89</v>
+      </c>
+      <c r="E573" t="s">
+        <v>15</v>
+      </c>
+      <c r="F573" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A574" t="s">
+        <v>8</v>
+      </c>
+      <c r="B574" t="s">
+        <v>13</v>
+      </c>
+      <c r="C574" t="s">
+        <v>6</v>
+      </c>
+      <c r="D574">
+        <v>2.89</v>
+      </c>
+      <c r="E574" t="s">
+        <v>15</v>
+      </c>
+      <c r="F574" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A575" t="s">
+        <v>8</v>
+      </c>
+      <c r="B575" t="s">
+        <v>13</v>
+      </c>
+      <c r="C575" t="s">
+        <v>6</v>
+      </c>
+      <c r="D575">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E575" t="s">
+        <v>15</v>
+      </c>
+      <c r="F575" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A576" t="s">
+        <v>8</v>
+      </c>
+      <c r="B576" t="s">
+        <v>13</v>
+      </c>
+      <c r="C576" t="s">
+        <v>6</v>
+      </c>
+      <c r="D576">
+        <v>1.96</v>
+      </c>
+      <c r="E576" t="s">
+        <v>15</v>
+      </c>
+      <c r="F576" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A577" t="s">
+        <v>8</v>
+      </c>
+      <c r="B577" t="s">
+        <v>13</v>
+      </c>
+      <c r="C577" t="s">
+        <v>6</v>
+      </c>
+      <c r="D577">
+        <v>5.51</v>
+      </c>
+      <c r="E577" t="s">
+        <v>15</v>
+      </c>
+      <c r="F577" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A578" t="s">
+        <v>8</v>
+      </c>
+      <c r="B578" t="s">
+        <v>13</v>
+      </c>
+      <c r="C578" t="s">
+        <v>6</v>
+      </c>
+      <c r="D578">
+        <v>3.31</v>
+      </c>
+      <c r="E578" t="s">
+        <v>15</v>
+      </c>
+      <c r="F578" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A579" t="s">
+        <v>8</v>
+      </c>
+      <c r="B579" t="s">
+        <v>13</v>
+      </c>
+      <c r="C579" t="s">
+        <v>6</v>
+      </c>
+      <c r="D579">
+        <v>2.98</v>
+      </c>
+      <c r="E579" t="s">
+        <v>15</v>
+      </c>
+      <c r="F579" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A580" t="s">
+        <v>8</v>
+      </c>
+      <c r="B580" t="s">
+        <v>13</v>
+      </c>
+      <c r="C580" t="s">
+        <v>6</v>
+      </c>
+      <c r="D580">
+        <v>2.84</v>
+      </c>
+      <c r="E580" t="s">
+        <v>15</v>
+      </c>
+      <c r="F580" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A581" t="s">
+        <v>8</v>
+      </c>
+      <c r="B581" t="s">
+        <v>13</v>
+      </c>
+      <c r="C581" t="s">
+        <v>6</v>
+      </c>
+      <c r="D581">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E581" t="s">
+        <v>15</v>
+      </c>
+      <c r="F581" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A582" t="s">
+        <v>5</v>
+      </c>
+      <c r="B582" t="s">
+        <v>13</v>
+      </c>
+      <c r="C582" t="s">
+        <v>6</v>
+      </c>
+      <c r="D582">
+        <v>4.18</v>
+      </c>
+      <c r="E582" t="s">
+        <v>15</v>
+      </c>
+      <c r="F582" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A583" t="s">
+        <v>5</v>
+      </c>
+      <c r="B583" t="s">
+        <v>13</v>
+      </c>
+      <c r="C583" t="s">
+        <v>6</v>
+      </c>
+      <c r="D583">
+        <v>3.58</v>
+      </c>
+      <c r="E583" t="s">
+        <v>15</v>
+      </c>
+      <c r="F583" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A584" t="s">
+        <v>5</v>
+      </c>
+      <c r="B584" t="s">
+        <v>13</v>
+      </c>
+      <c r="C584" t="s">
+        <v>6</v>
+      </c>
+      <c r="D584">
+        <v>16.48</v>
+      </c>
+      <c r="E584" t="s">
+        <v>15</v>
+      </c>
+      <c r="F584" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A585" t="s">
+        <v>5</v>
+      </c>
+      <c r="B585" t="s">
+        <v>13</v>
+      </c>
+      <c r="C585" t="s">
+        <v>6</v>
+      </c>
+      <c r="D585">
+        <v>15.06</v>
+      </c>
+      <c r="E585" t="s">
+        <v>15</v>
+      </c>
+      <c r="F585" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A586" t="s">
+        <v>5</v>
+      </c>
+      <c r="B586" t="s">
+        <v>13</v>
+      </c>
+      <c r="C586" t="s">
+        <v>6</v>
+      </c>
+      <c r="D586">
+        <v>7.68</v>
+      </c>
+      <c r="E586" t="s">
+        <v>15</v>
+      </c>
+      <c r="F586" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A587" t="s">
+        <v>5</v>
+      </c>
+      <c r="B587" t="s">
+        <v>13</v>
+      </c>
+      <c r="C587" t="s">
+        <v>6</v>
+      </c>
+      <c r="D587">
+        <v>7.99</v>
+      </c>
+      <c r="E587" t="s">
+        <v>15</v>
+      </c>
+      <c r="F587" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A588" t="s">
+        <v>5</v>
+      </c>
+      <c r="B588" t="s">
+        <v>13</v>
+      </c>
+      <c r="C588" t="s">
+        <v>6</v>
+      </c>
+      <c r="D588">
+        <v>3.06</v>
+      </c>
+      <c r="E588" t="s">
+        <v>15</v>
+      </c>
+      <c r="F588" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A589" t="s">
+        <v>5</v>
+      </c>
+      <c r="B589" t="s">
+        <v>13</v>
+      </c>
+      <c r="C589" t="s">
+        <v>6</v>
+      </c>
+      <c r="D589">
+        <v>11.53</v>
+      </c>
+      <c r="E589" t="s">
+        <v>15</v>
+      </c>
+      <c r="F589" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A590" t="s">
+        <v>5</v>
+      </c>
+      <c r="B590" t="s">
+        <v>13</v>
+      </c>
+      <c r="C590" t="s">
+        <v>6</v>
+      </c>
+      <c r="D590">
+        <v>8.23</v>
+      </c>
+      <c r="E590" t="s">
+        <v>15</v>
+      </c>
+      <c r="F590" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A591" t="s">
+        <v>5</v>
+      </c>
+      <c r="B591" t="s">
+        <v>13</v>
+      </c>
+      <c r="C591" t="s">
+        <v>6</v>
+      </c>
+      <c r="D591">
+        <v>11.88</v>
+      </c>
+      <c r="E591" t="s">
+        <v>15</v>
+      </c>
+      <c r="F591" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A592" t="s">
+        <v>5</v>
+      </c>
+      <c r="B592" t="s">
+        <v>13</v>
+      </c>
+      <c r="C592" t="s">
+        <v>6</v>
+      </c>
+      <c r="D592">
+        <v>7.09</v>
+      </c>
+      <c r="E592" t="s">
+        <v>15</v>
+      </c>
+      <c r="F592" s="1">
+        <v>44656</v>
+      </c>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A593" t="s">
+        <v>5</v>
+      </c>
+      <c r="B593" t="s">
+        <v>13</v>
+      </c>
+      <c r="C593" t="s">
+        <v>6</v>
+      </c>
+      <c r="D593">
+        <v>6.41</v>
+      </c>
+      <c r="E593" t="s">
+        <v>15</v>
+      </c>
+      <c r="F593" s="1">
+        <v>44656</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/octanol_30pct_avoidance_ALLDATA.xlsx
+++ b/data/octanol_30pct_avoidance_ALLDATA.xlsx
@@ -1,26 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiabrown/Documents/git/cest-2.1-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F54821-55AE-F946-8F6D-4E2AB496A302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1B4258-F994-0F45-B285-C0C3B9620BD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="octanol_30pct_avoidance_210805" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2951" uniqueCount="18">
   <si>
     <t>genotype</t>
   </si>
@@ -71,6 +83,9 @@
   </si>
   <si>
     <t>tbh-1</t>
+  </si>
+  <si>
+    <t>transgenics line 6</t>
   </si>
 </sst>
 </file>
@@ -929,18 +944,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G593"/>
+  <dimension ref="A1:I737"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A573" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J586" sqref="J586"/>
+      <pane ySplit="1" topLeftCell="A713" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G737" sqref="G737"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -12783,7 +12800,7 @@
         <v>44656</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>5</v>
       </c>
@@ -12801,6 +12818,2887 @@
       </c>
       <c r="F593" s="1">
         <v>44656</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A594" t="s">
+        <v>5</v>
+      </c>
+      <c r="B594" t="s">
+        <v>13</v>
+      </c>
+      <c r="C594" t="s">
+        <v>6</v>
+      </c>
+      <c r="D594">
+        <v>16.25</v>
+      </c>
+      <c r="E594" t="s">
+        <v>9</v>
+      </c>
+      <c r="F594" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A595" t="s">
+        <v>5</v>
+      </c>
+      <c r="B595" t="s">
+        <v>13</v>
+      </c>
+      <c r="C595" t="s">
+        <v>6</v>
+      </c>
+      <c r="D595">
+        <v>3.08</v>
+      </c>
+      <c r="E595" t="s">
+        <v>9</v>
+      </c>
+      <c r="F595" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A596" t="s">
+        <v>5</v>
+      </c>
+      <c r="B596" t="s">
+        <v>13</v>
+      </c>
+      <c r="C596" t="s">
+        <v>6</v>
+      </c>
+      <c r="D596">
+        <v>7.87</v>
+      </c>
+      <c r="E596" t="s">
+        <v>9</v>
+      </c>
+      <c r="F596" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A597" t="s">
+        <v>5</v>
+      </c>
+      <c r="B597" t="s">
+        <v>13</v>
+      </c>
+      <c r="C597" t="s">
+        <v>6</v>
+      </c>
+      <c r="D597">
+        <v>9.09</v>
+      </c>
+      <c r="E597" t="s">
+        <v>9</v>
+      </c>
+      <c r="F597" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A598" t="s">
+        <v>5</v>
+      </c>
+      <c r="B598" t="s">
+        <v>13</v>
+      </c>
+      <c r="C598" t="s">
+        <v>6</v>
+      </c>
+      <c r="D598">
+        <v>8.68</v>
+      </c>
+      <c r="E598" t="s">
+        <v>9</v>
+      </c>
+      <c r="F598" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A599" t="s">
+        <v>5</v>
+      </c>
+      <c r="B599" t="s">
+        <v>13</v>
+      </c>
+      <c r="C599" t="s">
+        <v>6</v>
+      </c>
+      <c r="D599">
+        <v>17.25</v>
+      </c>
+      <c r="E599" t="s">
+        <v>9</v>
+      </c>
+      <c r="F599" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A600" t="s">
+        <v>5</v>
+      </c>
+      <c r="B600" t="s">
+        <v>13</v>
+      </c>
+      <c r="C600" t="s">
+        <v>6</v>
+      </c>
+      <c r="D600">
+        <v>15.99</v>
+      </c>
+      <c r="E600" t="s">
+        <v>9</v>
+      </c>
+      <c r="F600" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A601" t="s">
+        <v>5</v>
+      </c>
+      <c r="B601" t="s">
+        <v>13</v>
+      </c>
+      <c r="C601" t="s">
+        <v>6</v>
+      </c>
+      <c r="D601">
+        <v>2.41</v>
+      </c>
+      <c r="E601" t="s">
+        <v>9</v>
+      </c>
+      <c r="F601" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A602" t="s">
+        <v>5</v>
+      </c>
+      <c r="B602" t="s">
+        <v>13</v>
+      </c>
+      <c r="C602" t="s">
+        <v>6</v>
+      </c>
+      <c r="D602">
+        <v>8.23</v>
+      </c>
+      <c r="E602" t="s">
+        <v>9</v>
+      </c>
+      <c r="F602" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A603" t="s">
+        <v>5</v>
+      </c>
+      <c r="B603" t="s">
+        <v>13</v>
+      </c>
+      <c r="C603" t="s">
+        <v>6</v>
+      </c>
+      <c r="D603">
+        <v>6.65</v>
+      </c>
+      <c r="E603" t="s">
+        <v>9</v>
+      </c>
+      <c r="F603" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="604" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A604" t="s">
+        <v>5</v>
+      </c>
+      <c r="B604" t="s">
+        <v>13</v>
+      </c>
+      <c r="C604" t="s">
+        <v>6</v>
+      </c>
+      <c r="D604">
+        <v>6.73</v>
+      </c>
+      <c r="E604" t="s">
+        <v>9</v>
+      </c>
+      <c r="F604" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="605" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A605" t="s">
+        <v>16</v>
+      </c>
+      <c r="B605" t="s">
+        <v>13</v>
+      </c>
+      <c r="C605" t="s">
+        <v>6</v>
+      </c>
+      <c r="D605">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="E605" t="s">
+        <v>9</v>
+      </c>
+      <c r="F605" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="606" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A606" t="s">
+        <v>16</v>
+      </c>
+      <c r="B606" t="s">
+        <v>13</v>
+      </c>
+      <c r="C606" t="s">
+        <v>6</v>
+      </c>
+      <c r="D606">
+        <v>7.39</v>
+      </c>
+      <c r="E606" t="s">
+        <v>9</v>
+      </c>
+      <c r="F606" s="1">
+        <v>44678</v>
+      </c>
+      <c r="I606" s="1"/>
+    </row>
+    <row r="607" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A607" t="s">
+        <v>16</v>
+      </c>
+      <c r="B607" t="s">
+        <v>13</v>
+      </c>
+      <c r="C607" t="s">
+        <v>6</v>
+      </c>
+      <c r="D607">
+        <v>14.23</v>
+      </c>
+      <c r="E607" t="s">
+        <v>9</v>
+      </c>
+      <c r="F607" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="608" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A608" t="s">
+        <v>16</v>
+      </c>
+      <c r="B608" t="s">
+        <v>13</v>
+      </c>
+      <c r="C608" t="s">
+        <v>6</v>
+      </c>
+      <c r="D608">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="E608" t="s">
+        <v>9</v>
+      </c>
+      <c r="F608" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="609" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A609" t="s">
+        <v>16</v>
+      </c>
+      <c r="B609" t="s">
+        <v>13</v>
+      </c>
+      <c r="C609" t="s">
+        <v>6</v>
+      </c>
+      <c r="D609">
+        <v>12.45</v>
+      </c>
+      <c r="E609" t="s">
+        <v>9</v>
+      </c>
+      <c r="F609" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="610" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A610" t="s">
+        <v>16</v>
+      </c>
+      <c r="B610" t="s">
+        <v>13</v>
+      </c>
+      <c r="C610" t="s">
+        <v>6</v>
+      </c>
+      <c r="D610">
+        <v>12.97</v>
+      </c>
+      <c r="E610" t="s">
+        <v>9</v>
+      </c>
+      <c r="F610" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="611" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A611" t="s">
+        <v>16</v>
+      </c>
+      <c r="B611" t="s">
+        <v>13</v>
+      </c>
+      <c r="C611" t="s">
+        <v>6</v>
+      </c>
+      <c r="D611">
+        <v>15.23</v>
+      </c>
+      <c r="E611" t="s">
+        <v>9</v>
+      </c>
+      <c r="F611" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A612" t="s">
+        <v>16</v>
+      </c>
+      <c r="B612" t="s">
+        <v>13</v>
+      </c>
+      <c r="C612" t="s">
+        <v>6</v>
+      </c>
+      <c r="D612">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="E612" t="s">
+        <v>9</v>
+      </c>
+      <c r="F612" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A613" t="s">
+        <v>16</v>
+      </c>
+      <c r="B613" t="s">
+        <v>13</v>
+      </c>
+      <c r="C613" t="s">
+        <v>6</v>
+      </c>
+      <c r="D613">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E613" t="s">
+        <v>9</v>
+      </c>
+      <c r="F613" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A614" t="s">
+        <v>16</v>
+      </c>
+      <c r="B614" t="s">
+        <v>13</v>
+      </c>
+      <c r="C614" t="s">
+        <v>6</v>
+      </c>
+      <c r="D614">
+        <v>6.77</v>
+      </c>
+      <c r="E614" t="s">
+        <v>9</v>
+      </c>
+      <c r="F614" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A615" t="s">
+        <v>16</v>
+      </c>
+      <c r="B615" t="s">
+        <v>13</v>
+      </c>
+      <c r="C615" t="s">
+        <v>6</v>
+      </c>
+      <c r="D615">
+        <v>7.99</v>
+      </c>
+      <c r="E615" t="s">
+        <v>9</v>
+      </c>
+      <c r="F615" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="616" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A616" t="s">
+        <v>16</v>
+      </c>
+      <c r="B616" t="s">
+        <v>13</v>
+      </c>
+      <c r="C616" t="s">
+        <v>6</v>
+      </c>
+      <c r="D616">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="E616" t="s">
+        <v>9</v>
+      </c>
+      <c r="F616" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="617" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A617" t="s">
+        <v>16</v>
+      </c>
+      <c r="B617" t="s">
+        <v>13</v>
+      </c>
+      <c r="C617" t="s">
+        <v>6</v>
+      </c>
+      <c r="D617">
+        <v>11.01</v>
+      </c>
+      <c r="E617" t="s">
+        <v>9</v>
+      </c>
+      <c r="F617" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A618" t="s">
+        <v>16</v>
+      </c>
+      <c r="B618" t="s">
+        <v>13</v>
+      </c>
+      <c r="C618" t="s">
+        <v>6</v>
+      </c>
+      <c r="D618">
+        <v>5.72</v>
+      </c>
+      <c r="E618" t="s">
+        <v>9</v>
+      </c>
+      <c r="F618" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A619" t="s">
+        <v>16</v>
+      </c>
+      <c r="B619" t="s">
+        <v>13</v>
+      </c>
+      <c r="C619" t="s">
+        <v>6</v>
+      </c>
+      <c r="D619">
+        <v>7.18</v>
+      </c>
+      <c r="E619" t="s">
+        <v>9</v>
+      </c>
+      <c r="F619" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="620" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A620" t="s">
+        <v>8</v>
+      </c>
+      <c r="B620" t="s">
+        <v>13</v>
+      </c>
+      <c r="C620" t="s">
+        <v>6</v>
+      </c>
+      <c r="D620">
+        <v>4.22</v>
+      </c>
+      <c r="E620" t="s">
+        <v>9</v>
+      </c>
+      <c r="F620" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="621" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A621" t="s">
+        <v>8</v>
+      </c>
+      <c r="B621" t="s">
+        <v>13</v>
+      </c>
+      <c r="C621" t="s">
+        <v>6</v>
+      </c>
+      <c r="D621">
+        <v>4.97</v>
+      </c>
+      <c r="E621" t="s">
+        <v>9</v>
+      </c>
+      <c r="F621" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A622" t="s">
+        <v>8</v>
+      </c>
+      <c r="B622" t="s">
+        <v>13</v>
+      </c>
+      <c r="C622" t="s">
+        <v>6</v>
+      </c>
+      <c r="D622">
+        <v>5.42</v>
+      </c>
+      <c r="E622" t="s">
+        <v>9</v>
+      </c>
+      <c r="F622" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="623" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A623" t="s">
+        <v>8</v>
+      </c>
+      <c r="B623" t="s">
+        <v>13</v>
+      </c>
+      <c r="C623" t="s">
+        <v>6</v>
+      </c>
+      <c r="D623">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="E623" t="s">
+        <v>9</v>
+      </c>
+      <c r="F623" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A624" t="s">
+        <v>8</v>
+      </c>
+      <c r="B624" t="s">
+        <v>13</v>
+      </c>
+      <c r="C624" t="s">
+        <v>6</v>
+      </c>
+      <c r="D624">
+        <v>10.68</v>
+      </c>
+      <c r="E624" t="s">
+        <v>9</v>
+      </c>
+      <c r="F624" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="625" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A625" t="s">
+        <v>8</v>
+      </c>
+      <c r="B625" t="s">
+        <v>13</v>
+      </c>
+      <c r="C625" t="s">
+        <v>6</v>
+      </c>
+      <c r="D625">
+        <v>11.25</v>
+      </c>
+      <c r="E625" t="s">
+        <v>9</v>
+      </c>
+      <c r="F625" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="626" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A626" t="s">
+        <v>8</v>
+      </c>
+      <c r="B626" t="s">
+        <v>13</v>
+      </c>
+      <c r="C626" t="s">
+        <v>6</v>
+      </c>
+      <c r="D626">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="E626" t="s">
+        <v>9</v>
+      </c>
+      <c r="F626" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A627" t="s">
+        <v>8</v>
+      </c>
+      <c r="B627" t="s">
+        <v>13</v>
+      </c>
+      <c r="C627" t="s">
+        <v>6</v>
+      </c>
+      <c r="D627">
+        <v>4.63</v>
+      </c>
+      <c r="E627" t="s">
+        <v>9</v>
+      </c>
+      <c r="F627" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="628" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A628" t="s">
+        <v>8</v>
+      </c>
+      <c r="B628" t="s">
+        <v>13</v>
+      </c>
+      <c r="C628" t="s">
+        <v>6</v>
+      </c>
+      <c r="D628">
+        <v>9.57</v>
+      </c>
+      <c r="E628" t="s">
+        <v>9</v>
+      </c>
+      <c r="F628" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A629" t="s">
+        <v>8</v>
+      </c>
+      <c r="B629" t="s">
+        <v>13</v>
+      </c>
+      <c r="C629" t="s">
+        <v>6</v>
+      </c>
+      <c r="D629">
+        <v>10.94</v>
+      </c>
+      <c r="E629" t="s">
+        <v>9</v>
+      </c>
+      <c r="F629" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A630" t="s">
+        <v>8</v>
+      </c>
+      <c r="B630" t="s">
+        <v>13</v>
+      </c>
+      <c r="C630" t="s">
+        <v>6</v>
+      </c>
+      <c r="D630">
+        <v>6.24</v>
+      </c>
+      <c r="E630" t="s">
+        <v>9</v>
+      </c>
+      <c r="F630" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A631" t="s">
+        <v>8</v>
+      </c>
+      <c r="B631" t="s">
+        <v>13</v>
+      </c>
+      <c r="C631" t="s">
+        <v>6</v>
+      </c>
+      <c r="D631">
+        <v>7.24</v>
+      </c>
+      <c r="E631" t="s">
+        <v>9</v>
+      </c>
+      <c r="F631" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="632" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A632" t="s">
+        <v>8</v>
+      </c>
+      <c r="B632" t="s">
+        <v>13</v>
+      </c>
+      <c r="C632" t="s">
+        <v>6</v>
+      </c>
+      <c r="D632">
+        <v>6.95</v>
+      </c>
+      <c r="E632" t="s">
+        <v>9</v>
+      </c>
+      <c r="F632" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="633" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A633" t="s">
+        <v>8</v>
+      </c>
+      <c r="B633" t="s">
+        <v>13</v>
+      </c>
+      <c r="C633" t="s">
+        <v>6</v>
+      </c>
+      <c r="D633">
+        <v>3.09</v>
+      </c>
+      <c r="E633" t="s">
+        <v>9</v>
+      </c>
+      <c r="F633" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A634" t="s">
+        <v>8</v>
+      </c>
+      <c r="B634" t="s">
+        <v>13</v>
+      </c>
+      <c r="C634" t="s">
+        <v>6</v>
+      </c>
+      <c r="D634">
+        <v>7.47</v>
+      </c>
+      <c r="E634" t="s">
+        <v>9</v>
+      </c>
+      <c r="F634" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="635" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A635" t="s">
+        <v>8</v>
+      </c>
+      <c r="B635" t="s">
+        <v>13</v>
+      </c>
+      <c r="C635" t="s">
+        <v>6</v>
+      </c>
+      <c r="D635">
+        <v>6.89</v>
+      </c>
+      <c r="E635" t="s">
+        <v>9</v>
+      </c>
+      <c r="F635" s="1">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A636" t="s">
+        <v>5</v>
+      </c>
+      <c r="B636" t="s">
+        <v>13</v>
+      </c>
+      <c r="C636" t="s">
+        <v>6</v>
+      </c>
+      <c r="D636">
+        <v>4.67</v>
+      </c>
+      <c r="E636" t="s">
+        <v>9</v>
+      </c>
+      <c r="F636" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A637" t="s">
+        <v>5</v>
+      </c>
+      <c r="B637" t="s">
+        <v>13</v>
+      </c>
+      <c r="C637" t="s">
+        <v>6</v>
+      </c>
+      <c r="D637">
+        <v>9.36</v>
+      </c>
+      <c r="E637" t="s">
+        <v>9</v>
+      </c>
+      <c r="F637" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A638" t="s">
+        <v>5</v>
+      </c>
+      <c r="B638" t="s">
+        <v>13</v>
+      </c>
+      <c r="C638" t="s">
+        <v>6</v>
+      </c>
+      <c r="D638">
+        <v>7.87</v>
+      </c>
+      <c r="E638" t="s">
+        <v>9</v>
+      </c>
+      <c r="F638" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A639" t="s">
+        <v>5</v>
+      </c>
+      <c r="B639" t="s">
+        <v>13</v>
+      </c>
+      <c r="C639" t="s">
+        <v>6</v>
+      </c>
+      <c r="D639">
+        <v>11.42</v>
+      </c>
+      <c r="E639" t="s">
+        <v>9</v>
+      </c>
+      <c r="F639" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="640" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A640" t="s">
+        <v>5</v>
+      </c>
+      <c r="B640" t="s">
+        <v>13</v>
+      </c>
+      <c r="C640" t="s">
+        <v>6</v>
+      </c>
+      <c r="D640">
+        <v>7.86</v>
+      </c>
+      <c r="E640" t="s">
+        <v>9</v>
+      </c>
+      <c r="F640" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="641" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>5</v>
+      </c>
+      <c r="B641" t="s">
+        <v>13</v>
+      </c>
+      <c r="C641" t="s">
+        <v>6</v>
+      </c>
+      <c r="D641">
+        <v>11.72</v>
+      </c>
+      <c r="E641" t="s">
+        <v>9</v>
+      </c>
+      <c r="F641" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="642" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>5</v>
+      </c>
+      <c r="B642" t="s">
+        <v>13</v>
+      </c>
+      <c r="C642" t="s">
+        <v>6</v>
+      </c>
+      <c r="D642">
+        <v>10</v>
+      </c>
+      <c r="E642" t="s">
+        <v>9</v>
+      </c>
+      <c r="F642" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="643" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>5</v>
+      </c>
+      <c r="B643" t="s">
+        <v>13</v>
+      </c>
+      <c r="C643" t="s">
+        <v>6</v>
+      </c>
+      <c r="D643">
+        <v>5.19</v>
+      </c>
+      <c r="E643" t="s">
+        <v>9</v>
+      </c>
+      <c r="F643" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>5</v>
+      </c>
+      <c r="B644" t="s">
+        <v>13</v>
+      </c>
+      <c r="C644" t="s">
+        <v>6</v>
+      </c>
+      <c r="D644">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="E644" t="s">
+        <v>9</v>
+      </c>
+      <c r="F644" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>5</v>
+      </c>
+      <c r="B645" t="s">
+        <v>13</v>
+      </c>
+      <c r="C645" t="s">
+        <v>6</v>
+      </c>
+      <c r="D645">
+        <v>7.44</v>
+      </c>
+      <c r="E645" t="s">
+        <v>9</v>
+      </c>
+      <c r="F645" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="646" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>5</v>
+      </c>
+      <c r="B646" t="s">
+        <v>13</v>
+      </c>
+      <c r="C646" t="s">
+        <v>6</v>
+      </c>
+      <c r="D646">
+        <v>12.2</v>
+      </c>
+      <c r="E646" t="s">
+        <v>9</v>
+      </c>
+      <c r="F646" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="647" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>5</v>
+      </c>
+      <c r="B647" t="s">
+        <v>13</v>
+      </c>
+      <c r="C647" t="s">
+        <v>6</v>
+      </c>
+      <c r="D647">
+        <v>4.7</v>
+      </c>
+      <c r="E647" t="s">
+        <v>9</v>
+      </c>
+      <c r="F647" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="648" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>5</v>
+      </c>
+      <c r="B648" t="s">
+        <v>13</v>
+      </c>
+      <c r="C648" t="s">
+        <v>6</v>
+      </c>
+      <c r="D648">
+        <v>7.89</v>
+      </c>
+      <c r="E648" t="s">
+        <v>9</v>
+      </c>
+      <c r="F648" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="649" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>5</v>
+      </c>
+      <c r="B649" t="s">
+        <v>13</v>
+      </c>
+      <c r="C649" t="s">
+        <v>6</v>
+      </c>
+      <c r="D649">
+        <v>15.02</v>
+      </c>
+      <c r="E649" t="s">
+        <v>9</v>
+      </c>
+      <c r="F649" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>5</v>
+      </c>
+      <c r="B650" t="s">
+        <v>13</v>
+      </c>
+      <c r="C650" t="s">
+        <v>6</v>
+      </c>
+      <c r="D650">
+        <v>10.38</v>
+      </c>
+      <c r="E650" t="s">
+        <v>9</v>
+      </c>
+      <c r="F650" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="651" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>16</v>
+      </c>
+      <c r="B651" t="s">
+        <v>13</v>
+      </c>
+      <c r="C651" t="s">
+        <v>6</v>
+      </c>
+      <c r="D651">
+        <v>3.88</v>
+      </c>
+      <c r="E651" t="s">
+        <v>9</v>
+      </c>
+      <c r="F651" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>16</v>
+      </c>
+      <c r="B652" t="s">
+        <v>13</v>
+      </c>
+      <c r="C652" t="s">
+        <v>6</v>
+      </c>
+      <c r="D652">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="E652" t="s">
+        <v>9</v>
+      </c>
+      <c r="F652" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>16</v>
+      </c>
+      <c r="B653" t="s">
+        <v>13</v>
+      </c>
+      <c r="C653" t="s">
+        <v>6</v>
+      </c>
+      <c r="D653">
+        <v>2.74</v>
+      </c>
+      <c r="E653" t="s">
+        <v>9</v>
+      </c>
+      <c r="F653" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>16</v>
+      </c>
+      <c r="B654" t="s">
+        <v>13</v>
+      </c>
+      <c r="C654" t="s">
+        <v>6</v>
+      </c>
+      <c r="D654">
+        <v>6.36</v>
+      </c>
+      <c r="E654" t="s">
+        <v>9</v>
+      </c>
+      <c r="F654" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="655" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>16</v>
+      </c>
+      <c r="B655" t="s">
+        <v>13</v>
+      </c>
+      <c r="C655" t="s">
+        <v>6</v>
+      </c>
+      <c r="D655">
+        <v>2.96</v>
+      </c>
+      <c r="E655" t="s">
+        <v>9</v>
+      </c>
+      <c r="F655" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="656" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>16</v>
+      </c>
+      <c r="B656" t="s">
+        <v>13</v>
+      </c>
+      <c r="C656" t="s">
+        <v>6</v>
+      </c>
+      <c r="D656">
+        <v>4.55</v>
+      </c>
+      <c r="E656" t="s">
+        <v>9</v>
+      </c>
+      <c r="F656" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="657" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>16</v>
+      </c>
+      <c r="B657" t="s">
+        <v>13</v>
+      </c>
+      <c r="C657" t="s">
+        <v>6</v>
+      </c>
+      <c r="D657">
+        <v>3.08</v>
+      </c>
+      <c r="E657" t="s">
+        <v>9</v>
+      </c>
+      <c r="F657" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="658" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>16</v>
+      </c>
+      <c r="B658" t="s">
+        <v>13</v>
+      </c>
+      <c r="C658" t="s">
+        <v>6</v>
+      </c>
+      <c r="D658">
+        <v>3.96</v>
+      </c>
+      <c r="E658" t="s">
+        <v>9</v>
+      </c>
+      <c r="F658" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>16</v>
+      </c>
+      <c r="B659" t="s">
+        <v>13</v>
+      </c>
+      <c r="C659" t="s">
+        <v>6</v>
+      </c>
+      <c r="D659">
+        <v>5.64</v>
+      </c>
+      <c r="E659" t="s">
+        <v>9</v>
+      </c>
+      <c r="F659" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>16</v>
+      </c>
+      <c r="B660" t="s">
+        <v>13</v>
+      </c>
+      <c r="C660" t="s">
+        <v>6</v>
+      </c>
+      <c r="D660">
+        <v>4.51</v>
+      </c>
+      <c r="E660" t="s">
+        <v>9</v>
+      </c>
+      <c r="F660" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="661" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>16</v>
+      </c>
+      <c r="B661" t="s">
+        <v>13</v>
+      </c>
+      <c r="C661" t="s">
+        <v>6</v>
+      </c>
+      <c r="D661">
+        <v>5.22</v>
+      </c>
+      <c r="E661" t="s">
+        <v>9</v>
+      </c>
+      <c r="F661" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="662" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>16</v>
+      </c>
+      <c r="B662" t="s">
+        <v>13</v>
+      </c>
+      <c r="C662" t="s">
+        <v>6</v>
+      </c>
+      <c r="D662">
+        <v>3.98</v>
+      </c>
+      <c r="E662" t="s">
+        <v>9</v>
+      </c>
+      <c r="F662" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="663" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>16</v>
+      </c>
+      <c r="B663" t="s">
+        <v>13</v>
+      </c>
+      <c r="C663" t="s">
+        <v>6</v>
+      </c>
+      <c r="D663">
+        <v>6.7</v>
+      </c>
+      <c r="E663" t="s">
+        <v>9</v>
+      </c>
+      <c r="F663" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="664" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>16</v>
+      </c>
+      <c r="B664" t="s">
+        <v>13</v>
+      </c>
+      <c r="C664" t="s">
+        <v>6</v>
+      </c>
+      <c r="D664">
+        <v>4.03</v>
+      </c>
+      <c r="E664" t="s">
+        <v>9</v>
+      </c>
+      <c r="F664" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="665" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>16</v>
+      </c>
+      <c r="B665" t="s">
+        <v>13</v>
+      </c>
+      <c r="C665" t="s">
+        <v>6</v>
+      </c>
+      <c r="D665">
+        <v>2.98</v>
+      </c>
+      <c r="E665" t="s">
+        <v>9</v>
+      </c>
+      <c r="F665" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="666" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>16</v>
+      </c>
+      <c r="B666" t="s">
+        <v>13</v>
+      </c>
+      <c r="C666" t="s">
+        <v>6</v>
+      </c>
+      <c r="D666">
+        <v>4.55</v>
+      </c>
+      <c r="E666" t="s">
+        <v>9</v>
+      </c>
+      <c r="F666" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="667" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>16</v>
+      </c>
+      <c r="B667" t="s">
+        <v>13</v>
+      </c>
+      <c r="C667" t="s">
+        <v>6</v>
+      </c>
+      <c r="D667">
+        <v>9.82</v>
+      </c>
+      <c r="E667" t="s">
+        <v>9</v>
+      </c>
+      <c r="F667" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="668" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>16</v>
+      </c>
+      <c r="B668" t="s">
+        <v>13</v>
+      </c>
+      <c r="C668" t="s">
+        <v>6</v>
+      </c>
+      <c r="D668">
+        <v>6.59</v>
+      </c>
+      <c r="E668" t="s">
+        <v>9</v>
+      </c>
+      <c r="F668" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="669" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>16</v>
+      </c>
+      <c r="B669" t="s">
+        <v>13</v>
+      </c>
+      <c r="C669" t="s">
+        <v>6</v>
+      </c>
+      <c r="D669">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E669" t="s">
+        <v>9</v>
+      </c>
+      <c r="F669" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="670" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>8</v>
+      </c>
+      <c r="B670" t="s">
+        <v>13</v>
+      </c>
+      <c r="C670" t="s">
+        <v>6</v>
+      </c>
+      <c r="D670">
+        <v>6.12</v>
+      </c>
+      <c r="E670" t="s">
+        <v>9</v>
+      </c>
+      <c r="F670" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="671" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>8</v>
+      </c>
+      <c r="B671" t="s">
+        <v>13</v>
+      </c>
+      <c r="C671" t="s">
+        <v>6</v>
+      </c>
+      <c r="D671">
+        <v>7.18</v>
+      </c>
+      <c r="E671" t="s">
+        <v>9</v>
+      </c>
+      <c r="F671" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="672" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>8</v>
+      </c>
+      <c r="B672" t="s">
+        <v>13</v>
+      </c>
+      <c r="C672" t="s">
+        <v>6</v>
+      </c>
+      <c r="D672">
+        <v>6.02</v>
+      </c>
+      <c r="E672" t="s">
+        <v>9</v>
+      </c>
+      <c r="F672" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="673" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>8</v>
+      </c>
+      <c r="B673" t="s">
+        <v>13</v>
+      </c>
+      <c r="C673" t="s">
+        <v>6</v>
+      </c>
+      <c r="D673">
+        <v>3.25</v>
+      </c>
+      <c r="E673" t="s">
+        <v>9</v>
+      </c>
+      <c r="F673" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="674" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>8</v>
+      </c>
+      <c r="B674" t="s">
+        <v>13</v>
+      </c>
+      <c r="C674" t="s">
+        <v>6</v>
+      </c>
+      <c r="D674">
+        <v>7.1</v>
+      </c>
+      <c r="E674" t="s">
+        <v>9</v>
+      </c>
+      <c r="F674" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="675" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>8</v>
+      </c>
+      <c r="B675" t="s">
+        <v>13</v>
+      </c>
+      <c r="C675" t="s">
+        <v>6</v>
+      </c>
+      <c r="D675">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E675" t="s">
+        <v>9</v>
+      </c>
+      <c r="F675" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="676" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>8</v>
+      </c>
+      <c r="B676" t="s">
+        <v>13</v>
+      </c>
+      <c r="C676" t="s">
+        <v>6</v>
+      </c>
+      <c r="D676">
+        <v>6.07</v>
+      </c>
+      <c r="E676" t="s">
+        <v>9</v>
+      </c>
+      <c r="F676" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="677" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>8</v>
+      </c>
+      <c r="B677" t="s">
+        <v>13</v>
+      </c>
+      <c r="C677" t="s">
+        <v>6</v>
+      </c>
+      <c r="D677">
+        <v>6.21</v>
+      </c>
+      <c r="E677" t="s">
+        <v>9</v>
+      </c>
+      <c r="F677" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="678" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>8</v>
+      </c>
+      <c r="B678" t="s">
+        <v>13</v>
+      </c>
+      <c r="C678" t="s">
+        <v>6</v>
+      </c>
+      <c r="D678">
+        <v>4.2</v>
+      </c>
+      <c r="E678" t="s">
+        <v>9</v>
+      </c>
+      <c r="F678" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>8</v>
+      </c>
+      <c r="B679" t="s">
+        <v>13</v>
+      </c>
+      <c r="C679" t="s">
+        <v>6</v>
+      </c>
+      <c r="D679">
+        <v>5.93</v>
+      </c>
+      <c r="E679" t="s">
+        <v>9</v>
+      </c>
+      <c r="F679" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="680" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>8</v>
+      </c>
+      <c r="B680" t="s">
+        <v>13</v>
+      </c>
+      <c r="C680" t="s">
+        <v>6</v>
+      </c>
+      <c r="D680">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="E680" t="s">
+        <v>9</v>
+      </c>
+      <c r="F680" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>8</v>
+      </c>
+      <c r="B681" t="s">
+        <v>13</v>
+      </c>
+      <c r="C681" t="s">
+        <v>6</v>
+      </c>
+      <c r="D681">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E681" t="s">
+        <v>9</v>
+      </c>
+      <c r="F681" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="682" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>8</v>
+      </c>
+      <c r="B682" t="s">
+        <v>13</v>
+      </c>
+      <c r="C682" t="s">
+        <v>6</v>
+      </c>
+      <c r="D682">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E682" t="s">
+        <v>9</v>
+      </c>
+      <c r="F682" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>8</v>
+      </c>
+      <c r="B683" t="s">
+        <v>13</v>
+      </c>
+      <c r="C683" t="s">
+        <v>6</v>
+      </c>
+      <c r="D683">
+        <v>3.93</v>
+      </c>
+      <c r="E683" t="s">
+        <v>9</v>
+      </c>
+      <c r="F683" s="1">
+        <v>44691</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>17</v>
+      </c>
+      <c r="B684" t="s">
+        <v>13</v>
+      </c>
+      <c r="C684" t="s">
+        <v>6</v>
+      </c>
+      <c r="D684">
+        <v>3.58</v>
+      </c>
+      <c r="E684" t="s">
+        <v>9</v>
+      </c>
+      <c r="F684" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="685" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>17</v>
+      </c>
+      <c r="B685" t="s">
+        <v>13</v>
+      </c>
+      <c r="C685" t="s">
+        <v>6</v>
+      </c>
+      <c r="D685">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="E685" t="s">
+        <v>9</v>
+      </c>
+      <c r="F685" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="686" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>17</v>
+      </c>
+      <c r="B686" t="s">
+        <v>13</v>
+      </c>
+      <c r="C686" t="s">
+        <v>6</v>
+      </c>
+      <c r="D686">
+        <v>4.03</v>
+      </c>
+      <c r="E686" t="s">
+        <v>9</v>
+      </c>
+      <c r="F686" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="687" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>17</v>
+      </c>
+      <c r="B687" t="s">
+        <v>13</v>
+      </c>
+      <c r="C687" t="s">
+        <v>6</v>
+      </c>
+      <c r="D687">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E687" t="s">
+        <v>9</v>
+      </c>
+      <c r="F687" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="688" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>17</v>
+      </c>
+      <c r="B688" t="s">
+        <v>13</v>
+      </c>
+      <c r="C688" t="s">
+        <v>6</v>
+      </c>
+      <c r="D688">
+        <v>6.75</v>
+      </c>
+      <c r="E688" t="s">
+        <v>9</v>
+      </c>
+      <c r="F688" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="689" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>17</v>
+      </c>
+      <c r="B689" t="s">
+        <v>13</v>
+      </c>
+      <c r="C689" t="s">
+        <v>6</v>
+      </c>
+      <c r="D689">
+        <v>2.76</v>
+      </c>
+      <c r="E689" t="s">
+        <v>9</v>
+      </c>
+      <c r="F689" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>17</v>
+      </c>
+      <c r="B690" t="s">
+        <v>13</v>
+      </c>
+      <c r="C690" t="s">
+        <v>6</v>
+      </c>
+      <c r="D690">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="E690" t="s">
+        <v>9</v>
+      </c>
+      <c r="F690" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="691" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>17</v>
+      </c>
+      <c r="B691" t="s">
+        <v>13</v>
+      </c>
+      <c r="C691" t="s">
+        <v>6</v>
+      </c>
+      <c r="D691">
+        <v>2.19</v>
+      </c>
+      <c r="E691" t="s">
+        <v>9</v>
+      </c>
+      <c r="F691" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="692" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>17</v>
+      </c>
+      <c r="B692" t="s">
+        <v>13</v>
+      </c>
+      <c r="C692" t="s">
+        <v>6</v>
+      </c>
+      <c r="D692">
+        <v>3.8</v>
+      </c>
+      <c r="E692" t="s">
+        <v>9</v>
+      </c>
+      <c r="F692" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="693" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>17</v>
+      </c>
+      <c r="B693" t="s">
+        <v>13</v>
+      </c>
+      <c r="C693" t="s">
+        <v>6</v>
+      </c>
+      <c r="D693">
+        <v>1.97</v>
+      </c>
+      <c r="E693" t="s">
+        <v>9</v>
+      </c>
+      <c r="F693" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="694" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>17</v>
+      </c>
+      <c r="B694" t="s">
+        <v>13</v>
+      </c>
+      <c r="C694" t="s">
+        <v>6</v>
+      </c>
+      <c r="D694">
+        <v>8.14</v>
+      </c>
+      <c r="E694" t="s">
+        <v>9</v>
+      </c>
+      <c r="F694" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="695" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A695" t="s">
+        <v>17</v>
+      </c>
+      <c r="B695" t="s">
+        <v>13</v>
+      </c>
+      <c r="C695" t="s">
+        <v>6</v>
+      </c>
+      <c r="D695">
+        <v>4.62</v>
+      </c>
+      <c r="E695" t="s">
+        <v>9</v>
+      </c>
+      <c r="F695" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="696" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A696" t="s">
+        <v>17</v>
+      </c>
+      <c r="B696" t="s">
+        <v>13</v>
+      </c>
+      <c r="C696" t="s">
+        <v>6</v>
+      </c>
+      <c r="D696">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E696" t="s">
+        <v>9</v>
+      </c>
+      <c r="F696" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A697" t="s">
+        <v>17</v>
+      </c>
+      <c r="B697" t="s">
+        <v>13</v>
+      </c>
+      <c r="C697" t="s">
+        <v>6</v>
+      </c>
+      <c r="D697">
+        <v>3.25</v>
+      </c>
+      <c r="E697" t="s">
+        <v>9</v>
+      </c>
+      <c r="F697" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="698" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A698" t="s">
+        <v>17</v>
+      </c>
+      <c r="B698" t="s">
+        <v>13</v>
+      </c>
+      <c r="C698" t="s">
+        <v>6</v>
+      </c>
+      <c r="D698">
+        <v>3.56</v>
+      </c>
+      <c r="E698" t="s">
+        <v>9</v>
+      </c>
+      <c r="F698" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="699" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A699" t="s">
+        <v>17</v>
+      </c>
+      <c r="B699" t="s">
+        <v>13</v>
+      </c>
+      <c r="C699" t="s">
+        <v>6</v>
+      </c>
+      <c r="D699">
+        <v>4.17</v>
+      </c>
+      <c r="E699" t="s">
+        <v>9</v>
+      </c>
+      <c r="F699" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="700" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A700" t="s">
+        <v>17</v>
+      </c>
+      <c r="B700" t="s">
+        <v>13</v>
+      </c>
+      <c r="C700" t="s">
+        <v>6</v>
+      </c>
+      <c r="D700">
+        <v>10.56</v>
+      </c>
+      <c r="E700" t="s">
+        <v>9</v>
+      </c>
+      <c r="F700" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="701" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A701" t="s">
+        <v>17</v>
+      </c>
+      <c r="B701" t="s">
+        <v>13</v>
+      </c>
+      <c r="C701" t="s">
+        <v>6</v>
+      </c>
+      <c r="D701">
+        <v>2.82</v>
+      </c>
+      <c r="E701" t="s">
+        <v>9</v>
+      </c>
+      <c r="F701" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A702" t="s">
+        <v>8</v>
+      </c>
+      <c r="B702" t="s">
+        <v>13</v>
+      </c>
+      <c r="C702" t="s">
+        <v>6</v>
+      </c>
+      <c r="D702">
+        <v>3.04</v>
+      </c>
+      <c r="E702" t="s">
+        <v>9</v>
+      </c>
+      <c r="F702" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="703" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A703" t="s">
+        <v>8</v>
+      </c>
+      <c r="B703" t="s">
+        <v>13</v>
+      </c>
+      <c r="C703" t="s">
+        <v>6</v>
+      </c>
+      <c r="D703">
+        <v>11.19</v>
+      </c>
+      <c r="E703" t="s">
+        <v>9</v>
+      </c>
+      <c r="F703" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="704" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A704" t="s">
+        <v>8</v>
+      </c>
+      <c r="B704" t="s">
+        <v>13</v>
+      </c>
+      <c r="C704" t="s">
+        <v>6</v>
+      </c>
+      <c r="D704">
+        <v>4.03</v>
+      </c>
+      <c r="E704" t="s">
+        <v>9</v>
+      </c>
+      <c r="F704" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A705" t="s">
+        <v>8</v>
+      </c>
+      <c r="B705" t="s">
+        <v>13</v>
+      </c>
+      <c r="C705" t="s">
+        <v>6</v>
+      </c>
+      <c r="D705">
+        <v>6</v>
+      </c>
+      <c r="E705" t="s">
+        <v>9</v>
+      </c>
+      <c r="F705" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A706" t="s">
+        <v>8</v>
+      </c>
+      <c r="B706" t="s">
+        <v>13</v>
+      </c>
+      <c r="C706" t="s">
+        <v>6</v>
+      </c>
+      <c r="D706">
+        <v>3.18</v>
+      </c>
+      <c r="E706" t="s">
+        <v>9</v>
+      </c>
+      <c r="F706" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A707" t="s">
+        <v>8</v>
+      </c>
+      <c r="B707" t="s">
+        <v>13</v>
+      </c>
+      <c r="C707" t="s">
+        <v>6</v>
+      </c>
+      <c r="D707">
+        <v>4.17</v>
+      </c>
+      <c r="E707" t="s">
+        <v>9</v>
+      </c>
+      <c r="F707" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A708" t="s">
+        <v>8</v>
+      </c>
+      <c r="B708" t="s">
+        <v>13</v>
+      </c>
+      <c r="C708" t="s">
+        <v>6</v>
+      </c>
+      <c r="D708">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="E708" t="s">
+        <v>9</v>
+      </c>
+      <c r="F708" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="709" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A709" t="s">
+        <v>8</v>
+      </c>
+      <c r="B709" t="s">
+        <v>13</v>
+      </c>
+      <c r="C709" t="s">
+        <v>6</v>
+      </c>
+      <c r="D709">
+        <v>3.75</v>
+      </c>
+      <c r="E709" t="s">
+        <v>9</v>
+      </c>
+      <c r="F709" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="710" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A710" t="s">
+        <v>8</v>
+      </c>
+      <c r="B710" t="s">
+        <v>13</v>
+      </c>
+      <c r="C710" t="s">
+        <v>6</v>
+      </c>
+      <c r="D710">
+        <v>2.99</v>
+      </c>
+      <c r="E710" t="s">
+        <v>9</v>
+      </c>
+      <c r="F710" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="711" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A711" t="s">
+        <v>8</v>
+      </c>
+      <c r="B711" t="s">
+        <v>13</v>
+      </c>
+      <c r="C711" t="s">
+        <v>6</v>
+      </c>
+      <c r="D711">
+        <v>7.18</v>
+      </c>
+      <c r="E711" t="s">
+        <v>9</v>
+      </c>
+      <c r="F711" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="712" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A712" t="s">
+        <v>8</v>
+      </c>
+      <c r="B712" t="s">
+        <v>13</v>
+      </c>
+      <c r="C712" t="s">
+        <v>6</v>
+      </c>
+      <c r="D712">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="E712" t="s">
+        <v>9</v>
+      </c>
+      <c r="F712" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="713" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A713" t="s">
+        <v>8</v>
+      </c>
+      <c r="B713" t="s">
+        <v>13</v>
+      </c>
+      <c r="C713" t="s">
+        <v>6</v>
+      </c>
+      <c r="D713">
+        <v>4.68</v>
+      </c>
+      <c r="E713" t="s">
+        <v>9</v>
+      </c>
+      <c r="F713" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A714" t="s">
+        <v>8</v>
+      </c>
+      <c r="B714" t="s">
+        <v>13</v>
+      </c>
+      <c r="C714" t="s">
+        <v>6</v>
+      </c>
+      <c r="D714">
+        <v>1.92</v>
+      </c>
+      <c r="E714" t="s">
+        <v>9</v>
+      </c>
+      <c r="F714" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A715" t="s">
+        <v>8</v>
+      </c>
+      <c r="B715" t="s">
+        <v>13</v>
+      </c>
+      <c r="C715" t="s">
+        <v>6</v>
+      </c>
+      <c r="D715">
+        <v>3.29</v>
+      </c>
+      <c r="E715" t="s">
+        <v>9</v>
+      </c>
+      <c r="F715" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>8</v>
+      </c>
+      <c r="B716" t="s">
+        <v>13</v>
+      </c>
+      <c r="C716" t="s">
+        <v>6</v>
+      </c>
+      <c r="D716">
+        <v>6.19</v>
+      </c>
+      <c r="E716" t="s">
+        <v>9</v>
+      </c>
+      <c r="F716" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>8</v>
+      </c>
+      <c r="B717" t="s">
+        <v>13</v>
+      </c>
+      <c r="C717" t="s">
+        <v>6</v>
+      </c>
+      <c r="D717">
+        <v>8.68</v>
+      </c>
+      <c r="E717" t="s">
+        <v>9</v>
+      </c>
+      <c r="F717" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>8</v>
+      </c>
+      <c r="B718" t="s">
+        <v>13</v>
+      </c>
+      <c r="C718" t="s">
+        <v>6</v>
+      </c>
+      <c r="D718">
+        <v>6.18</v>
+      </c>
+      <c r="E718" t="s">
+        <v>9</v>
+      </c>
+      <c r="F718" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>8</v>
+      </c>
+      <c r="B719" t="s">
+        <v>13</v>
+      </c>
+      <c r="C719" t="s">
+        <v>6</v>
+      </c>
+      <c r="D719">
+        <v>3.15</v>
+      </c>
+      <c r="E719" t="s">
+        <v>9</v>
+      </c>
+      <c r="F719" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>5</v>
+      </c>
+      <c r="B720" t="s">
+        <v>13</v>
+      </c>
+      <c r="C720" t="s">
+        <v>6</v>
+      </c>
+      <c r="D720">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="E720" t="s">
+        <v>9</v>
+      </c>
+      <c r="F720" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>5</v>
+      </c>
+      <c r="B721" t="s">
+        <v>13</v>
+      </c>
+      <c r="C721" t="s">
+        <v>6</v>
+      </c>
+      <c r="D721">
+        <v>13.24</v>
+      </c>
+      <c r="E721" t="s">
+        <v>9</v>
+      </c>
+      <c r="F721" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>5</v>
+      </c>
+      <c r="B722" t="s">
+        <v>13</v>
+      </c>
+      <c r="C722" t="s">
+        <v>6</v>
+      </c>
+      <c r="D722">
+        <v>5.39</v>
+      </c>
+      <c r="E722" t="s">
+        <v>9</v>
+      </c>
+      <c r="F722" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>5</v>
+      </c>
+      <c r="B723" t="s">
+        <v>13</v>
+      </c>
+      <c r="C723" t="s">
+        <v>6</v>
+      </c>
+      <c r="D723">
+        <v>4.58</v>
+      </c>
+      <c r="E723" t="s">
+        <v>9</v>
+      </c>
+      <c r="F723" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>5</v>
+      </c>
+      <c r="B724" t="s">
+        <v>13</v>
+      </c>
+      <c r="C724" t="s">
+        <v>6</v>
+      </c>
+      <c r="D724">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="E724" t="s">
+        <v>9</v>
+      </c>
+      <c r="F724" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>5</v>
+      </c>
+      <c r="B725" t="s">
+        <v>13</v>
+      </c>
+      <c r="C725" t="s">
+        <v>6</v>
+      </c>
+      <c r="D725">
+        <v>5.92</v>
+      </c>
+      <c r="E725" t="s">
+        <v>9</v>
+      </c>
+      <c r="F725" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>5</v>
+      </c>
+      <c r="B726" t="s">
+        <v>13</v>
+      </c>
+      <c r="C726" t="s">
+        <v>6</v>
+      </c>
+      <c r="D726">
+        <v>6.93</v>
+      </c>
+      <c r="E726" t="s">
+        <v>9</v>
+      </c>
+      <c r="F726" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>5</v>
+      </c>
+      <c r="B727" t="s">
+        <v>13</v>
+      </c>
+      <c r="C727" t="s">
+        <v>6</v>
+      </c>
+      <c r="D727">
+        <v>2.84</v>
+      </c>
+      <c r="E727" t="s">
+        <v>9</v>
+      </c>
+      <c r="F727" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>5</v>
+      </c>
+      <c r="B728" t="s">
+        <v>13</v>
+      </c>
+      <c r="C728" t="s">
+        <v>6</v>
+      </c>
+      <c r="D728">
+        <v>6.54</v>
+      </c>
+      <c r="E728" t="s">
+        <v>9</v>
+      </c>
+      <c r="F728" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>5</v>
+      </c>
+      <c r="B729" t="s">
+        <v>13</v>
+      </c>
+      <c r="C729" t="s">
+        <v>6</v>
+      </c>
+      <c r="D729">
+        <v>5.87</v>
+      </c>
+      <c r="E729" t="s">
+        <v>9</v>
+      </c>
+      <c r="F729" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>5</v>
+      </c>
+      <c r="B730" t="s">
+        <v>13</v>
+      </c>
+      <c r="C730" t="s">
+        <v>6</v>
+      </c>
+      <c r="D730">
+        <v>11.95</v>
+      </c>
+      <c r="E730" t="s">
+        <v>9</v>
+      </c>
+      <c r="F730" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>5</v>
+      </c>
+      <c r="B731" t="s">
+        <v>13</v>
+      </c>
+      <c r="C731" t="s">
+        <v>6</v>
+      </c>
+      <c r="D731">
+        <v>13.1</v>
+      </c>
+      <c r="E731" t="s">
+        <v>9</v>
+      </c>
+      <c r="F731" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>5</v>
+      </c>
+      <c r="B732" t="s">
+        <v>13</v>
+      </c>
+      <c r="C732" t="s">
+        <v>6</v>
+      </c>
+      <c r="D732">
+        <v>10.94</v>
+      </c>
+      <c r="E732" t="s">
+        <v>9</v>
+      </c>
+      <c r="F732" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>5</v>
+      </c>
+      <c r="B733" t="s">
+        <v>13</v>
+      </c>
+      <c r="C733" t="s">
+        <v>6</v>
+      </c>
+      <c r="D733">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="E733" t="s">
+        <v>9</v>
+      </c>
+      <c r="F733" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>5</v>
+      </c>
+      <c r="B734" t="s">
+        <v>13</v>
+      </c>
+      <c r="C734" t="s">
+        <v>6</v>
+      </c>
+      <c r="D734">
+        <v>4.62</v>
+      </c>
+      <c r="E734" t="s">
+        <v>9</v>
+      </c>
+      <c r="F734" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
+        <v>5</v>
+      </c>
+      <c r="B735" t="s">
+        <v>13</v>
+      </c>
+      <c r="C735" t="s">
+        <v>6</v>
+      </c>
+      <c r="D735">
+        <v>8.51</v>
+      </c>
+      <c r="E735" t="s">
+        <v>9</v>
+      </c>
+      <c r="F735" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>5</v>
+      </c>
+      <c r="B736" t="s">
+        <v>13</v>
+      </c>
+      <c r="C736" t="s">
+        <v>6</v>
+      </c>
+      <c r="D736">
+        <v>10.77</v>
+      </c>
+      <c r="E736" t="s">
+        <v>9</v>
+      </c>
+      <c r="F736" s="1">
+        <v>44705</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>5</v>
+      </c>
+      <c r="B737" t="s">
+        <v>13</v>
+      </c>
+      <c r="C737" t="s">
+        <v>6</v>
+      </c>
+      <c r="D737">
+        <v>14.46</v>
+      </c>
+      <c r="E737" t="s">
+        <v>9</v>
+      </c>
+      <c r="F737" s="1">
+        <v>44705</v>
       </c>
     </row>
   </sheetData>

--- a/data/octanol_30pct_avoidance_ALLDATA.xlsx
+++ b/data/octanol_30pct_avoidance_ALLDATA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiabrown/Documents/git/cest-2.1-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E011BA91-7113-E44B-AE56-5A260C881012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6473C637-0F52-A54B-BC5A-1E199895D696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3187" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="18">
   <si>
     <t>N2</t>
   </si>
@@ -86,12 +86,6 @@
   </si>
   <si>
     <t>Condition</t>
-  </si>
-  <si>
-    <t>100pct</t>
-  </si>
-  <si>
-    <t>Jub39</t>
   </si>
 </sst>
 </file>
@@ -952,9 +946,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I796"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A756" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A740" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H767" sqref="H767"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15715,16 +15709,16 @@
         <v>7</v>
       </c>
       <c r="C738" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D738">
-        <v>8.4700000000000006</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="E738" t="s">
         <v>4</v>
       </c>
       <c r="F738" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="739" spans="1:6" x14ac:dyDescent="0.2">
@@ -15735,16 +15729,16 @@
         <v>7</v>
       </c>
       <c r="C739" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D739">
-        <v>4.22</v>
+        <v>4.45</v>
       </c>
       <c r="E739" t="s">
         <v>4</v>
       </c>
       <c r="F739" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="740" spans="1:6" x14ac:dyDescent="0.2">
@@ -15755,16 +15749,16 @@
         <v>7</v>
       </c>
       <c r="C740" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D740">
-        <v>3.8</v>
+        <v>3.03</v>
       </c>
       <c r="E740" t="s">
         <v>4</v>
       </c>
       <c r="F740" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="741" spans="1:6" x14ac:dyDescent="0.2">
@@ -15775,16 +15769,16 @@
         <v>7</v>
       </c>
       <c r="C741" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D741">
-        <v>5.99</v>
+        <v>2.08</v>
       </c>
       <c r="E741" t="s">
         <v>4</v>
       </c>
       <c r="F741" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="742" spans="1:6" x14ac:dyDescent="0.2">
@@ -15795,16 +15789,16 @@
         <v>7</v>
       </c>
       <c r="C742" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D742">
-        <v>4.9000000000000004</v>
+        <v>6.15</v>
       </c>
       <c r="E742" t="s">
         <v>4</v>
       </c>
       <c r="F742" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="743" spans="1:6" x14ac:dyDescent="0.2">
@@ -15815,16 +15809,16 @@
         <v>7</v>
       </c>
       <c r="C743" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D743">
-        <v>5.97</v>
+        <v>10.77</v>
       </c>
       <c r="E743" t="s">
         <v>4</v>
       </c>
       <c r="F743" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="744" spans="1:6" x14ac:dyDescent="0.2">
@@ -15835,16 +15829,16 @@
         <v>7</v>
       </c>
       <c r="C744" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D744">
-        <v>7.17</v>
+        <v>2.35</v>
       </c>
       <c r="E744" t="s">
         <v>4</v>
       </c>
       <c r="F744" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="745" spans="1:6" x14ac:dyDescent="0.2">
@@ -15855,16 +15849,16 @@
         <v>7</v>
       </c>
       <c r="C745" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D745">
-        <v>5.87</v>
+        <v>3.58</v>
       </c>
       <c r="E745" t="s">
         <v>4</v>
       </c>
       <c r="F745" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="746" spans="1:6" x14ac:dyDescent="0.2">
@@ -15875,16 +15869,16 @@
         <v>7</v>
       </c>
       <c r="C746" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D746">
-        <v>12.93</v>
+        <v>5.91</v>
       </c>
       <c r="E746" t="s">
         <v>4</v>
       </c>
       <c r="F746" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="747" spans="1:6" x14ac:dyDescent="0.2">
@@ -15895,16 +15889,16 @@
         <v>7</v>
       </c>
       <c r="C747" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D747">
-        <v>4.7</v>
+        <v>3.78</v>
       </c>
       <c r="E747" t="s">
         <v>4</v>
       </c>
       <c r="F747" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="748" spans="1:6" x14ac:dyDescent="0.2">
@@ -15915,16 +15909,16 @@
         <v>7</v>
       </c>
       <c r="C748" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D748">
-        <v>3.4</v>
+        <v>2.99</v>
       </c>
       <c r="E748" t="s">
         <v>4</v>
       </c>
       <c r="F748" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="749" spans="1:6" x14ac:dyDescent="0.2">
@@ -15935,16 +15929,16 @@
         <v>7</v>
       </c>
       <c r="C749" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D749">
-        <v>8.9499999999999993</v>
+        <v>8.18</v>
       </c>
       <c r="E749" t="s">
         <v>4</v>
       </c>
       <c r="F749" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="750" spans="1:6" x14ac:dyDescent="0.2">
@@ -15955,16 +15949,16 @@
         <v>7</v>
       </c>
       <c r="C750" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D750">
-        <v>5.27</v>
+        <v>4.37</v>
       </c>
       <c r="E750" t="s">
         <v>4</v>
       </c>
       <c r="F750" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="751" spans="1:6" x14ac:dyDescent="0.2">
@@ -15975,16 +15969,16 @@
         <v>7</v>
       </c>
       <c r="C751" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D751">
-        <v>13.02</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="E751" t="s">
         <v>4</v>
       </c>
       <c r="F751" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="752" spans="1:6" x14ac:dyDescent="0.2">
@@ -15995,16 +15989,16 @@
         <v>7</v>
       </c>
       <c r="C752" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D752">
-        <v>4.32</v>
+        <v>2.54</v>
       </c>
       <c r="E752" t="s">
         <v>4</v>
       </c>
       <c r="F752" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="753" spans="1:6" x14ac:dyDescent="0.2">
@@ -16015,16 +16009,16 @@
         <v>7</v>
       </c>
       <c r="C753" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D753">
-        <v>4.07</v>
+        <v>2.5</v>
       </c>
       <c r="E753" t="s">
         <v>4</v>
       </c>
       <c r="F753" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="754" spans="1:6" x14ac:dyDescent="0.2">
@@ -16035,857 +16029,483 @@
         <v>7</v>
       </c>
       <c r="C754" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D754">
-        <v>8.1300000000000008</v>
+        <v>13.18</v>
       </c>
       <c r="E754" t="s">
         <v>4</v>
       </c>
       <c r="F754" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="755" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B755" t="s">
         <v>7</v>
       </c>
       <c r="C755" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D755">
-        <v>7.82</v>
+        <v>6.01</v>
       </c>
       <c r="E755" t="s">
         <v>4</v>
       </c>
       <c r="F755" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="756" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B756" t="s">
         <v>7</v>
       </c>
       <c r="C756" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D756">
-        <v>2.78</v>
+        <v>6.23</v>
       </c>
       <c r="E756" t="s">
         <v>4</v>
       </c>
       <c r="F756" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="757" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B757" t="s">
         <v>7</v>
       </c>
       <c r="C757" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D757">
-        <v>3.51</v>
+        <v>6.36</v>
       </c>
       <c r="E757" t="s">
         <v>4</v>
       </c>
       <c r="F757" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="758" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B758" t="s">
         <v>7</v>
       </c>
       <c r="C758" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D758">
-        <v>3.24</v>
+        <v>8.64</v>
       </c>
       <c r="E758" t="s">
         <v>4</v>
       </c>
       <c r="F758" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="759" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B759" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C759" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D759">
-        <v>10.81</v>
+        <v>14.98</v>
       </c>
       <c r="E759" t="s">
         <v>4</v>
       </c>
       <c r="F759" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="760" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B760" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C760" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D760">
-        <v>5.59</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="E760" t="s">
         <v>4</v>
       </c>
       <c r="F760" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="761" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B761" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C761" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D761">
-        <v>6.64</v>
+        <v>3.69</v>
       </c>
       <c r="E761" t="s">
         <v>4</v>
       </c>
       <c r="F761" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="762" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B762" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C762" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D762">
-        <v>7.21</v>
+        <v>4.3</v>
       </c>
       <c r="E762" t="s">
         <v>4</v>
       </c>
       <c r="F762" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="763" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B763" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C763" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D763">
-        <v>6.32</v>
+        <v>7.12</v>
       </c>
       <c r="E763" t="s">
         <v>4</v>
       </c>
       <c r="F763" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="764" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B764" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C764" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D764">
-        <v>2.8</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="E764" t="s">
         <v>4</v>
       </c>
       <c r="F764" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="765" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B765" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C765" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D765">
-        <v>6.44</v>
+        <v>17.66</v>
       </c>
       <c r="E765" t="s">
         <v>4</v>
       </c>
       <c r="F765" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="766" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B766" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C766" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D766">
-        <v>4.2</v>
+        <v>4.12</v>
       </c>
       <c r="E766" t="s">
         <v>4</v>
       </c>
       <c r="F766" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="767" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B767" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C767" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D767">
-        <v>10.199999999999999</v>
+        <v>7.39</v>
       </c>
       <c r="E767" t="s">
         <v>4</v>
       </c>
       <c r="F767" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="768" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B768" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C768" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D768">
-        <v>8.7899999999999991</v>
+        <v>10.83</v>
       </c>
       <c r="E768" t="s">
         <v>4</v>
       </c>
       <c r="F768" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="769" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B769" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C769" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D769">
-        <v>10.85</v>
+        <v>3.81</v>
       </c>
       <c r="E769" t="s">
         <v>4</v>
       </c>
       <c r="F769" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="770" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B770" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C770" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D770">
-        <v>5.94</v>
+        <v>4.91</v>
       </c>
       <c r="E770" t="s">
         <v>4</v>
       </c>
       <c r="F770" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="771" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B771" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C771" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D771">
-        <v>6.66</v>
+        <v>8.93</v>
       </c>
       <c r="E771" t="s">
         <v>4</v>
       </c>
       <c r="F771" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="772" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B772" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C772" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D772">
-        <v>6.33</v>
+        <v>5.09</v>
       </c>
       <c r="E772" t="s">
         <v>4</v>
       </c>
       <c r="F772" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="773" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B773" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C773" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D773">
-        <v>11.56</v>
+        <v>16.13</v>
       </c>
       <c r="E773" t="s">
         <v>4</v>
       </c>
       <c r="F773" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="774" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B774" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C774" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D774">
-        <v>6.89</v>
+        <v>10.82</v>
       </c>
       <c r="E774" t="s">
         <v>4</v>
       </c>
       <c r="F774" s="1">
-        <v>44804</v>
+        <v>44847</v>
       </c>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A775" t="s">
-        <v>0</v>
-      </c>
-      <c r="B775" t="s">
-        <v>19</v>
-      </c>
-      <c r="C775" t="s">
-        <v>18</v>
-      </c>
-      <c r="D775">
-        <v>3.2</v>
-      </c>
-      <c r="E775" t="s">
-        <v>4</v>
-      </c>
-      <c r="F775" s="1">
-        <v>44804</v>
-      </c>
+      <c r="F775" s="1"/>
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A776" t="s">
-        <v>0</v>
-      </c>
-      <c r="B776" t="s">
-        <v>19</v>
-      </c>
-      <c r="C776" t="s">
-        <v>18</v>
-      </c>
-      <c r="D776">
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="E776" t="s">
-        <v>4</v>
-      </c>
-      <c r="F776" s="1">
-        <v>44804</v>
-      </c>
+      <c r="F776" s="1"/>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A777" t="s">
-        <v>0</v>
-      </c>
-      <c r="B777" t="s">
-        <v>19</v>
-      </c>
-      <c r="C777" t="s">
-        <v>18</v>
-      </c>
-      <c r="D777">
-        <v>11.43</v>
-      </c>
-      <c r="E777" t="s">
-        <v>4</v>
-      </c>
-      <c r="F777" s="1">
-        <v>44804</v>
-      </c>
+      <c r="F777" s="1"/>
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A778" t="s">
-        <v>0</v>
-      </c>
-      <c r="B778" t="s">
-        <v>19</v>
-      </c>
-      <c r="C778" t="s">
-        <v>18</v>
-      </c>
-      <c r="D778">
-        <v>3.54</v>
-      </c>
-      <c r="E778" t="s">
-        <v>4</v>
-      </c>
-      <c r="F778" s="1">
-        <v>44804</v>
-      </c>
+      <c r="F778" s="1"/>
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A779" t="s">
-        <v>0</v>
-      </c>
-      <c r="B779" t="s">
-        <v>19</v>
-      </c>
-      <c r="C779" t="s">
-        <v>18</v>
-      </c>
-      <c r="D779">
-        <v>9.19</v>
-      </c>
-      <c r="E779" t="s">
-        <v>4</v>
-      </c>
-      <c r="F779" s="1">
-        <v>44804</v>
-      </c>
+      <c r="F779" s="1"/>
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A780" t="s">
-        <v>3</v>
-      </c>
-      <c r="B780" t="s">
-        <v>19</v>
-      </c>
-      <c r="C780" t="s">
-        <v>18</v>
-      </c>
-      <c r="D780">
-        <v>8.6</v>
-      </c>
-      <c r="E780" t="s">
-        <v>4</v>
-      </c>
-      <c r="F780" s="1">
-        <v>44804</v>
-      </c>
+      <c r="F780" s="1"/>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A781" t="s">
-        <v>3</v>
-      </c>
-      <c r="B781" t="s">
-        <v>19</v>
-      </c>
-      <c r="C781" t="s">
-        <v>18</v>
-      </c>
-      <c r="D781">
-        <v>2.65</v>
-      </c>
-      <c r="E781" t="s">
-        <v>4</v>
-      </c>
-      <c r="F781" s="1">
-        <v>44804</v>
-      </c>
+      <c r="F781" s="1"/>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A782" t="s">
-        <v>3</v>
-      </c>
-      <c r="B782" t="s">
-        <v>19</v>
-      </c>
-      <c r="C782" t="s">
-        <v>18</v>
-      </c>
-      <c r="D782">
-        <v>14.25</v>
-      </c>
-      <c r="E782" t="s">
-        <v>4</v>
-      </c>
-      <c r="F782" s="1">
-        <v>44804</v>
-      </c>
+      <c r="F782" s="1"/>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A783" t="s">
-        <v>3</v>
-      </c>
-      <c r="B783" t="s">
-        <v>19</v>
-      </c>
-      <c r="C783" t="s">
-        <v>18</v>
-      </c>
-      <c r="D783">
-        <v>4.13</v>
-      </c>
-      <c r="E783" t="s">
-        <v>4</v>
-      </c>
-      <c r="F783" s="1">
-        <v>44804</v>
-      </c>
+      <c r="F783" s="1"/>
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A784" t="s">
-        <v>3</v>
-      </c>
-      <c r="B784" t="s">
-        <v>19</v>
-      </c>
-      <c r="C784" t="s">
-        <v>18</v>
-      </c>
-      <c r="D784">
-        <v>14.84</v>
-      </c>
-      <c r="E784" t="s">
-        <v>4</v>
-      </c>
-      <c r="F784" s="1">
-        <v>44804</v>
-      </c>
-    </row>
-    <row r="785" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A785" t="s">
-        <v>3</v>
-      </c>
-      <c r="B785" t="s">
-        <v>19</v>
-      </c>
-      <c r="C785" t="s">
-        <v>18</v>
-      </c>
-      <c r="D785">
-        <v>9.15</v>
-      </c>
-      <c r="E785" t="s">
-        <v>4</v>
-      </c>
-      <c r="F785" s="1">
-        <v>44804</v>
-      </c>
-    </row>
-    <row r="786" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A786" t="s">
-        <v>3</v>
-      </c>
-      <c r="B786" t="s">
-        <v>19</v>
-      </c>
-      <c r="C786" t="s">
-        <v>18</v>
-      </c>
-      <c r="D786">
-        <v>9.16</v>
-      </c>
-      <c r="E786" t="s">
-        <v>4</v>
-      </c>
-      <c r="F786" s="1">
-        <v>44804</v>
-      </c>
-    </row>
-    <row r="787" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A787" t="s">
-        <v>3</v>
-      </c>
-      <c r="B787" t="s">
-        <v>19</v>
-      </c>
-      <c r="C787" t="s">
-        <v>18</v>
-      </c>
-      <c r="D787">
-        <v>5.87</v>
-      </c>
-      <c r="E787" t="s">
-        <v>4</v>
-      </c>
-      <c r="F787" s="1">
-        <v>44804</v>
-      </c>
-    </row>
-    <row r="788" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A788" t="s">
-        <v>3</v>
-      </c>
-      <c r="B788" t="s">
-        <v>19</v>
-      </c>
-      <c r="C788" t="s">
-        <v>18</v>
-      </c>
-      <c r="D788">
-        <v>9.1</v>
-      </c>
-      <c r="E788" t="s">
-        <v>4</v>
-      </c>
-      <c r="F788" s="1">
-        <v>44804</v>
-      </c>
-    </row>
-    <row r="789" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A789" t="s">
-        <v>3</v>
-      </c>
-      <c r="B789" t="s">
-        <v>19</v>
-      </c>
-      <c r="C789" t="s">
-        <v>18</v>
-      </c>
-      <c r="D789">
-        <v>7.83</v>
-      </c>
-      <c r="E789" t="s">
-        <v>4</v>
-      </c>
-      <c r="F789" s="1">
-        <v>44804</v>
-      </c>
-    </row>
-    <row r="790" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A790" t="s">
-        <v>3</v>
-      </c>
-      <c r="B790" t="s">
-        <v>19</v>
-      </c>
-      <c r="C790" t="s">
-        <v>18</v>
-      </c>
-      <c r="D790">
-        <v>6.16</v>
-      </c>
-      <c r="E790" t="s">
-        <v>4</v>
-      </c>
-      <c r="F790" s="1">
-        <v>44804</v>
-      </c>
-    </row>
-    <row r="791" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A791" t="s">
-        <v>3</v>
-      </c>
-      <c r="B791" t="s">
-        <v>19</v>
-      </c>
-      <c r="C791" t="s">
-        <v>18</v>
-      </c>
-      <c r="D791">
-        <v>14.97</v>
-      </c>
-      <c r="E791" t="s">
-        <v>4</v>
-      </c>
-      <c r="F791" s="1">
-        <v>44804</v>
-      </c>
-    </row>
-    <row r="792" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A792" t="s">
-        <v>3</v>
-      </c>
-      <c r="B792" t="s">
-        <v>19</v>
-      </c>
-      <c r="C792" t="s">
-        <v>18</v>
-      </c>
-      <c r="D792">
-        <v>17.37</v>
-      </c>
-      <c r="E792" t="s">
-        <v>4</v>
-      </c>
-      <c r="F792" s="1">
-        <v>44804</v>
-      </c>
-    </row>
-    <row r="793" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A793" t="s">
-        <v>3</v>
-      </c>
-      <c r="B793" t="s">
-        <v>19</v>
-      </c>
-      <c r="C793" t="s">
-        <v>18</v>
-      </c>
-      <c r="D793">
-        <v>7.75</v>
-      </c>
-      <c r="E793" t="s">
-        <v>4</v>
-      </c>
-      <c r="F793" s="1">
-        <v>44804</v>
-      </c>
-    </row>
-    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A794" t="s">
-        <v>3</v>
-      </c>
-      <c r="B794" t="s">
-        <v>19</v>
-      </c>
-      <c r="C794" t="s">
-        <v>18</v>
-      </c>
-      <c r="D794">
-        <v>5.41</v>
-      </c>
-      <c r="E794" t="s">
-        <v>4</v>
-      </c>
-      <c r="F794" s="1">
-        <v>44804</v>
-      </c>
-    </row>
-    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A795" t="s">
-        <v>3</v>
-      </c>
-      <c r="B795" t="s">
-        <v>19</v>
-      </c>
-      <c r="C795" t="s">
-        <v>18</v>
-      </c>
-      <c r="D795">
-        <v>5.75</v>
-      </c>
-      <c r="E795" t="s">
-        <v>4</v>
-      </c>
-      <c r="F795" s="1">
-        <v>44804</v>
-      </c>
-    </row>
-    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A796" t="s">
-        <v>3</v>
-      </c>
-      <c r="B796" t="s">
-        <v>19</v>
-      </c>
-      <c r="C796" t="s">
-        <v>18</v>
-      </c>
-      <c r="D796">
-        <v>10.16</v>
-      </c>
-      <c r="E796" t="s">
-        <v>4</v>
-      </c>
-      <c r="F796" s="1">
-        <v>44804</v>
-      </c>
+      <c r="F784" s="1"/>
+    </row>
+    <row r="785" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F785" s="1"/>
+    </row>
+    <row r="786" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F786" s="1"/>
+    </row>
+    <row r="787" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F787" s="1"/>
+    </row>
+    <row r="788" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F788" s="1"/>
+    </row>
+    <row r="789" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F789" s="1"/>
+    </row>
+    <row r="790" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F790" s="1"/>
+    </row>
+    <row r="791" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F791" s="1"/>
+    </row>
+    <row r="792" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F792" s="1"/>
+    </row>
+    <row r="793" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F793" s="1"/>
+    </row>
+    <row r="794" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F794" s="1"/>
+    </row>
+    <row r="795" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F795" s="1"/>
+    </row>
+    <row r="796" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F796" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>

--- a/data/octanol_30pct_avoidance_ALLDATA.xlsx
+++ b/data/octanol_30pct_avoidance_ALLDATA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiabrown/Documents/git/cest-2.1-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6473C637-0F52-A54B-BC5A-1E199895D696}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B371B1D3-27B5-A34D-A65D-312DB9D4DC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4519" uniqueCount="19">
   <si>
     <t>N2</t>
   </si>
@@ -87,6 +87,9 @@
   <si>
     <t>Condition</t>
   </si>
+  <si>
+    <t>glo-1</t>
+  </si>
 </sst>
 </file>
 
@@ -95,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,6 +245,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -585,10 +594,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -944,11 +954,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I796"/>
+  <dimension ref="A1:I1142"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A740" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H767" sqref="H767"/>
+      <pane ySplit="1" topLeftCell="A937" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F950" sqref="F950"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16442,73 +16452,7212 @@
       </c>
     </row>
     <row r="775" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F775" s="1"/>
+      <c r="A775" t="s">
+        <v>3</v>
+      </c>
+      <c r="B775" t="s">
+        <v>7</v>
+      </c>
+      <c r="C775" t="s">
+        <v>1</v>
+      </c>
+      <c r="D775">
+        <v>4.3</v>
+      </c>
+      <c r="E775" t="s">
+        <v>4</v>
+      </c>
+      <c r="F775" s="1">
+        <v>44909</v>
+      </c>
     </row>
     <row r="776" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F776" s="1"/>
+      <c r="A776" t="s">
+        <v>3</v>
+      </c>
+      <c r="B776" t="s">
+        <v>7</v>
+      </c>
+      <c r="C776" t="s">
+        <v>1</v>
+      </c>
+      <c r="D776">
+        <v>3.7</v>
+      </c>
+      <c r="E776" t="s">
+        <v>4</v>
+      </c>
+      <c r="F776" s="1">
+        <v>44909</v>
+      </c>
     </row>
     <row r="777" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F777" s="1"/>
+      <c r="A777" t="s">
+        <v>3</v>
+      </c>
+      <c r="B777" t="s">
+        <v>7</v>
+      </c>
+      <c r="C777" t="s">
+        <v>1</v>
+      </c>
+      <c r="D777">
+        <v>3.2</v>
+      </c>
+      <c r="E777" t="s">
+        <v>4</v>
+      </c>
+      <c r="F777" s="1">
+        <v>44909</v>
+      </c>
     </row>
     <row r="778" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F778" s="1"/>
+      <c r="A778" t="s">
+        <v>3</v>
+      </c>
+      <c r="B778" t="s">
+        <v>7</v>
+      </c>
+      <c r="C778" t="s">
+        <v>1</v>
+      </c>
+      <c r="D778">
+        <v>3.6</v>
+      </c>
+      <c r="E778" t="s">
+        <v>4</v>
+      </c>
+      <c r="F778" s="1">
+        <v>44909</v>
+      </c>
     </row>
     <row r="779" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F779" s="1"/>
+      <c r="A779" t="s">
+        <v>3</v>
+      </c>
+      <c r="B779" t="s">
+        <v>7</v>
+      </c>
+      <c r="C779" t="s">
+        <v>1</v>
+      </c>
+      <c r="D779">
+        <v>2.94</v>
+      </c>
+      <c r="E779" t="s">
+        <v>4</v>
+      </c>
+      <c r="F779" s="1">
+        <v>44909</v>
+      </c>
     </row>
     <row r="780" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F780" s="1"/>
+      <c r="A780" t="s">
+        <v>3</v>
+      </c>
+      <c r="B780" t="s">
+        <v>7</v>
+      </c>
+      <c r="C780" t="s">
+        <v>1</v>
+      </c>
+      <c r="D780">
+        <v>4.53</v>
+      </c>
+      <c r="E780" t="s">
+        <v>4</v>
+      </c>
+      <c r="F780" s="1">
+        <v>44909</v>
+      </c>
     </row>
     <row r="781" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F781" s="1"/>
+      <c r="A781" t="s">
+        <v>3</v>
+      </c>
+      <c r="B781" t="s">
+        <v>7</v>
+      </c>
+      <c r="C781" t="s">
+        <v>1</v>
+      </c>
+      <c r="D781">
+        <v>2.36</v>
+      </c>
+      <c r="E781" t="s">
+        <v>4</v>
+      </c>
+      <c r="F781" s="1">
+        <v>44909</v>
+      </c>
     </row>
     <row r="782" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F782" s="1"/>
+      <c r="A782" t="s">
+        <v>3</v>
+      </c>
+      <c r="B782" t="s">
+        <v>7</v>
+      </c>
+      <c r="C782" t="s">
+        <v>1</v>
+      </c>
+      <c r="D782">
+        <v>3.45</v>
+      </c>
+      <c r="E782" t="s">
+        <v>4</v>
+      </c>
+      <c r="F782" s="1">
+        <v>44909</v>
+      </c>
     </row>
     <row r="783" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F783" s="1"/>
+      <c r="A783" t="s">
+        <v>3</v>
+      </c>
+      <c r="B783" t="s">
+        <v>7</v>
+      </c>
+      <c r="C783" t="s">
+        <v>1</v>
+      </c>
+      <c r="D783">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E783" t="s">
+        <v>4</v>
+      </c>
+      <c r="F783" s="1">
+        <v>44909</v>
+      </c>
     </row>
     <row r="784" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F784" s="1"/>
-    </row>
-    <row r="785" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F785" s="1"/>
-    </row>
-    <row r="786" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F786" s="1"/>
-    </row>
-    <row r="787" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F787" s="1"/>
-    </row>
-    <row r="788" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F788" s="1"/>
-    </row>
-    <row r="789" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F789" s="1"/>
-    </row>
-    <row r="790" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F790" s="1"/>
-    </row>
-    <row r="791" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F791" s="1"/>
-    </row>
-    <row r="792" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F792" s="1"/>
-    </row>
-    <row r="793" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F793" s="1"/>
-    </row>
-    <row r="794" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F794" s="1"/>
-    </row>
-    <row r="795" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F795" s="1"/>
-    </row>
-    <row r="796" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F796" s="1"/>
+      <c r="A784" t="s">
+        <v>3</v>
+      </c>
+      <c r="B784" t="s">
+        <v>7</v>
+      </c>
+      <c r="C784" t="s">
+        <v>1</v>
+      </c>
+      <c r="D784">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E784" t="s">
+        <v>4</v>
+      </c>
+      <c r="F784" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>3</v>
+      </c>
+      <c r="B785" t="s">
+        <v>7</v>
+      </c>
+      <c r="C785" t="s">
+        <v>1</v>
+      </c>
+      <c r="D785">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="E785" t="s">
+        <v>4</v>
+      </c>
+      <c r="F785" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>3</v>
+      </c>
+      <c r="B786" t="s">
+        <v>7</v>
+      </c>
+      <c r="C786" t="s">
+        <v>1</v>
+      </c>
+      <c r="D786">
+        <v>1.69</v>
+      </c>
+      <c r="E786" t="s">
+        <v>4</v>
+      </c>
+      <c r="F786" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>3</v>
+      </c>
+      <c r="B787" t="s">
+        <v>7</v>
+      </c>
+      <c r="C787" t="s">
+        <v>1</v>
+      </c>
+      <c r="D787">
+        <v>6.35</v>
+      </c>
+      <c r="E787" t="s">
+        <v>4</v>
+      </c>
+      <c r="F787" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>3</v>
+      </c>
+      <c r="B788" t="s">
+        <v>7</v>
+      </c>
+      <c r="C788" t="s">
+        <v>1</v>
+      </c>
+      <c r="D788">
+        <v>6.37</v>
+      </c>
+      <c r="E788" t="s">
+        <v>4</v>
+      </c>
+      <c r="F788" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>3</v>
+      </c>
+      <c r="B789" t="s">
+        <v>7</v>
+      </c>
+      <c r="C789" t="s">
+        <v>1</v>
+      </c>
+      <c r="D789">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E789" t="s">
+        <v>4</v>
+      </c>
+      <c r="F789" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>3</v>
+      </c>
+      <c r="B790" t="s">
+        <v>7</v>
+      </c>
+      <c r="C790" t="s">
+        <v>1</v>
+      </c>
+      <c r="D790">
+        <v>3.14</v>
+      </c>
+      <c r="E790" t="s">
+        <v>4</v>
+      </c>
+      <c r="F790" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A791" t="s">
+        <v>3</v>
+      </c>
+      <c r="B791" t="s">
+        <v>7</v>
+      </c>
+      <c r="C791" t="s">
+        <v>1</v>
+      </c>
+      <c r="D791">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E791" t="s">
+        <v>4</v>
+      </c>
+      <c r="F791" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>3</v>
+      </c>
+      <c r="B792" t="s">
+        <v>7</v>
+      </c>
+      <c r="C792" t="s">
+        <v>1</v>
+      </c>
+      <c r="D792">
+        <v>6.61</v>
+      </c>
+      <c r="E792" t="s">
+        <v>4</v>
+      </c>
+      <c r="F792" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>3</v>
+      </c>
+      <c r="B793" t="s">
+        <v>7</v>
+      </c>
+      <c r="C793" t="s">
+        <v>1</v>
+      </c>
+      <c r="D793">
+        <v>4.97</v>
+      </c>
+      <c r="E793" t="s">
+        <v>4</v>
+      </c>
+      <c r="F793" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
+        <v>3</v>
+      </c>
+      <c r="B794" t="s">
+        <v>7</v>
+      </c>
+      <c r="C794" t="s">
+        <v>1</v>
+      </c>
+      <c r="D794">
+        <v>3.87</v>
+      </c>
+      <c r="E794" t="s">
+        <v>4</v>
+      </c>
+      <c r="F794" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A795" t="s">
+        <v>3</v>
+      </c>
+      <c r="B795" t="s">
+        <v>7</v>
+      </c>
+      <c r="C795" t="s">
+        <v>1</v>
+      </c>
+      <c r="D795">
+        <v>3.49</v>
+      </c>
+      <c r="E795" t="s">
+        <v>4</v>
+      </c>
+      <c r="F795" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A796" t="s">
+        <v>10</v>
+      </c>
+      <c r="B796" t="s">
+        <v>7</v>
+      </c>
+      <c r="C796" t="s">
+        <v>1</v>
+      </c>
+      <c r="D796">
+        <v>1.86</v>
+      </c>
+      <c r="E796" t="s">
+        <v>4</v>
+      </c>
+      <c r="F796" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A797" t="s">
+        <v>10</v>
+      </c>
+      <c r="B797" t="s">
+        <v>7</v>
+      </c>
+      <c r="C797" t="s">
+        <v>1</v>
+      </c>
+      <c r="D797">
+        <v>2.73</v>
+      </c>
+      <c r="E797" t="s">
+        <v>4</v>
+      </c>
+      <c r="F797" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A798" t="s">
+        <v>10</v>
+      </c>
+      <c r="B798" t="s">
+        <v>7</v>
+      </c>
+      <c r="C798" t="s">
+        <v>1</v>
+      </c>
+      <c r="D798">
+        <v>3.35</v>
+      </c>
+      <c r="E798" t="s">
+        <v>4</v>
+      </c>
+      <c r="F798" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A799" t="s">
+        <v>10</v>
+      </c>
+      <c r="B799" t="s">
+        <v>7</v>
+      </c>
+      <c r="C799" t="s">
+        <v>1</v>
+      </c>
+      <c r="D799">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E799" t="s">
+        <v>4</v>
+      </c>
+      <c r="F799" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A800" t="s">
+        <v>10</v>
+      </c>
+      <c r="B800" t="s">
+        <v>7</v>
+      </c>
+      <c r="C800" t="s">
+        <v>1</v>
+      </c>
+      <c r="D800">
+        <v>11.87</v>
+      </c>
+      <c r="E800" t="s">
+        <v>4</v>
+      </c>
+      <c r="F800" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A801" t="s">
+        <v>10</v>
+      </c>
+      <c r="B801" t="s">
+        <v>7</v>
+      </c>
+      <c r="C801" t="s">
+        <v>1</v>
+      </c>
+      <c r="D801">
+        <v>3.82</v>
+      </c>
+      <c r="E801" t="s">
+        <v>4</v>
+      </c>
+      <c r="F801" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A802" t="s">
+        <v>10</v>
+      </c>
+      <c r="B802" t="s">
+        <v>7</v>
+      </c>
+      <c r="C802" t="s">
+        <v>1</v>
+      </c>
+      <c r="D802">
+        <v>4.07</v>
+      </c>
+      <c r="E802" t="s">
+        <v>4</v>
+      </c>
+      <c r="F802" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A803" t="s">
+        <v>10</v>
+      </c>
+      <c r="B803" t="s">
+        <v>7</v>
+      </c>
+      <c r="C803" t="s">
+        <v>1</v>
+      </c>
+      <c r="D803">
+        <v>3.09</v>
+      </c>
+      <c r="E803" t="s">
+        <v>4</v>
+      </c>
+      <c r="F803" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A804" t="s">
+        <v>10</v>
+      </c>
+      <c r="B804" t="s">
+        <v>7</v>
+      </c>
+      <c r="C804" t="s">
+        <v>1</v>
+      </c>
+      <c r="D804">
+        <v>4.79</v>
+      </c>
+      <c r="E804" t="s">
+        <v>4</v>
+      </c>
+      <c r="F804" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A805" t="s">
+        <v>10</v>
+      </c>
+      <c r="B805" t="s">
+        <v>7</v>
+      </c>
+      <c r="C805" t="s">
+        <v>1</v>
+      </c>
+      <c r="D805">
+        <v>2.79</v>
+      </c>
+      <c r="E805" t="s">
+        <v>4</v>
+      </c>
+      <c r="F805" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A806" t="s">
+        <v>10</v>
+      </c>
+      <c r="B806" t="s">
+        <v>7</v>
+      </c>
+      <c r="C806" t="s">
+        <v>1</v>
+      </c>
+      <c r="D806">
+        <v>6.92</v>
+      </c>
+      <c r="E806" t="s">
+        <v>4</v>
+      </c>
+      <c r="F806" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A807" t="s">
+        <v>10</v>
+      </c>
+      <c r="B807" t="s">
+        <v>7</v>
+      </c>
+      <c r="C807" t="s">
+        <v>1</v>
+      </c>
+      <c r="D807">
+        <v>7.05</v>
+      </c>
+      <c r="E807" t="s">
+        <v>4</v>
+      </c>
+      <c r="F807" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A808" t="s">
+        <v>10</v>
+      </c>
+      <c r="B808" t="s">
+        <v>7</v>
+      </c>
+      <c r="C808" t="s">
+        <v>1</v>
+      </c>
+      <c r="D808">
+        <v>4.51</v>
+      </c>
+      <c r="E808" t="s">
+        <v>4</v>
+      </c>
+      <c r="F808" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A809" t="s">
+        <v>10</v>
+      </c>
+      <c r="B809" t="s">
+        <v>7</v>
+      </c>
+      <c r="C809" t="s">
+        <v>1</v>
+      </c>
+      <c r="D809">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="E809" t="s">
+        <v>4</v>
+      </c>
+      <c r="F809" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A810" t="s">
+        <v>10</v>
+      </c>
+      <c r="B810" t="s">
+        <v>7</v>
+      </c>
+      <c r="C810" t="s">
+        <v>1</v>
+      </c>
+      <c r="D810">
+        <v>4.58</v>
+      </c>
+      <c r="E810" t="s">
+        <v>4</v>
+      </c>
+      <c r="F810" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A811" t="s">
+        <v>10</v>
+      </c>
+      <c r="B811" t="s">
+        <v>7</v>
+      </c>
+      <c r="C811" t="s">
+        <v>1</v>
+      </c>
+      <c r="D811">
+        <v>3.86</v>
+      </c>
+      <c r="E811" t="s">
+        <v>4</v>
+      </c>
+      <c r="F811" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A812" t="s">
+        <v>10</v>
+      </c>
+      <c r="B812" t="s">
+        <v>7</v>
+      </c>
+      <c r="C812" t="s">
+        <v>1</v>
+      </c>
+      <c r="D812">
+        <v>2.71</v>
+      </c>
+      <c r="E812" t="s">
+        <v>4</v>
+      </c>
+      <c r="F812" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A813" t="s">
+        <v>10</v>
+      </c>
+      <c r="B813" t="s">
+        <v>7</v>
+      </c>
+      <c r="C813" t="s">
+        <v>1</v>
+      </c>
+      <c r="D813">
+        <v>7.79</v>
+      </c>
+      <c r="E813" t="s">
+        <v>4</v>
+      </c>
+      <c r="F813" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A814" t="s">
+        <v>10</v>
+      </c>
+      <c r="B814" t="s">
+        <v>7</v>
+      </c>
+      <c r="C814" t="s">
+        <v>1</v>
+      </c>
+      <c r="D814">
+        <v>4.78</v>
+      </c>
+      <c r="E814" t="s">
+        <v>4</v>
+      </c>
+      <c r="F814" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A815" t="s">
+        <v>10</v>
+      </c>
+      <c r="B815" t="s">
+        <v>7</v>
+      </c>
+      <c r="C815" t="s">
+        <v>1</v>
+      </c>
+      <c r="D815">
+        <v>4.66</v>
+      </c>
+      <c r="E815" t="s">
+        <v>4</v>
+      </c>
+      <c r="F815" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A816" t="s">
+        <v>0</v>
+      </c>
+      <c r="B816" t="s">
+        <v>7</v>
+      </c>
+      <c r="C816" t="s">
+        <v>1</v>
+      </c>
+      <c r="D816">
+        <v>3.28</v>
+      </c>
+      <c r="E816" t="s">
+        <v>4</v>
+      </c>
+      <c r="F816" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A817" t="s">
+        <v>0</v>
+      </c>
+      <c r="B817" t="s">
+        <v>7</v>
+      </c>
+      <c r="C817" t="s">
+        <v>1</v>
+      </c>
+      <c r="D817">
+        <v>7.79</v>
+      </c>
+      <c r="E817" t="s">
+        <v>4</v>
+      </c>
+      <c r="F817" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A818" t="s">
+        <v>0</v>
+      </c>
+      <c r="B818" t="s">
+        <v>7</v>
+      </c>
+      <c r="C818" t="s">
+        <v>1</v>
+      </c>
+      <c r="D818">
+        <v>6.86</v>
+      </c>
+      <c r="E818" t="s">
+        <v>4</v>
+      </c>
+      <c r="F818" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A819" t="s">
+        <v>0</v>
+      </c>
+      <c r="B819" t="s">
+        <v>7</v>
+      </c>
+      <c r="C819" t="s">
+        <v>1</v>
+      </c>
+      <c r="D819">
+        <v>5.44</v>
+      </c>
+      <c r="E819" t="s">
+        <v>4</v>
+      </c>
+      <c r="F819" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A820" t="s">
+        <v>0</v>
+      </c>
+      <c r="B820" t="s">
+        <v>7</v>
+      </c>
+      <c r="C820" t="s">
+        <v>1</v>
+      </c>
+      <c r="D820">
+        <v>5.58</v>
+      </c>
+      <c r="E820" t="s">
+        <v>4</v>
+      </c>
+      <c r="F820" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A821" t="s">
+        <v>0</v>
+      </c>
+      <c r="B821" t="s">
+        <v>7</v>
+      </c>
+      <c r="C821" t="s">
+        <v>1</v>
+      </c>
+      <c r="D821">
+        <v>14.22</v>
+      </c>
+      <c r="E821" t="s">
+        <v>4</v>
+      </c>
+      <c r="F821" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A822" t="s">
+        <v>0</v>
+      </c>
+      <c r="B822" t="s">
+        <v>7</v>
+      </c>
+      <c r="C822" t="s">
+        <v>1</v>
+      </c>
+      <c r="D822">
+        <v>7.78</v>
+      </c>
+      <c r="E822" t="s">
+        <v>4</v>
+      </c>
+      <c r="F822" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A823" t="s">
+        <v>0</v>
+      </c>
+      <c r="B823" t="s">
+        <v>7</v>
+      </c>
+      <c r="C823" t="s">
+        <v>1</v>
+      </c>
+      <c r="D823">
+        <v>5.33</v>
+      </c>
+      <c r="E823" t="s">
+        <v>4</v>
+      </c>
+      <c r="F823" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A824" t="s">
+        <v>0</v>
+      </c>
+      <c r="B824" t="s">
+        <v>7</v>
+      </c>
+      <c r="C824" t="s">
+        <v>1</v>
+      </c>
+      <c r="D824">
+        <v>2.97</v>
+      </c>
+      <c r="E824" t="s">
+        <v>4</v>
+      </c>
+      <c r="F824" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A825" t="s">
+        <v>0</v>
+      </c>
+      <c r="B825" t="s">
+        <v>7</v>
+      </c>
+      <c r="C825" t="s">
+        <v>1</v>
+      </c>
+      <c r="D825">
+        <v>5.93</v>
+      </c>
+      <c r="E825" t="s">
+        <v>4</v>
+      </c>
+      <c r="F825" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A826" t="s">
+        <v>0</v>
+      </c>
+      <c r="B826" t="s">
+        <v>7</v>
+      </c>
+      <c r="C826" t="s">
+        <v>1</v>
+      </c>
+      <c r="D826">
+        <v>5.88</v>
+      </c>
+      <c r="E826" t="s">
+        <v>4</v>
+      </c>
+      <c r="F826" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A827" t="s">
+        <v>0</v>
+      </c>
+      <c r="B827" t="s">
+        <v>7</v>
+      </c>
+      <c r="C827" t="s">
+        <v>1</v>
+      </c>
+      <c r="D827">
+        <v>4.88</v>
+      </c>
+      <c r="E827" t="s">
+        <v>4</v>
+      </c>
+      <c r="F827" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A828" t="s">
+        <v>0</v>
+      </c>
+      <c r="B828" t="s">
+        <v>7</v>
+      </c>
+      <c r="C828" t="s">
+        <v>1</v>
+      </c>
+      <c r="D828">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="E828" t="s">
+        <v>4</v>
+      </c>
+      <c r="F828" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A829" t="s">
+        <v>0</v>
+      </c>
+      <c r="B829" t="s">
+        <v>7</v>
+      </c>
+      <c r="C829" t="s">
+        <v>1</v>
+      </c>
+      <c r="D829">
+        <v>9.64</v>
+      </c>
+      <c r="E829" t="s">
+        <v>4</v>
+      </c>
+      <c r="F829" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A830" t="s">
+        <v>0</v>
+      </c>
+      <c r="B830" t="s">
+        <v>7</v>
+      </c>
+      <c r="C830" t="s">
+        <v>1</v>
+      </c>
+      <c r="D830">
+        <v>5.75</v>
+      </c>
+      <c r="E830" t="s">
+        <v>4</v>
+      </c>
+      <c r="F830" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A831" t="s">
+        <v>0</v>
+      </c>
+      <c r="B831" t="s">
+        <v>7</v>
+      </c>
+      <c r="C831" t="s">
+        <v>1</v>
+      </c>
+      <c r="D831">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E831" t="s">
+        <v>4</v>
+      </c>
+      <c r="F831" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A832" t="s">
+        <v>0</v>
+      </c>
+      <c r="B832" t="s">
+        <v>7</v>
+      </c>
+      <c r="C832" t="s">
+        <v>1</v>
+      </c>
+      <c r="D832">
+        <v>7.9</v>
+      </c>
+      <c r="E832" t="s">
+        <v>4</v>
+      </c>
+      <c r="F832" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A833" t="s">
+        <v>0</v>
+      </c>
+      <c r="B833" t="s">
+        <v>7</v>
+      </c>
+      <c r="C833" t="s">
+        <v>1</v>
+      </c>
+      <c r="D833">
+        <v>8.09</v>
+      </c>
+      <c r="E833" t="s">
+        <v>4</v>
+      </c>
+      <c r="F833" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A834" t="s">
+        <v>0</v>
+      </c>
+      <c r="B834" t="s">
+        <v>7</v>
+      </c>
+      <c r="C834" t="s">
+        <v>1</v>
+      </c>
+      <c r="D834">
+        <v>5.28</v>
+      </c>
+      <c r="E834" t="s">
+        <v>4</v>
+      </c>
+      <c r="F834" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A835" t="s">
+        <v>0</v>
+      </c>
+      <c r="B835" t="s">
+        <v>7</v>
+      </c>
+      <c r="C835" t="s">
+        <v>1</v>
+      </c>
+      <c r="D835">
+        <v>3.89</v>
+      </c>
+      <c r="E835" t="s">
+        <v>4</v>
+      </c>
+      <c r="F835" s="1">
+        <v>44909</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A836" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B836" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C836" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D836" s="3">
+        <v>3.31</v>
+      </c>
+      <c r="E836" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F836" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A837" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B837" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C837" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D837" s="3">
+        <v>2.98</v>
+      </c>
+      <c r="E837" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F837" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A838" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B838" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C838" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D838" s="3">
+        <v>2.84</v>
+      </c>
+      <c r="E838" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F838" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A839" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B839" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C839" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D839" s="3">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E839" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F839" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A840" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B840" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C840" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D840" s="3">
+        <v>4.22</v>
+      </c>
+      <c r="E840" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F840" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A841" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B841" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C841" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D841" s="3">
+        <v>4.97</v>
+      </c>
+      <c r="E841" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F841" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A842" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B842" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C842" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D842" s="3">
+        <v>5.42</v>
+      </c>
+      <c r="E842" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F842" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A843" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B843" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C843" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D843" s="3">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="E843" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F843" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A844" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B844" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C844" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D844" s="3">
+        <v>10.68</v>
+      </c>
+      <c r="E844" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F844" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A845" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B845" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C845" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D845" s="3">
+        <v>7.75</v>
+      </c>
+      <c r="E845" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F845" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A846" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B846" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C846" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D846" s="3">
+        <v>7.72</v>
+      </c>
+      <c r="E846" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F846" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A847" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B847" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C847" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D847" s="3">
+        <v>4.63</v>
+      </c>
+      <c r="E847" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F847" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A848" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B848" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C848" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D848" s="3">
+        <v>9.57</v>
+      </c>
+      <c r="E848" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F848" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A849" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B849" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C849" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D849" s="3">
+        <v>10.94</v>
+      </c>
+      <c r="E849" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F849" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A850" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B850" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C850" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D850" s="3">
+        <v>6.24</v>
+      </c>
+      <c r="E850" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F850" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A851" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B851" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C851" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D851" s="3">
+        <v>7.24</v>
+      </c>
+      <c r="E851" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F851" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A852" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B852" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C852" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D852" s="3">
+        <v>6.95</v>
+      </c>
+      <c r="E852" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F852" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A853" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B853" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C853" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D853" s="3">
+        <v>3.09</v>
+      </c>
+      <c r="E853" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F853" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A854" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B854" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C854" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D854" s="3">
+        <v>6.47</v>
+      </c>
+      <c r="E854" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F854" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A855" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B855" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C855" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D855" s="3">
+        <v>3.26</v>
+      </c>
+      <c r="E855" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F855" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A856" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B856" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C856" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D856" s="3">
+        <v>6.12</v>
+      </c>
+      <c r="E856" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F856" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A857" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B857" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C857" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D857" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="E857" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F857" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A858" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B858" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C858" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D858" s="3">
+        <v>6.02</v>
+      </c>
+      <c r="E858" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F858" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A859" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B859" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C859" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D859" s="3">
+        <v>3.25</v>
+      </c>
+      <c r="E859" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F859" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A860" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B860" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C860" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D860" s="3">
+        <v>7.1</v>
+      </c>
+      <c r="E860" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F860" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A861" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B861" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C861" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D861" s="3">
+        <v>12.9</v>
+      </c>
+      <c r="E861" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F861" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A862" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B862" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C862" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D862" s="3">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="E862" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F862" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A863" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B863" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C863" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D863" s="3">
+        <v>7.93</v>
+      </c>
+      <c r="E863" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F863" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A864" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B864" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C864" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D864" s="3">
+        <v>6.47</v>
+      </c>
+      <c r="E864" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F864" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A865" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B865" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C865" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D865" s="3">
+        <v>3.71</v>
+      </c>
+      <c r="E865" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F865" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A866" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B866" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C866" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D866" s="3">
+        <v>9.9499999999999993</v>
+      </c>
+      <c r="E866" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F866" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A867" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B867" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C867" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D867" s="3">
+        <v>11.12</v>
+      </c>
+      <c r="E867" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F867" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A868" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B868" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C868" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D868" s="3">
+        <v>5.56</v>
+      </c>
+      <c r="E868" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F868" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A869" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B869" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C869" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D869" s="3">
+        <v>18.32</v>
+      </c>
+      <c r="E869" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F869" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A870" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B870" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C870" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D870" s="3">
+        <v>6.68</v>
+      </c>
+      <c r="E870" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F870" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A871" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B871" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C871" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D871" s="3">
+        <v>9.25</v>
+      </c>
+      <c r="E871" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F871" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A872" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B872" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C872" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D872" s="3">
+        <v>8.35</v>
+      </c>
+      <c r="E872" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F872" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A873" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B873" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C873" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D873" s="3">
+        <v>6.37</v>
+      </c>
+      <c r="E873" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F873" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A874" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B874" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C874" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D874" s="3">
+        <v>15.6</v>
+      </c>
+      <c r="E874" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F874" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A875" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B875" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C875" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D875" s="3">
+        <v>8.93</v>
+      </c>
+      <c r="E875" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F875" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A876" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B876" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C876" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D876" s="3">
+        <v>6.13</v>
+      </c>
+      <c r="E876" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F876" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A877" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B877" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C877" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D877" s="3">
+        <v>6.04</v>
+      </c>
+      <c r="E877" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F877" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A878" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B878" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C878" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D878" s="3">
+        <v>4.83</v>
+      </c>
+      <c r="E878" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F878" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A879" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B879" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C879" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D879" s="3">
+        <v>9.52</v>
+      </c>
+      <c r="E879" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F879" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A880" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B880" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C880" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D880" s="3">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="E880" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F880" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A881" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B881" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C881" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D881" s="3">
+        <v>7.41</v>
+      </c>
+      <c r="E881" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F881" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A882" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B882" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C882" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D882" s="3">
+        <v>6.87</v>
+      </c>
+      <c r="E882" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F882" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A883" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B883" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C883" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D883" s="3">
+        <v>5.55</v>
+      </c>
+      <c r="E883" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F883" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A884" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B884" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C884" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D884" s="3">
+        <v>13.57</v>
+      </c>
+      <c r="E884" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F884" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A885" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B885" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C885" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D885" s="3">
+        <v>6.05</v>
+      </c>
+      <c r="E885" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F885" s="1">
+        <v>44959</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A886" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B886" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C886" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D886" s="3">
+        <v>15.47</v>
+      </c>
+      <c r="E886" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F886" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="887" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A887" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B887" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C887" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D887" s="3">
+        <v>4.97</v>
+      </c>
+      <c r="E887" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F887" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="888" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A888" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B888" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C888" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D888" s="3">
+        <v>5.76</v>
+      </c>
+      <c r="E888" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F888" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="889" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A889" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B889" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C889" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D889" s="3">
+        <v>4.18</v>
+      </c>
+      <c r="E889" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F889" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="890" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A890" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B890" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C890" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D890" s="3">
+        <v>3.58</v>
+      </c>
+      <c r="E890" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F890" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="891" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A891" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B891" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C891" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D891" s="3">
+        <v>16.48</v>
+      </c>
+      <c r="E891" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F891" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="892" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A892" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B892" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C892" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D892" s="3">
+        <v>15.06</v>
+      </c>
+      <c r="E892" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F892" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="893" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A893" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B893" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C893" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D893" s="3">
+        <v>7.68</v>
+      </c>
+      <c r="E893" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F893" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="894" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A894" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B894" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C894" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D894" s="3">
+        <v>7.99</v>
+      </c>
+      <c r="E894" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F894" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="895" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A895" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B895" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C895" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D895" s="3">
+        <v>3.06</v>
+      </c>
+      <c r="E895" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F895" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="896" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A896" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B896" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C896" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D896" s="3">
+        <v>11.53</v>
+      </c>
+      <c r="E896" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F896" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="897" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A897" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B897" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C897" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D897" s="3">
+        <v>8.23</v>
+      </c>
+      <c r="E897" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F897" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="898" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A898" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B898" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C898" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D898" s="3">
+        <v>11.88</v>
+      </c>
+      <c r="E898" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F898" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="899" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A899" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B899" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C899" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D899" s="3">
+        <v>7.09</v>
+      </c>
+      <c r="E899" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F899" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="900" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A900" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B900" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C900" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D900" s="3">
+        <v>6.41</v>
+      </c>
+      <c r="E900" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F900" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="901" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A901" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B901" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C901" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D901" s="3">
+        <v>16.25</v>
+      </c>
+      <c r="E901" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F901" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="902" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A902" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B902" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C902" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D902" s="3">
+        <v>3.08</v>
+      </c>
+      <c r="E902" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F902" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="903" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A903" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B903" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C903" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D903" s="3">
+        <v>7.87</v>
+      </c>
+      <c r="E903" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F903" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="904" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A904" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B904" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C904" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D904" s="3">
+        <v>9.09</v>
+      </c>
+      <c r="E904" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F904" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="905" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A905" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B905" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C905" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D905" s="3">
+        <v>8.68</v>
+      </c>
+      <c r="E905" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F905" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="906" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A906" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B906" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C906" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D906" s="3">
+        <v>17.25</v>
+      </c>
+      <c r="E906" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F906" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="907" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A907" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B907" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C907" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D907" s="3">
+        <v>3.35</v>
+      </c>
+      <c r="E907" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F907" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="908" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A908" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B908" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C908" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D908" s="3">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E908" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F908" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="909" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A909" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B909" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C909" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D909" s="3">
+        <v>11.87</v>
+      </c>
+      <c r="E909" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F909" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="910" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A910" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B910" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C910" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D910" s="3">
+        <v>3.82</v>
+      </c>
+      <c r="E910" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F910" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="911" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A911" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B911" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C911" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D911" s="3">
+        <v>4.07</v>
+      </c>
+      <c r="E911" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F911" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="912" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A912" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B912" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C912" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D912" s="3">
+        <v>3.09</v>
+      </c>
+      <c r="E912" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F912" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="913" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A913" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B913" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C913" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D913" s="3">
+        <v>4.79</v>
+      </c>
+      <c r="E913" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F913" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="914" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A914" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B914" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C914" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D914" s="3">
+        <v>2.79</v>
+      </c>
+      <c r="E914" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F914" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="915" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A915" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B915" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C915" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D915" s="3">
+        <v>6.92</v>
+      </c>
+      <c r="E915" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F915" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="916" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A916" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B916" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C916" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D916" s="3">
+        <v>7.05</v>
+      </c>
+      <c r="E916" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F916" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="917" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A917" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B917" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C917" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D917" s="3">
+        <v>4.51</v>
+      </c>
+      <c r="E917" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F917" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="918" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A918" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B918" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C918" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D918" s="3">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="E918" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F918" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="919" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A919" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B919" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C919" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D919" s="3">
+        <v>4.58</v>
+      </c>
+      <c r="E919" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F919" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="920" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A920" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B920" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C920" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D920" s="3">
+        <v>3.86</v>
+      </c>
+      <c r="E920" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F920" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="921" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A921" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B921" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C921" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D921" s="3">
+        <v>2.71</v>
+      </c>
+      <c r="E921" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F921" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="922" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A922" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B922" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C922" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D922" s="3">
+        <v>7.79</v>
+      </c>
+      <c r="E922" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F922" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="923" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A923" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B923" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C923" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D923" s="3">
+        <v>4.78</v>
+      </c>
+      <c r="E923" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F923" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="924" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A924" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B924" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C924" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D924" s="3">
+        <v>4.66</v>
+      </c>
+      <c r="E924" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F924" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="925" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A925" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B925" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C925" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D925" s="3">
+        <v>5.92</v>
+      </c>
+      <c r="E925" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F925" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="926" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A926" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B926" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C926" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D926" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="E926" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F926" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="927" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A927" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B927" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C927" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D927" s="3">
+        <v>4.01</v>
+      </c>
+      <c r="E927" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F927" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="928" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A928" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B928" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C928" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D928" s="3">
+        <v>6.28</v>
+      </c>
+      <c r="E928" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F928" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="929" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A929" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B929" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C929" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D929" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="E929" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F929" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="930" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A930" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B930" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C930" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D930" s="3">
+        <v>4.59</v>
+      </c>
+      <c r="E930" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F930" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="931" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A931" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B931" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C931" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D931" s="3">
+        <v>7.34</v>
+      </c>
+      <c r="E931" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F931" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="932" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A932" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B932" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C932" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D932" s="3">
+        <v>5.89</v>
+      </c>
+      <c r="E932" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F932" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="933" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A933" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B933" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C933" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D933" s="3">
+        <v>6.01</v>
+      </c>
+      <c r="E933" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F933" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="934" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A934" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B934" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C934" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D934" s="3">
+        <v>4.01</v>
+      </c>
+      <c r="E934" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F934" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="935" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A935" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B935" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C935" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D935" s="3">
+        <v>11.33</v>
+      </c>
+      <c r="E935" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F935" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="936" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A936" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B936" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C936" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D936" s="3">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="E936" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F936" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="937" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A937" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B937" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C937" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D937" s="3">
+        <v>5.64</v>
+      </c>
+      <c r="E937" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F937" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="938" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A938" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B938" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C938" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D938" s="3">
+        <v>10.16</v>
+      </c>
+      <c r="E938" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F938" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="939" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A939" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B939" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C939" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D939" s="3">
+        <v>2.41</v>
+      </c>
+      <c r="E939" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F939" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="940" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A940" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B940" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C940" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D940" s="3">
+        <v>7.39</v>
+      </c>
+      <c r="E940" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F940" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="941" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A941" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B941" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C941" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D941" s="3">
+        <v>5.31</v>
+      </c>
+      <c r="E941" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F941" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="942" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A942" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B942" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C942" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D942" s="3">
+        <v>2.21</v>
+      </c>
+      <c r="E942" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F942" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="943" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A943" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B943" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C943" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D943" s="3">
+        <v>2.21</v>
+      </c>
+      <c r="E943" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F943" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="944" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A944" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B944" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C944" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D944" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="E944" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F944" s="1">
+        <v>44965</v>
+      </c>
+    </row>
+    <row r="945" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A945" t="s">
+        <v>0</v>
+      </c>
+      <c r="B945" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C945" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D945">
+        <v>12.82</v>
+      </c>
+      <c r="E945" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F945" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="946" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A946" t="s">
+        <v>0</v>
+      </c>
+      <c r="B946" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C946" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D946">
+        <v>12.82</v>
+      </c>
+      <c r="E946" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F946" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="947" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A947" t="s">
+        <v>0</v>
+      </c>
+      <c r="B947" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C947" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D947" s="2">
+        <v>3.09</v>
+      </c>
+      <c r="E947" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F947" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="948" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A948" t="s">
+        <v>0</v>
+      </c>
+      <c r="B948" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C948" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D948" s="2">
+        <v>4.24</v>
+      </c>
+      <c r="E948" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F948" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="949" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A949" t="s">
+        <v>0</v>
+      </c>
+      <c r="B949" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C949" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D949" s="3">
+        <v>9.09</v>
+      </c>
+      <c r="E949" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F949" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="950" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A950" t="s">
+        <v>0</v>
+      </c>
+      <c r="B950" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C950" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D950" s="2">
+        <v>14.71</v>
+      </c>
+      <c r="E950" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F950" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="951" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A951" t="s">
+        <v>0</v>
+      </c>
+      <c r="B951" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C951" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D951" s="2">
+        <v>7.46</v>
+      </c>
+      <c r="E951" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F951" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="952" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A952" t="s">
+        <v>0</v>
+      </c>
+      <c r="B952" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C952" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D952">
+        <v>7.25</v>
+      </c>
+      <c r="E952" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F952" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="953" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A953" t="s">
+        <v>0</v>
+      </c>
+      <c r="B953" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C953" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D953">
+        <v>8.76</v>
+      </c>
+      <c r="E953" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F953" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="954" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A954" t="s">
+        <v>0</v>
+      </c>
+      <c r="B954" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C954" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D954">
+        <v>6.25</v>
+      </c>
+      <c r="E954" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F954" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="955" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A955" t="s">
+        <v>0</v>
+      </c>
+      <c r="B955" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C955" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D955">
+        <v>9.15</v>
+      </c>
+      <c r="E955" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F955" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="956" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A956" t="s">
+        <v>0</v>
+      </c>
+      <c r="B956" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C956" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D956">
+        <v>14.08</v>
+      </c>
+      <c r="E956" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F956" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="957" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A957" t="s">
+        <v>0</v>
+      </c>
+      <c r="B957" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C957" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D957">
+        <v>11.96</v>
+      </c>
+      <c r="E957" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F957" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A958" t="s">
+        <v>0</v>
+      </c>
+      <c r="B958" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C958" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D958">
+        <v>7.59</v>
+      </c>
+      <c r="E958" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F958" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="959" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A959" t="s">
+        <v>0</v>
+      </c>
+      <c r="B959" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C959" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D959">
+        <v>8.73</v>
+      </c>
+      <c r="E959" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F959" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="960" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A960" t="s">
+        <v>0</v>
+      </c>
+      <c r="B960" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C960" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D960">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E960" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F960" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A961" t="s">
+        <v>0</v>
+      </c>
+      <c r="B961" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C961" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D961">
+        <v>5.79</v>
+      </c>
+      <c r="E961" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F961" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A962" t="s">
+        <v>0</v>
+      </c>
+      <c r="B962" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C962" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D962">
+        <v>15.47</v>
+      </c>
+      <c r="E962" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F962" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A963" t="s">
+        <v>0</v>
+      </c>
+      <c r="B963" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C963" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D963">
+        <v>4.97</v>
+      </c>
+      <c r="E963" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F963" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A964" t="s">
+        <v>0</v>
+      </c>
+      <c r="B964" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C964" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D964">
+        <v>5.76</v>
+      </c>
+      <c r="E964" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F964" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="965" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A965" t="s">
+        <v>3</v>
+      </c>
+      <c r="B965" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C965" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D965" s="3">
+        <v>4.45</v>
+      </c>
+      <c r="E965" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F965" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A966" t="s">
+        <v>3</v>
+      </c>
+      <c r="B966" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C966" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D966" s="3">
+        <v>4.01</v>
+      </c>
+      <c r="E966" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F966" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="967" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A967" t="s">
+        <v>3</v>
+      </c>
+      <c r="B967" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C967" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D967" s="3">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="E967" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F967" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="968" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A968" t="s">
+        <v>3</v>
+      </c>
+      <c r="B968" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C968" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D968" s="3">
+        <v>3.3</v>
+      </c>
+      <c r="E968" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F968" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="969" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A969" t="s">
+        <v>3</v>
+      </c>
+      <c r="B969" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C969" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D969" s="3">
+        <v>4.59</v>
+      </c>
+      <c r="E969" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F969" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="970" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A970" t="s">
+        <v>3</v>
+      </c>
+      <c r="B970" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C970" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D970" s="3">
+        <v>4.21</v>
+      </c>
+      <c r="E970" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F970" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A971" t="s">
+        <v>3</v>
+      </c>
+      <c r="B971" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C971" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D971">
+        <v>2.36</v>
+      </c>
+      <c r="E971" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F971" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="972" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A972" t="s">
+        <v>3</v>
+      </c>
+      <c r="B972" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C972" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D972">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="E972" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F972" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="973" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A973" t="s">
+        <v>3</v>
+      </c>
+      <c r="B973" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C973" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D973">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="E973" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F973" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="974" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A974" t="s">
+        <v>3</v>
+      </c>
+      <c r="B974" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C974" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D974">
+        <v>3.46</v>
+      </c>
+      <c r="E974" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F974" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="975" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A975" t="s">
+        <v>3</v>
+      </c>
+      <c r="B975" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C975" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D975">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="E975" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F975" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="976" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A976" t="s">
+        <v>3</v>
+      </c>
+      <c r="B976" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C976" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D976">
+        <v>1.69</v>
+      </c>
+      <c r="E976" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F976" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="977" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A977" t="s">
+        <v>3</v>
+      </c>
+      <c r="B977" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C977" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D977">
+        <v>6.35</v>
+      </c>
+      <c r="E977" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F977" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="978" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A978" t="s">
+        <v>3</v>
+      </c>
+      <c r="B978" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C978" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D978">
+        <v>3.87</v>
+      </c>
+      <c r="E978" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F978" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="979" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A979" t="s">
+        <v>3</v>
+      </c>
+      <c r="B979" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C979" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D979">
+        <v>5.22</v>
+      </c>
+      <c r="E979" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F979" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A980" t="s">
+        <v>3</v>
+      </c>
+      <c r="B980" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C980" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D980">
+        <v>3.95</v>
+      </c>
+      <c r="E980" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F980" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="981" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A981" t="s">
+        <v>3</v>
+      </c>
+      <c r="B981" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C981" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D981">
+        <v>4.97</v>
+      </c>
+      <c r="E981" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F981" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="982" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A982" t="s">
+        <v>3</v>
+      </c>
+      <c r="B982" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C982" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D982">
+        <v>5.42</v>
+      </c>
+      <c r="E982" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F982" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="983" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A983" t="s">
+        <v>3</v>
+      </c>
+      <c r="B983" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C983" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D983">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="E983" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F983" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="984" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A984" t="s">
+        <v>3</v>
+      </c>
+      <c r="B984" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C984" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D984">
+        <v>10.68</v>
+      </c>
+      <c r="E984" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F984" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="985" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A985" t="s">
+        <v>3</v>
+      </c>
+      <c r="B985" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C985" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D985">
+        <v>7.01</v>
+      </c>
+      <c r="E985" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F985" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="986" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A986" t="s">
+        <v>3</v>
+      </c>
+      <c r="B986" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C986" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D986">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="E986" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F986" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="987" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A987" t="s">
+        <v>18</v>
+      </c>
+      <c r="B987" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C987" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D987">
+        <v>2.96</v>
+      </c>
+      <c r="E987" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F987" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="988" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A988" t="s">
+        <v>18</v>
+      </c>
+      <c r="B988" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C988" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D988">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="E988" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F988" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="989" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A989" t="s">
+        <v>18</v>
+      </c>
+      <c r="B989" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C989" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D989">
+        <v>3.88</v>
+      </c>
+      <c r="E989" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F989" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="990" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A990" t="s">
+        <v>18</v>
+      </c>
+      <c r="B990" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C990" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D990">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E990" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F990" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="991" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A991" t="s">
+        <v>18</v>
+      </c>
+      <c r="B991" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C991" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D991">
+        <v>3.57</v>
+      </c>
+      <c r="E991" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F991" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="992" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A992" t="s">
+        <v>18</v>
+      </c>
+      <c r="B992" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C992" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D992">
+        <v>4.09</v>
+      </c>
+      <c r="E992" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F992" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="993" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A993" t="s">
+        <v>18</v>
+      </c>
+      <c r="B993" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C993" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D993">
+        <v>3.19</v>
+      </c>
+      <c r="E993" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F993" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="994" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A994" t="s">
+        <v>18</v>
+      </c>
+      <c r="B994" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C994" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D994">
+        <v>8.75</v>
+      </c>
+      <c r="E994" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F994" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="995" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A995" t="s">
+        <v>18</v>
+      </c>
+      <c r="B995" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C995" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D995">
+        <v>3.31</v>
+      </c>
+      <c r="E995" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F995" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="996" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A996" t="s">
+        <v>18</v>
+      </c>
+      <c r="B996" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C996" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D996">
+        <v>6.31</v>
+      </c>
+      <c r="E996" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F996" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="997" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A997" t="s">
+        <v>18</v>
+      </c>
+      <c r="B997" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C997" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D997">
+        <v>2.4</v>
+      </c>
+      <c r="E997" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F997" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="998" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A998" t="s">
+        <v>18</v>
+      </c>
+      <c r="B998" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C998" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D998">
+        <v>4.62</v>
+      </c>
+      <c r="E998" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F998" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="999" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A999" t="s">
+        <v>18</v>
+      </c>
+      <c r="B999" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C999" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D999">
+        <v>4.37</v>
+      </c>
+      <c r="E999" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F999" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1000" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1000" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1000" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1000">
+        <v>2.65</v>
+      </c>
+      <c r="E1000" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1000" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1001" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1001" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1001" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1001">
+        <v>2.38</v>
+      </c>
+      <c r="E1001" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1001" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1002" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1002" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1002" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1002">
+        <v>2.75</v>
+      </c>
+      <c r="E1002" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1002" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1003" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1003" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1003" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1003">
+        <v>3.19</v>
+      </c>
+      <c r="E1003" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1003" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1004" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1004" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1004" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1004">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="E1004" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1004" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1005" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1005" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1005" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1005">
+        <v>3.12</v>
+      </c>
+      <c r="E1005" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1005" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1006" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1006" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1006" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1006">
+        <v>2.73</v>
+      </c>
+      <c r="E1006" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1006" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1007" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1007" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1007" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1007">
+        <v>5.23</v>
+      </c>
+      <c r="E1007" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1007" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1008" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1008" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1008" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1008">
+        <v>4.51</v>
+      </c>
+      <c r="E1008" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1008" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1009" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1009" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1009" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1009">
+        <v>6.04</v>
+      </c>
+      <c r="E1009" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1009" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1010" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1010" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1010" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1010">
+        <v>3.39</v>
+      </c>
+      <c r="E1010" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1010" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1011" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1011" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1011" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1011">
+        <v>3.52</v>
+      </c>
+      <c r="E1011" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1011" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1012" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1012" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1012" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1012">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="E1012" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1012" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1013" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1013" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1013" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1013">
+        <v>6.59</v>
+      </c>
+      <c r="E1013" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1013" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1014" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1014" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1014" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1014">
+        <v>7.99</v>
+      </c>
+      <c r="E1014" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1014" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1015" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1015" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1015" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1015">
+        <v>5.72</v>
+      </c>
+      <c r="E1015" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1015" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1016" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1016" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1016" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1016">
+        <v>2.74</v>
+      </c>
+      <c r="E1016" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1016" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1017" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1017" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1017" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1017">
+        <v>6.36</v>
+      </c>
+      <c r="E1017" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1017" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1018" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1018" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1018" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1018">
+        <v>2.96</v>
+      </c>
+      <c r="E1018" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1018" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1019" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1019" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1019" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1019">
+        <v>4.55</v>
+      </c>
+      <c r="E1019" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1019" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1020" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1020" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1020" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1020">
+        <v>3.08</v>
+      </c>
+      <c r="E1020" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1020" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1021" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1021" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1021" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1021">
+        <v>3.96</v>
+      </c>
+      <c r="E1021" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1021" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1022" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1022" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1022" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1022">
+        <v>4.03</v>
+      </c>
+      <c r="E1022" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1022" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1023" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1023" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1023" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1023">
+        <v>3.14</v>
+      </c>
+      <c r="E1023" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1023" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1024" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1024" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1024" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1024">
+        <v>4.63</v>
+      </c>
+      <c r="E1024" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1024" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1025" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1025" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1025" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1025">
+        <v>2.73</v>
+      </c>
+      <c r="E1025" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1025" s="1">
+        <v>45054</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1026" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1026" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1026" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1026">
+        <v>4.57</v>
+      </c>
+      <c r="E1026" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1026" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1027" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1027" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1027" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1027">
+        <v>3.98</v>
+      </c>
+      <c r="E1027" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1027" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1028" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1028" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1028" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1028">
+        <v>7.56</v>
+      </c>
+      <c r="E1028" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1028" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1029" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1029" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1029" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1029">
+        <v>9.9600000000000009</v>
+      </c>
+      <c r="E1029" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1029" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1030" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1030" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1030" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1030">
+        <v>5.72</v>
+      </c>
+      <c r="E1030" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1030" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1031" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1031" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1031" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1031">
+        <v>14.72</v>
+      </c>
+      <c r="E1031" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1031" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1032" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1032" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1032" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1032">
+        <v>3.55</v>
+      </c>
+      <c r="E1032" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1032" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1033" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1033" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1033" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1033">
+        <v>8.9499999999999993</v>
+      </c>
+      <c r="E1033" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1033" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1034" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1034" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1034" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1034">
+        <v>11.35</v>
+      </c>
+      <c r="E1034" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1034" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1035" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1035" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1035" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1035">
+        <v>17.41</v>
+      </c>
+      <c r="E1035" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1035" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1036" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1036" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1036" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1036">
+        <v>7.52</v>
+      </c>
+      <c r="E1036" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1036" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1037" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1037" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1037" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1037">
+        <v>6.39</v>
+      </c>
+      <c r="E1037" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1037" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1038" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1038" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1038" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1038">
+        <v>5.97</v>
+      </c>
+      <c r="E1038" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1038" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1039" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1039" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1039" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1039">
+        <v>10.87</v>
+      </c>
+      <c r="E1039" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1039" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1040" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1040" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1040" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1040">
+        <v>5.03</v>
+      </c>
+      <c r="E1040" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1040" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1041" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1041" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1041" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1041">
+        <v>9.41</v>
+      </c>
+      <c r="E1041" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1041" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1042" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1042" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1042" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1042">
+        <v>12.26</v>
+      </c>
+      <c r="E1042" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1042" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1043" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1043" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1043" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1043">
+        <v>18.54</v>
+      </c>
+      <c r="E1043" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1043" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1044" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1044" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1044" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1044">
+        <v>8.23</v>
+      </c>
+      <c r="E1044" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1044" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1045" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1045" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1045" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1045">
+        <v>5.39</v>
+      </c>
+      <c r="E1045" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1045" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1046" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1046" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1046" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1046">
+        <v>2.63</v>
+      </c>
+      <c r="E1046" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1046" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1047" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1047" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1047" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1047">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="E1047" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1047" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1048" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1048" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1048" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1048">
+        <v>6.34</v>
+      </c>
+      <c r="E1048" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1048" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1049" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1049" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1049" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1049">
+        <v>6.1</v>
+      </c>
+      <c r="E1049" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1049" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1050" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1050" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1050" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1050">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="E1050" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1050" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1051" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1051" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1051" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1051">
+        <v>8.64</v>
+      </c>
+      <c r="E1051" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1051" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1052" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1052" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1052" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1052">
+        <v>3.24</v>
+      </c>
+      <c r="E1052" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1052" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1053" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1053" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1053" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1053">
+        <v>4.6900000000000004</v>
+      </c>
+      <c r="E1053" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1053" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1054" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1054" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1054" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1054">
+        <v>6.49</v>
+      </c>
+      <c r="E1054" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1054" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1055" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1055" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1055" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1055">
+        <v>1.95</v>
+      </c>
+      <c r="E1055" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1055" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1056" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1056" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1056" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1056">
+        <v>3.32</v>
+      </c>
+      <c r="E1056" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1056" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1057" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1057" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1057" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1057">
+        <v>5.23</v>
+      </c>
+      <c r="E1057" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1057" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1058" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1058" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1058" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1058">
+        <v>8.65</v>
+      </c>
+      <c r="E1058" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1058" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1059" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1059" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1059" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1059">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="E1059" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1059" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1060" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1060" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1060" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1060">
+        <v>2.11</v>
+      </c>
+      <c r="E1060" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1060" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1061" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1061" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1061" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1061">
+        <v>3.45</v>
+      </c>
+      <c r="E1061" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1061" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1062" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1062" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1062" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1062">
+        <v>5.28</v>
+      </c>
+      <c r="E1062" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1062" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1063" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1063" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1063" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1063">
+        <v>8.26</v>
+      </c>
+      <c r="E1063" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1063" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1064" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1064" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1064" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1064">
+        <v>2.91</v>
+      </c>
+      <c r="E1064" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1064" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1065" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1065" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1065" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1065">
+        <v>7.34</v>
+      </c>
+      <c r="E1065" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1065" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1066" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1066" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1066" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1066">
+        <v>2.67</v>
+      </c>
+      <c r="E1066" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1066" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1067" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1067" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1067" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1067">
+        <v>3.12</v>
+      </c>
+      <c r="E1067" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1067" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1068" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1068" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1068" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1068">
+        <v>1.78</v>
+      </c>
+      <c r="E1068" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1068" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1069" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1069" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1069" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1069">
+        <v>4.53</v>
+      </c>
+      <c r="E1069" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1069" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1070" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1070" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1070" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1070">
+        <v>3.53</v>
+      </c>
+      <c r="E1070" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1070" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1071" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1071" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1071" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1071">
+        <v>7.55</v>
+      </c>
+      <c r="E1071" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1071" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1072" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1072" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1072" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1072">
+        <v>5.28</v>
+      </c>
+      <c r="E1072" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1072" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1073" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1073" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1073" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1073">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E1073" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1073" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1074" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1074" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1074" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1074">
+        <v>4.34</v>
+      </c>
+      <c r="E1074" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1074" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1075" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1075" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1075" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1075">
+        <v>3.44</v>
+      </c>
+      <c r="E1075" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1075" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1076" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1076" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1076" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1076">
+        <v>5.47</v>
+      </c>
+      <c r="E1076" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1076" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1077" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1077" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1077" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1077">
+        <v>3.94</v>
+      </c>
+      <c r="E1077" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1077" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1078" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1078" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1078" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1078">
+        <v>8.64</v>
+      </c>
+      <c r="E1078" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1078" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1079" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1079" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1079" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1079">
+        <v>6.13</v>
+      </c>
+      <c r="E1079" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1079" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1080" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1080" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1080" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1080">
+        <v>2.11</v>
+      </c>
+      <c r="E1080" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1080" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1081" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1081" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1081" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1081">
+        <v>3.87</v>
+      </c>
+      <c r="E1081" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1081" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1082" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1082" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1082" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1082">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="E1082" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1082" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1083" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1083" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1083" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1083">
+        <v>3.85</v>
+      </c>
+      <c r="E1083" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1083" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1084" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1084" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1084" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1084">
+        <v>6.93</v>
+      </c>
+      <c r="E1084" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1084" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1085" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1085" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1085" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1085">
+        <v>3.61</v>
+      </c>
+      <c r="E1085" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1085" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1086" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1086" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1086" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1086">
+        <v>5.95</v>
+      </c>
+      <c r="E1086" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1086" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1087" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1087" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1087" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1087">
+        <v>3.09</v>
+      </c>
+      <c r="E1087" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1087" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1088" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1088" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1088" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1088">
+        <v>2.67</v>
+      </c>
+      <c r="E1088" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1088" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1089" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1089" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1089" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1089">
+        <v>6.34</v>
+      </c>
+      <c r="E1089" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1089" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1090" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1090" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1090" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1090">
+        <v>3.12</v>
+      </c>
+      <c r="E1090" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1090" s="1">
+        <v>45055</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1091" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1091" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1091">
+        <v>6.23</v>
+      </c>
+      <c r="E1091" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1091" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1092" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1092" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1092">
+        <v>4.13</v>
+      </c>
+      <c r="E1092" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1092" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1093" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1093" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1093">
+        <v>7.45</v>
+      </c>
+      <c r="E1093" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1093" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1094" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1094" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1094">
+        <v>6.44</v>
+      </c>
+      <c r="E1094" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1094" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1095" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1095" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1095">
+        <v>7.24</v>
+      </c>
+      <c r="E1095" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1095" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1096" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1096" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1096">
+        <v>9.74</v>
+      </c>
+      <c r="E1096" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1096" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1097" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1097" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1097">
+        <v>17.420000000000002</v>
+      </c>
+      <c r="E1097" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1097" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1098" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1098" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1098">
+        <v>11.54</v>
+      </c>
+      <c r="E1098" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1098" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1099" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1099" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1099">
+        <v>7.2</v>
+      </c>
+      <c r="E1099" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1099" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1100">
+        <v>9.23</v>
+      </c>
+      <c r="E1100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1100" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1101">
+        <v>8.32</v>
+      </c>
+      <c r="E1101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1101" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1102">
+        <v>5.29</v>
+      </c>
+      <c r="E1102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1102" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1103">
+        <v>12.62</v>
+      </c>
+      <c r="E1103" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1103" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1104">
+        <v>15.68</v>
+      </c>
+      <c r="E1104" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1104" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1105">
+        <v>10.67</v>
+      </c>
+      <c r="E1105" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1105" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1106">
+        <v>4.34</v>
+      </c>
+      <c r="E1106" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1106" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1107" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1107">
+        <v>6.98</v>
+      </c>
+      <c r="E1107" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1107" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1108" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1108">
+        <v>1.43</v>
+      </c>
+      <c r="E1108" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1108" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1109" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1109">
+        <v>7.35</v>
+      </c>
+      <c r="E1109" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1109" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1110" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1110">
+        <v>3.54</v>
+      </c>
+      <c r="E1110" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1110" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1111" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1111">
+        <v>2.65</v>
+      </c>
+      <c r="E1111" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1111" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1112" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1112">
+        <v>7.32</v>
+      </c>
+      <c r="E1112" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1112" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1113" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1113">
+        <v>1.45</v>
+      </c>
+      <c r="E1113" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1113" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1114" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1114">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E1114" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1114" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1115" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1115">
+        <v>1.27</v>
+      </c>
+      <c r="E1115" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1115" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1116" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1116" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1116">
+        <v>4.92</v>
+      </c>
+      <c r="E1116" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1116" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1117" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1117">
+        <v>6.79</v>
+      </c>
+      <c r="E1117" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1117" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1118" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1118">
+        <v>5.92</v>
+      </c>
+      <c r="E1118" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1118" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1119" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1119">
+        <v>2.44</v>
+      </c>
+      <c r="E1119" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1119" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1120" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1120" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1120">
+        <v>2.95</v>
+      </c>
+      <c r="E1120" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1120" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1121" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1121">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="E1121" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1121" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1122" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1122" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1122">
+        <v>5.54</v>
+      </c>
+      <c r="E1122" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1122" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1123" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1123">
+        <v>8.31</v>
+      </c>
+      <c r="E1123" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1123" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1124" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1124">
+        <v>5.86</v>
+      </c>
+      <c r="E1124" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1124" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1125" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1125">
+        <v>3.78</v>
+      </c>
+      <c r="E1125" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1125" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1126" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1126">
+        <v>3.65</v>
+      </c>
+      <c r="E1126" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1126" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1127" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1127" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1127">
+        <v>2.46</v>
+      </c>
+      <c r="E1127" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1127" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1128" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1128" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1128">
+        <v>2.35</v>
+      </c>
+      <c r="E1128" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1128" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1129" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1129" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1129">
+        <v>1.73</v>
+      </c>
+      <c r="E1129" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1129" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1130" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1130" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1130">
+        <v>3.79</v>
+      </c>
+      <c r="E1130" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1130" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1131" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1131" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1131">
+        <v>2.31</v>
+      </c>
+      <c r="E1131" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1131" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1132" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1132">
+        <v>7.91</v>
+      </c>
+      <c r="E1132" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1132" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1133" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1133">
+        <v>3.98</v>
+      </c>
+      <c r="E1133" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1133" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1134" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1134" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1134">
+        <v>2.93</v>
+      </c>
+      <c r="E1134" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1134" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1135" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1135">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E1135" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1135" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1136" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1136" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1136">
+        <v>1.47</v>
+      </c>
+      <c r="E1136" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1136" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1137" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1137" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1137">
+        <v>4.12</v>
+      </c>
+      <c r="E1137" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1137" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1138" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1138" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1138">
+        <v>1.67</v>
+      </c>
+      <c r="E1138" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1138" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1139" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1139" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1139">
+        <v>8.32</v>
+      </c>
+      <c r="E1139" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1139" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1140" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1140" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1140">
+        <v>6.74</v>
+      </c>
+      <c r="E1140" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1140" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1141" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1141">
+        <v>5.18</v>
+      </c>
+      <c r="E1141" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1141" s="1">
+        <v>45056</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1142" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1142" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1142">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="E1142" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1142" s="1">
+        <v>45056</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data/octanol_30pct_avoidance_ALLDATA.xlsx
+++ b/data/octanol_30pct_avoidance_ALLDATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiabrown/Documents/git/cest-2.1-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B371B1D3-27B5-A34D-A65D-312DB9D4DC91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F30512-0D12-B741-9627-7E668134AB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4519" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4859" uniqueCount="20">
   <si>
     <t>N2</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>glo-1</t>
+  </si>
+  <si>
+    <t>ugt-64</t>
   </si>
 </sst>
 </file>
@@ -954,11 +957,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1142"/>
+  <dimension ref="A1:I1214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A937" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F950" sqref="F950"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1180" sqref="H1180:I1214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22778,6 +22781,9 @@
       <c r="B1091" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C1091" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1091">
         <v>6.23</v>
       </c>
@@ -22795,6 +22801,9 @@
       <c r="B1092" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C1092" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1092">
         <v>4.13</v>
       </c>
@@ -22812,6 +22821,9 @@
       <c r="B1093" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C1093" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1093">
         <v>7.45</v>
       </c>
@@ -22829,6 +22841,9 @@
       <c r="B1094" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C1094" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1094">
         <v>6.44</v>
       </c>
@@ -22846,6 +22861,9 @@
       <c r="B1095" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C1095" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1095">
         <v>7.24</v>
       </c>
@@ -22863,6 +22881,9 @@
       <c r="B1096" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C1096" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1096">
         <v>9.74</v>
       </c>
@@ -22880,6 +22901,9 @@
       <c r="B1097" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C1097" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1097">
         <v>17.420000000000002</v>
       </c>
@@ -22897,6 +22921,9 @@
       <c r="B1098" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C1098" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1098">
         <v>11.54</v>
       </c>
@@ -22914,6 +22941,9 @@
       <c r="B1099" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C1099" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1099">
         <v>7.2</v>
       </c>
@@ -22931,6 +22961,9 @@
       <c r="B1100" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C1100" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1100">
         <v>9.23</v>
       </c>
@@ -22948,6 +22981,9 @@
       <c r="B1101" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C1101" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1101">
         <v>8.32</v>
       </c>
@@ -22965,6 +23001,9 @@
       <c r="B1102" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C1102" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1102">
         <v>5.29</v>
       </c>
@@ -22982,6 +23021,9 @@
       <c r="B1103" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C1103" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1103">
         <v>12.62</v>
       </c>
@@ -22999,6 +23041,9 @@
       <c r="B1104" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C1104" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1104">
         <v>15.68</v>
       </c>
@@ -23016,6 +23061,9 @@
       <c r="B1105" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C1105" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1105">
         <v>10.67</v>
       </c>
@@ -23033,6 +23081,9 @@
       <c r="B1106" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="C1106" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1106">
         <v>4.34</v>
       </c>
@@ -23049,6 +23100,9 @@
       </c>
       <c r="B1107" s="3" t="s">
         <v>7</v>
+      </c>
+      <c r="C1107" s="3" t="s">
+        <v>1</v>
       </c>
       <c r="D1107">
         <v>6.98</v>
@@ -23067,6 +23121,9 @@
       <c r="B1108" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1108" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1108">
         <v>1.43</v>
       </c>
@@ -23084,6 +23141,9 @@
       <c r="B1109" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1109" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1109">
         <v>7.35</v>
       </c>
@@ -23101,6 +23161,9 @@
       <c r="B1110" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1110" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1110">
         <v>3.54</v>
       </c>
@@ -23118,6 +23181,9 @@
       <c r="B1111" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1111" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1111">
         <v>2.65</v>
       </c>
@@ -23135,6 +23201,9 @@
       <c r="B1112" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1112" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1112">
         <v>7.32</v>
       </c>
@@ -23152,6 +23221,9 @@
       <c r="B1113" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1113" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1113">
         <v>1.45</v>
       </c>
@@ -23169,6 +23241,9 @@
       <c r="B1114" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1114" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1114">
         <v>4.5999999999999996</v>
       </c>
@@ -23186,6 +23261,9 @@
       <c r="B1115" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1115" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1115">
         <v>1.27</v>
       </c>
@@ -23203,6 +23281,9 @@
       <c r="B1116" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1116" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1116">
         <v>4.92</v>
       </c>
@@ -23220,6 +23301,9 @@
       <c r="B1117" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1117" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1117">
         <v>6.79</v>
       </c>
@@ -23237,6 +23321,9 @@
       <c r="B1118" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1118" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1118">
         <v>5.92</v>
       </c>
@@ -23254,6 +23341,9 @@
       <c r="B1119" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1119" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1119">
         <v>2.44</v>
       </c>
@@ -23271,6 +23361,9 @@
       <c r="B1120" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1120" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1120">
         <v>2.95</v>
       </c>
@@ -23288,6 +23381,9 @@
       <c r="B1121" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1121" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1121">
         <v>4.0199999999999996</v>
       </c>
@@ -23305,6 +23401,9 @@
       <c r="B1122" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1122" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1122">
         <v>5.54</v>
       </c>
@@ -23322,6 +23421,9 @@
       <c r="B1123" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1123" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1123">
         <v>8.31</v>
       </c>
@@ -23339,6 +23441,9 @@
       <c r="B1124" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1124" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1124">
         <v>5.86</v>
       </c>
@@ -23356,6 +23461,9 @@
       <c r="B1125" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1125" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1125">
         <v>3.78</v>
       </c>
@@ -23373,6 +23481,9 @@
       <c r="B1126" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1126" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1126">
         <v>3.65</v>
       </c>
@@ -23390,6 +23501,9 @@
       <c r="B1127" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1127" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1127">
         <v>2.46</v>
       </c>
@@ -23407,6 +23521,9 @@
       <c r="B1128" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1128" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1128">
         <v>2.35</v>
       </c>
@@ -23424,6 +23541,9 @@
       <c r="B1129" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1129" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1129">
         <v>1.73</v>
       </c>
@@ -23441,6 +23561,9 @@
       <c r="B1130" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1130" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1130">
         <v>3.79</v>
       </c>
@@ -23458,6 +23581,9 @@
       <c r="B1131" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1131" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1131">
         <v>2.31</v>
       </c>
@@ -23475,6 +23601,9 @@
       <c r="B1132" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1132" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1132">
         <v>7.91</v>
       </c>
@@ -23492,6 +23621,9 @@
       <c r="B1133" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1133" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1133">
         <v>3.98</v>
       </c>
@@ -23509,6 +23641,9 @@
       <c r="B1134" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1134" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1134">
         <v>2.93</v>
       </c>
@@ -23526,6 +23661,9 @@
       <c r="B1135" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1135" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1135">
         <v>4.0999999999999996</v>
       </c>
@@ -23543,6 +23681,9 @@
       <c r="B1136" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1136" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1136">
         <v>1.47</v>
       </c>
@@ -23560,6 +23701,9 @@
       <c r="B1137" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1137" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1137">
         <v>4.12</v>
       </c>
@@ -23577,6 +23721,9 @@
       <c r="B1138" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1138" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1138">
         <v>1.67</v>
       </c>
@@ -23594,6 +23741,9 @@
       <c r="B1139" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1139" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1139">
         <v>8.32</v>
       </c>
@@ -23611,6 +23761,9 @@
       <c r="B1140" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1140" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1140">
         <v>6.74</v>
       </c>
@@ -23628,6 +23781,9 @@
       <c r="B1141" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1141" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1141">
         <v>5.18</v>
       </c>
@@ -23645,6 +23801,9 @@
       <c r="B1142" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C1142" s="3" t="s">
+        <v>1</v>
+      </c>
       <c r="D1142">
         <v>4.2300000000000004</v>
       </c>
@@ -23653,6 +23812,1446 @@
       </c>
       <c r="F1142" s="1">
         <v>45056</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1143" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1143" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1143" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1143">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="E1143" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1143" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1144" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1144" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1144" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1144">
+        <v>2.25</v>
+      </c>
+      <c r="E1144" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1144" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1145" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1145" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1145" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1145">
+        <v>3.2</v>
+      </c>
+      <c r="E1145" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1145" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1146" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1146" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1146">
+        <v>2.66</v>
+      </c>
+      <c r="E1146" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1146" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1147" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1147" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1147" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1147">
+        <v>1.98</v>
+      </c>
+      <c r="E1147" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1147" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1148" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1148" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1148" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1148">
+        <v>1.93</v>
+      </c>
+      <c r="E1148" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1148" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1149" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1149" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1149" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1149">
+        <v>3.84</v>
+      </c>
+      <c r="E1149" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1149" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1150" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1150" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1150">
+        <v>2.66</v>
+      </c>
+      <c r="E1150" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1150" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1151" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1151" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1151" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1151">
+        <v>3.82</v>
+      </c>
+      <c r="E1151" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1151" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1152" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1152" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1152" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1152">
+        <v>3.1</v>
+      </c>
+      <c r="E1152" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1152" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1153" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1153" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1153" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1153">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="E1153" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1153" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1154" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1154" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1154" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1154">
+        <v>3.21</v>
+      </c>
+      <c r="E1154" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1154" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1155" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1155" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1155" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1155">
+        <v>2.41</v>
+      </c>
+      <c r="E1155" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1155" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1156" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1156" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1156" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1156">
+        <v>6.76</v>
+      </c>
+      <c r="E1156" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1156" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1157" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1157" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1157" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1157">
+        <v>3.98</v>
+      </c>
+      <c r="E1157" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1157" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1158" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1158" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1158" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1158">
+        <v>4.41</v>
+      </c>
+      <c r="E1158" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1158" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1159" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1159" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1159" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1159">
+        <v>4.76</v>
+      </c>
+      <c r="E1159" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1159" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1160" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1160" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1160" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1160">
+        <v>1.98</v>
+      </c>
+      <c r="E1160" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1160" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1161" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1161" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1161" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1161">
+        <v>3.88</v>
+      </c>
+      <c r="E1161" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1161" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1162" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1162" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1162" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1162">
+        <v>5.7</v>
+      </c>
+      <c r="E1162" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1162" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1163" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1163" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1163">
+        <v>3.27</v>
+      </c>
+      <c r="E1163" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1163" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1164" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1164" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1164">
+        <v>4.72</v>
+      </c>
+      <c r="E1164" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1164" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1165" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1165" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1165">
+        <v>6.15</v>
+      </c>
+      <c r="E1165" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1165" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1166" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1166" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1166">
+        <v>14.39</v>
+      </c>
+      <c r="E1166" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1166" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1167" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1167" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1167">
+        <v>11.08</v>
+      </c>
+      <c r="E1167" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1167" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1168" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1168" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1168">
+        <v>7.85</v>
+      </c>
+      <c r="E1168" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1168" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1169" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1169" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1169">
+        <v>6.04</v>
+      </c>
+      <c r="E1169" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1169" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1170" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1170" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1170">
+        <v>8.15</v>
+      </c>
+      <c r="E1170" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1170" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1171" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1171" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1171">
+        <v>10.35</v>
+      </c>
+      <c r="E1171" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1171" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1172" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1172" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1172" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1172">
+        <v>5.31</v>
+      </c>
+      <c r="E1172" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1172" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1173" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1173" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1173">
+        <v>5.38</v>
+      </c>
+      <c r="E1173" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1173" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1174" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1174" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1174">
+        <v>9.25</v>
+      </c>
+      <c r="E1174" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1174" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1175" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1175" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1175">
+        <v>16.2</v>
+      </c>
+      <c r="E1175" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1175" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1176" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1176" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1176">
+        <v>6.41</v>
+      </c>
+      <c r="E1176" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1176" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1177" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1177" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1177">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="E1177" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1177" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1178" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1178" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1178" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1178">
+        <v>5.73</v>
+      </c>
+      <c r="E1178" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1178" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1179" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1179" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1179">
+        <v>7.19</v>
+      </c>
+      <c r="E1179" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1179" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1180" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1180" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1180" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1180">
+        <v>4.17</v>
+      </c>
+      <c r="E1180" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1180" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1181" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1181" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1181" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1181">
+        <v>5.86</v>
+      </c>
+      <c r="E1181" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1181" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1182" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1182" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1182" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1182">
+        <v>3.19</v>
+      </c>
+      <c r="E1182" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1182" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1183" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1183" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1183" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1183">
+        <v>4.17</v>
+      </c>
+      <c r="E1183" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1183" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1184" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1184" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1184" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1184">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="E1184" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1184" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1185" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1185" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1185" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1185">
+        <v>3.98</v>
+      </c>
+      <c r="E1185" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1185" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1186" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1186" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1186" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1186">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="E1186" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1186" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1187" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1187" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1187" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1187">
+        <v>2.85</v>
+      </c>
+      <c r="E1187" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1187" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1188" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1188" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1188" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1188">
+        <v>5.22</v>
+      </c>
+      <c r="E1188" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1188" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1189" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1189" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1189" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1189">
+        <v>4.59</v>
+      </c>
+      <c r="E1189" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1189" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1190" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1190" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1190" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1190">
+        <v>6.2</v>
+      </c>
+      <c r="E1190" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1190" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1191" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1191" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1191" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1191">
+        <v>3.1</v>
+      </c>
+      <c r="E1191" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1191" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1192" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1192" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1192" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1192">
+        <v>5.97</v>
+      </c>
+      <c r="E1192" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1192" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1193" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1193" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1193" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1193">
+        <v>3.78</v>
+      </c>
+      <c r="E1193" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1193" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1194" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1194" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1194" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1194">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E1194" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1194" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1195" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1195" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1195" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1195">
+        <v>4.5</v>
+      </c>
+      <c r="E1195" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1195" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1196" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1196" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1196" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1196">
+        <v>5.09</v>
+      </c>
+      <c r="E1196" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1196" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1197" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1197" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1197" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1197">
+        <v>2.93</v>
+      </c>
+      <c r="E1197" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1197" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1198" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1198" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1198" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1198">
+        <v>3.84</v>
+      </c>
+      <c r="E1198" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1198" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1199" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1199" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1199" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1199">
+        <v>9.85</v>
+      </c>
+      <c r="E1199" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1199" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1200" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1200" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1200" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1200">
+        <v>4.46</v>
+      </c>
+      <c r="E1200" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1200" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1201" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1201" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1201" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1201">
+        <v>6.51</v>
+      </c>
+      <c r="E1201" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1201" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1202" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1202" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1202" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1202">
+        <v>3.94</v>
+      </c>
+      <c r="E1202" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1202" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1203" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1203" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1203" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1203">
+        <v>10.93</v>
+      </c>
+      <c r="E1203" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1203" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1204" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1204" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1204" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1204">
+        <v>5.37</v>
+      </c>
+      <c r="E1204" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1204" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1205" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1205" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1205" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1205">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="E1205" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1205" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1206" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1206" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1206" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1206">
+        <v>6.31</v>
+      </c>
+      <c r="E1206" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1206" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1207" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1207" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1207" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1207">
+        <v>6.44</v>
+      </c>
+      <c r="E1207" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1207" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1208" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1208" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1208" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1208">
+        <v>3.42</v>
+      </c>
+      <c r="E1208" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1208" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1209" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1209" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1209" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1209">
+        <v>1.95</v>
+      </c>
+      <c r="E1209" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1209" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1210" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1210" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1210" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1210">
+        <v>3.14</v>
+      </c>
+      <c r="E1210" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1210" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1211" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1211" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1211" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1211">
+        <v>5.47</v>
+      </c>
+      <c r="E1211" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1211" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1212" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1212" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1212" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1212">
+        <v>10.97</v>
+      </c>
+      <c r="E1212" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1212" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1213" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1213" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1213" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1213">
+        <v>12.42</v>
+      </c>
+      <c r="E1213" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1213" s="1">
+        <v>45070</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1214" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1214" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1214" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1214">
+        <v>3.18</v>
+      </c>
+      <c r="E1214" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1214" s="1">
+        <v>45070</v>
       </c>
     </row>
   </sheetData>

--- a/data/octanol_30pct_avoidance_ALLDATA.xlsx
+++ b/data/octanol_30pct_avoidance_ALLDATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiabrown/Documents/git/cest-2.1-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36010017-A8CA-F14A-8E5D-170C5F0BE2C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C00C6EC1-EB04-0D4E-958C-2F79E24760C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="27860" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/octanol_30pct_avoidance_ALLDATA.xlsx
+++ b/data/octanol_30pct_avoidance_ALLDATA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiabrown/Documents/git/cest-2.1-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883DD1E9-023F-B34D-BB5A-18469A11D67C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449C4FD5-8DB4-0045-8DF1-CFE72754A81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="500" windowWidth="27820" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="octanol_30pct_avoidance_210805" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7330" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7338" uniqueCount="24">
   <si>
     <t>N2</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>tbh-1</t>
-  </si>
-  <si>
-    <t>transgenics line 6</t>
   </si>
   <si>
     <t>Genotype</t>
@@ -97,7 +94,16 @@
     <t>sqv-7</t>
   </si>
   <si>
-    <t>OA</t>
+    <t>octr-1</t>
+  </si>
+  <si>
+    <t>ser-6</t>
+  </si>
+  <si>
+    <t>ser-3</t>
+  </si>
+  <si>
+    <t>MOY0006</t>
   </si>
 </sst>
 </file>
@@ -660,9 +666,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -700,7 +706,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -806,7 +812,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -948,7 +954,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -956,11 +962,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1832"/>
+  <dimension ref="A1:I1834"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1751" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:G1048576"/>
+      <pane ySplit="1" topLeftCell="A674" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A683" sqref="A683:A700"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -974,22 +980,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>13</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -14615,7 +14621,7 @@
     </row>
     <row r="683" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B683" t="s">
         <v>6</v>
@@ -14635,7 +14641,7 @@
     </row>
     <row r="684" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B684" t="s">
         <v>6</v>
@@ -14655,7 +14661,7 @@
     </row>
     <row r="685" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B685" t="s">
         <v>6</v>
@@ -14675,7 +14681,7 @@
     </row>
     <row r="686" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B686" t="s">
         <v>6</v>
@@ -14695,7 +14701,7 @@
     </row>
     <row r="687" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B687" t="s">
         <v>6</v>
@@ -14715,7 +14721,7 @@
     </row>
     <row r="688" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B688" t="s">
         <v>6</v>
@@ -14735,7 +14741,7 @@
     </row>
     <row r="689" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B689" t="s">
         <v>6</v>
@@ -14755,7 +14761,7 @@
     </row>
     <row r="690" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B690" t="s">
         <v>6</v>
@@ -14775,7 +14781,7 @@
     </row>
     <row r="691" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B691" t="s">
         <v>6</v>
@@ -14795,7 +14801,7 @@
     </row>
     <row r="692" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B692" t="s">
         <v>6</v>
@@ -14815,7 +14821,7 @@
     </row>
     <row r="693" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B693" t="s">
         <v>6</v>
@@ -14835,7 +14841,7 @@
     </row>
     <row r="694" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B694" t="s">
         <v>6</v>
@@ -14855,7 +14861,7 @@
     </row>
     <row r="695" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B695" t="s">
         <v>6</v>
@@ -14875,7 +14881,7 @@
     </row>
     <row r="696" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B696" t="s">
         <v>6</v>
@@ -14895,7 +14901,7 @@
     </row>
     <row r="697" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B697" t="s">
         <v>6</v>
@@ -14915,7 +14921,7 @@
     </row>
     <row r="698" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B698" t="s">
         <v>6</v>
@@ -14935,7 +14941,7 @@
     </row>
     <row r="699" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B699" t="s">
         <v>6</v>
@@ -14955,7 +14961,7 @@
     </row>
     <row r="700" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B700" t="s">
         <v>6</v>
@@ -20675,7 +20681,7 @@
     </row>
     <row r="986" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B986" t="s">
         <v>6</v>
@@ -20695,7 +20701,7 @@
     </row>
     <row r="987" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B987" t="s">
         <v>6</v>
@@ -20715,7 +20721,7 @@
     </row>
     <row r="988" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B988" t="s">
         <v>6</v>
@@ -20735,7 +20741,7 @@
     </row>
     <row r="989" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B989" t="s">
         <v>6</v>
@@ -20755,7 +20761,7 @@
     </row>
     <row r="990" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B990" t="s">
         <v>6</v>
@@ -20775,7 +20781,7 @@
     </row>
     <row r="991" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B991" t="s">
         <v>6</v>
@@ -20795,7 +20801,7 @@
     </row>
     <row r="992" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B992" t="s">
         <v>6</v>
@@ -20815,7 +20821,7 @@
     </row>
     <row r="993" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B993" t="s">
         <v>6</v>
@@ -20835,7 +20841,7 @@
     </row>
     <row r="994" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B994" t="s">
         <v>6</v>
@@ -20855,7 +20861,7 @@
     </row>
     <row r="995" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B995" t="s">
         <v>6</v>
@@ -20875,7 +20881,7 @@
     </row>
     <row r="996" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B996" t="s">
         <v>6</v>
@@ -20895,7 +20901,7 @@
     </row>
     <row r="997" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B997" t="s">
         <v>6</v>
@@ -20915,7 +20921,7 @@
     </row>
     <row r="998" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B998" t="s">
         <v>6</v>
@@ -20935,7 +20941,7 @@
     </row>
     <row r="999" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A999" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B999" t="s">
         <v>6</v>
@@ -20955,7 +20961,7 @@
     </row>
     <row r="1000" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1000" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1000" t="s">
         <v>6</v>
@@ -20975,7 +20981,7 @@
     </row>
     <row r="1001" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1001" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1001" t="s">
         <v>6</v>
@@ -20995,7 +21001,7 @@
     </row>
     <row r="1002" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1002" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1002" t="s">
         <v>6</v>
@@ -21015,7 +21021,7 @@
     </row>
     <row r="1003" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1003" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1003" t="s">
         <v>6</v>
@@ -21835,7 +21841,7 @@
     </row>
     <row r="1044" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1044" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1044" t="s">
         <v>6</v>
@@ -21855,7 +21861,7 @@
     </row>
     <row r="1045" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1045" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1045" t="s">
         <v>6</v>
@@ -21875,7 +21881,7 @@
     </row>
     <row r="1046" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1046" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1046" t="s">
         <v>6</v>
@@ -21895,7 +21901,7 @@
     </row>
     <row r="1047" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1047" t="s">
         <v>6</v>
@@ -21915,7 +21921,7 @@
     </row>
     <row r="1048" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1048" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1048" t="s">
         <v>6</v>
@@ -21935,7 +21941,7 @@
     </row>
     <row r="1049" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1049" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1049" t="s">
         <v>6</v>
@@ -21955,7 +21961,7 @@
     </row>
     <row r="1050" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1050" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1050" t="s">
         <v>6</v>
@@ -21975,7 +21981,7 @@
     </row>
     <row r="1051" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1051" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1051" t="s">
         <v>6</v>
@@ -21995,7 +22001,7 @@
     </row>
     <row r="1052" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1052" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1052" t="s">
         <v>6</v>
@@ -22015,7 +22021,7 @@
     </row>
     <row r="1053" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1053" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1053" t="s">
         <v>6</v>
@@ -22035,7 +22041,7 @@
     </row>
     <row r="1054" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1054" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1054" t="s">
         <v>6</v>
@@ -22055,7 +22061,7 @@
     </row>
     <row r="1055" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1055" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1055" t="s">
         <v>6</v>
@@ -22075,7 +22081,7 @@
     </row>
     <row r="1056" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1056" t="s">
         <v>6</v>
@@ -22095,7 +22101,7 @@
     </row>
     <row r="1057" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1057" t="s">
         <v>6</v>
@@ -22115,7 +22121,7 @@
     </row>
     <row r="1058" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1058" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1058" t="s">
         <v>6</v>
@@ -22135,7 +22141,7 @@
     </row>
     <row r="1059" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1059" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1059" t="s">
         <v>6</v>
@@ -22155,7 +22161,7 @@
     </row>
     <row r="1060" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1060" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1060" t="s">
         <v>6</v>
@@ -22175,7 +22181,7 @@
     </row>
     <row r="1061" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1061" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1061" t="s">
         <v>6</v>
@@ -22195,7 +22201,7 @@
     </row>
     <row r="1062" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1062" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1062" t="s">
         <v>6</v>
@@ -22215,7 +22221,7 @@
     </row>
     <row r="1063" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1063" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1063" t="s">
         <v>6</v>
@@ -22235,7 +22241,7 @@
     </row>
     <row r="1064" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1064" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1064" t="s">
         <v>6</v>
@@ -22255,7 +22261,7 @@
     </row>
     <row r="1065" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1065" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1065" t="s">
         <v>6</v>
@@ -24535,7 +24541,7 @@
     </row>
     <row r="1179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1179" s="1" t="s">
         <v>6</v>
@@ -24555,7 +24561,7 @@
     </row>
     <row r="1180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1180" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1180" s="1" t="s">
         <v>6</v>
@@ -24575,7 +24581,7 @@
     </row>
     <row r="1181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1181" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1181" s="1" t="s">
         <v>6</v>
@@ -24595,7 +24601,7 @@
     </row>
     <row r="1182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1182" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1182" s="1" t="s">
         <v>6</v>
@@ -24615,7 +24621,7 @@
     </row>
     <row r="1183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1183" s="1" t="s">
         <v>6</v>
@@ -24635,7 +24641,7 @@
     </row>
     <row r="1184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1184" s="1" t="s">
         <v>6</v>
@@ -24655,7 +24661,7 @@
     </row>
     <row r="1185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1185" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1185" s="1" t="s">
         <v>6</v>
@@ -24675,7 +24681,7 @@
     </row>
     <row r="1186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1186" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1186" s="1" t="s">
         <v>6</v>
@@ -24695,7 +24701,7 @@
     </row>
     <row r="1187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1187" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1187" s="1" t="s">
         <v>6</v>
@@ -24715,7 +24721,7 @@
     </row>
     <row r="1188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1188" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1188" s="1" t="s">
         <v>6</v>
@@ -24735,7 +24741,7 @@
     </row>
     <row r="1189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1189" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1189" s="1" t="s">
         <v>6</v>
@@ -24755,7 +24761,7 @@
     </row>
     <row r="1190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1190" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1190" s="1" t="s">
         <v>6</v>
@@ -24775,7 +24781,7 @@
     </row>
     <row r="1191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1191" s="1" t="s">
         <v>6</v>
@@ -24795,7 +24801,7 @@
     </row>
     <row r="1192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1192" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1192" s="1" t="s">
         <v>6</v>
@@ -24815,7 +24821,7 @@
     </row>
     <row r="1193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1193" s="1" t="s">
         <v>6</v>
@@ -24835,7 +24841,7 @@
     </row>
     <row r="1194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1194" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1194" s="1" t="s">
         <v>6</v>
@@ -24855,7 +24861,7 @@
     </row>
     <row r="1195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1195" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1195" s="1" t="s">
         <v>6</v>
@@ -24875,7 +24881,7 @@
     </row>
     <row r="1196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1196" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1196" s="1" t="s">
         <v>6</v>
@@ -24895,7 +24901,7 @@
     </row>
     <row r="1197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1197" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1197" s="1" t="s">
         <v>6</v>
@@ -24915,7 +24921,7 @@
     </row>
     <row r="1198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1198" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1198" s="1" t="s">
         <v>6</v>
@@ -24935,7 +24941,7 @@
     </row>
     <row r="1199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1199" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1199" s="1" t="s">
         <v>6</v>
@@ -24955,7 +24961,7 @@
     </row>
     <row r="1200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1200" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1200" s="1" t="s">
         <v>6</v>
@@ -24975,7 +24981,7 @@
     </row>
     <row r="1201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1201" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1201" s="1" t="s">
         <v>6</v>
@@ -24995,7 +25001,7 @@
     </row>
     <row r="1202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1202" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1202" s="1" t="s">
         <v>6</v>
@@ -25015,7 +25021,7 @@
     </row>
     <row r="1203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1203" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1203" s="1" t="s">
         <v>6</v>
@@ -25035,7 +25041,7 @@
     </row>
     <row r="1204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1204" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1204" s="1" t="s">
         <v>6</v>
@@ -25055,7 +25061,7 @@
     </row>
     <row r="1205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1205" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1205" s="1" t="s">
         <v>6</v>
@@ -25075,7 +25081,7 @@
     </row>
     <row r="1206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1206" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1206" s="1" t="s">
         <v>6</v>
@@ -25095,7 +25101,7 @@
     </row>
     <row r="1207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1207" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1207" s="1" t="s">
         <v>6</v>
@@ -25115,7 +25121,7 @@
     </row>
     <row r="1208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1208" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1208" s="1" t="s">
         <v>6</v>
@@ -25135,7 +25141,7 @@
     </row>
     <row r="1209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1209" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1209" s="1" t="s">
         <v>6</v>
@@ -25155,7 +25161,7 @@
     </row>
     <row r="1210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1210" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1210" s="1" t="s">
         <v>6</v>
@@ -25175,7 +25181,7 @@
     </row>
     <row r="1211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1211" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1211" s="1" t="s">
         <v>6</v>
@@ -25195,7 +25201,7 @@
     </row>
     <row r="1212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1212" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1212" s="1" t="s">
         <v>6</v>
@@ -25215,7 +25221,7 @@
     </row>
     <row r="1213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1213" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1213" s="1" t="s">
         <v>6</v>
@@ -26095,7 +26101,7 @@
     </row>
     <row r="1257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1257" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1257" t="s">
         <v>6</v>
@@ -26115,7 +26121,7 @@
     </row>
     <row r="1258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1258" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1258" t="s">
         <v>6</v>
@@ -26135,7 +26141,7 @@
     </row>
     <row r="1259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1259" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1259" t="s">
         <v>6</v>
@@ -26155,7 +26161,7 @@
     </row>
     <row r="1260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1260" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1260" t="s">
         <v>6</v>
@@ -26175,7 +26181,7 @@
     </row>
     <row r="1261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1261" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1261" t="s">
         <v>6</v>
@@ -26195,7 +26201,7 @@
     </row>
     <row r="1262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1262" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1262" t="s">
         <v>6</v>
@@ -26215,7 +26221,7 @@
     </row>
     <row r="1263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1263" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1263" t="s">
         <v>6</v>
@@ -26235,7 +26241,7 @@
     </row>
     <row r="1264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1264" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1264" t="s">
         <v>6</v>
@@ -26255,7 +26261,7 @@
     </row>
     <row r="1265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1265" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1265" t="s">
         <v>6</v>
@@ -26275,7 +26281,7 @@
     </row>
     <row r="1266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1266" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1266" t="s">
         <v>6</v>
@@ -26295,7 +26301,7 @@
     </row>
     <row r="1267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1267" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1267" t="s">
         <v>6</v>
@@ -26315,7 +26321,7 @@
     </row>
     <row r="1268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1268" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1268" t="s">
         <v>6</v>
@@ -26335,7 +26341,7 @@
     </row>
     <row r="1269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1269" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1269" t="s">
         <v>6</v>
@@ -26355,7 +26361,7 @@
     </row>
     <row r="1270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1270" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1270" t="s">
         <v>6</v>
@@ -26375,7 +26381,7 @@
     </row>
     <row r="1271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1271" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1271" t="s">
         <v>6</v>
@@ -26395,7 +26401,7 @@
     </row>
     <row r="1272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1272" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1272" t="s">
         <v>6</v>
@@ -26415,7 +26421,7 @@
     </row>
     <row r="1273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1273" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1273" t="s">
         <v>6</v>
@@ -26435,7 +26441,7 @@
     </row>
     <row r="1274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1274" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1274" t="s">
         <v>6</v>
@@ -26455,7 +26461,7 @@
     </row>
     <row r="1275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1275" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1275" t="s">
         <v>6</v>
@@ -26475,7 +26481,7 @@
     </row>
     <row r="1276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1276" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1276" t="s">
         <v>6</v>
@@ -26495,7 +26501,7 @@
     </row>
     <row r="1277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1277" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1277" t="s">
         <v>6</v>
@@ -26515,7 +26521,7 @@
     </row>
     <row r="1278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1278" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1278" t="s">
         <v>6</v>
@@ -28575,7 +28581,7 @@
     </row>
     <row r="1381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1381" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1381" t="s">
         <v>6</v>
@@ -28595,7 +28601,7 @@
     </row>
     <row r="1382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1382" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1382" t="s">
         <v>6</v>
@@ -28615,7 +28621,7 @@
     </row>
     <row r="1383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1383" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1383" t="s">
         <v>6</v>
@@ -28635,7 +28641,7 @@
     </row>
     <row r="1384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1384" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1384" t="s">
         <v>6</v>
@@ -28655,7 +28661,7 @@
     </row>
     <row r="1385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1385" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1385" t="s">
         <v>6</v>
@@ -28675,7 +28681,7 @@
     </row>
     <row r="1386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1386" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1386" t="s">
         <v>6</v>
@@ -28695,7 +28701,7 @@
     </row>
     <row r="1387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1387" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1387" t="s">
         <v>6</v>
@@ -28715,7 +28721,7 @@
     </row>
     <row r="1388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1388" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1388" t="s">
         <v>6</v>
@@ -28735,7 +28741,7 @@
     </row>
     <row r="1389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1389" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1389" t="s">
         <v>6</v>
@@ -28755,7 +28761,7 @@
     </row>
     <row r="1390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1390" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1390" t="s">
         <v>6</v>
@@ -28775,7 +28781,7 @@
     </row>
     <row r="1391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1391" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1391" t="s">
         <v>6</v>
@@ -28795,7 +28801,7 @@
     </row>
     <row r="1392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1392" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1392" t="s">
         <v>6</v>
@@ -28815,7 +28821,7 @@
     </row>
     <row r="1393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1393" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1393" t="s">
         <v>6</v>
@@ -28835,7 +28841,7 @@
     </row>
     <row r="1394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1394" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1394" t="s">
         <v>6</v>
@@ -28855,7 +28861,7 @@
     </row>
     <row r="1395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1395" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1395" t="s">
         <v>6</v>
@@ -28875,7 +28881,7 @@
     </row>
     <row r="1396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1396" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1396" t="s">
         <v>6</v>
@@ -28895,7 +28901,7 @@
     </row>
     <row r="1397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1397" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1397" t="s">
         <v>6</v>
@@ -28915,7 +28921,7 @@
     </row>
     <row r="1398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1398" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1398" t="s">
         <v>6</v>
@@ -28935,7 +28941,7 @@
     </row>
     <row r="1399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1399" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1399" t="s">
         <v>6</v>
@@ -28955,7 +28961,7 @@
     </row>
     <row r="1400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1400" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1400" t="s">
         <v>6</v>
@@ -28975,7 +28981,7 @@
     </row>
     <row r="1401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1401" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1401" t="s">
         <v>6</v>
@@ -28995,7 +29001,7 @@
     </row>
     <row r="1402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1402" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1402" t="s">
         <v>6</v>
@@ -29015,7 +29021,7 @@
     </row>
     <row r="1403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1403" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1403" t="s">
         <v>6</v>
@@ -29035,7 +29041,7 @@
     </row>
     <row r="1404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1404" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1404" t="s">
         <v>6</v>
@@ -29055,7 +29061,7 @@
     </row>
     <row r="1405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1405" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1405" t="s">
         <v>6</v>
@@ -29075,7 +29081,7 @@
     </row>
     <row r="1406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1406" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1406" t="s">
         <v>6</v>
@@ -29095,7 +29101,7 @@
     </row>
     <row r="1407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1407" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1407" t="s">
         <v>6</v>
@@ -29115,7 +29121,7 @@
     </row>
     <row r="1408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1408" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1408" t="s">
         <v>6</v>
@@ -29135,7 +29141,7 @@
     </row>
     <row r="1409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1409" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1409" t="s">
         <v>6</v>
@@ -29155,7 +29161,7 @@
     </row>
     <row r="1410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1410" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1410" t="s">
         <v>6</v>
@@ -29175,7 +29181,7 @@
     </row>
     <row r="1411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1411" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1411" t="s">
         <v>6</v>
@@ -30035,7 +30041,7 @@
     </row>
     <row r="1454" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1454" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1454" t="s">
         <v>6</v>
@@ -30055,7 +30061,7 @@
     </row>
     <row r="1455" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1455" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1455" t="s">
         <v>6</v>
@@ -30075,7 +30081,7 @@
     </row>
     <row r="1456" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1456" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1456" t="s">
         <v>6</v>
@@ -30095,7 +30101,7 @@
     </row>
     <row r="1457" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1457" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1457" t="s">
         <v>6</v>
@@ -30115,7 +30121,7 @@
     </row>
     <row r="1458" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1458" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1458" t="s">
         <v>6</v>
@@ -30135,7 +30141,7 @@
     </row>
     <row r="1459" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1459" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1459" t="s">
         <v>6</v>
@@ -30155,7 +30161,7 @@
     </row>
     <row r="1460" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1460" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1460" t="s">
         <v>6</v>
@@ -30175,7 +30181,7 @@
     </row>
     <row r="1461" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1461" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1461" t="s">
         <v>6</v>
@@ -30195,7 +30201,7 @@
     </row>
     <row r="1462" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1462" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1462" t="s">
         <v>6</v>
@@ -30215,7 +30221,7 @@
     </row>
     <row r="1463" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1463" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1463" t="s">
         <v>6</v>
@@ -30235,7 +30241,7 @@
     </row>
     <row r="1464" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1464" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1464" t="s">
         <v>6</v>
@@ -30255,7 +30261,7 @@
     </row>
     <row r="1465" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1465" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1465" t="s">
         <v>6</v>
@@ -30275,7 +30281,7 @@
     </row>
     <row r="1466" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1466" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1466" t="s">
         <v>6</v>
@@ -30295,7 +30301,7 @@
     </row>
     <row r="1467" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1467" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1467" t="s">
         <v>6</v>
@@ -30315,7 +30321,7 @@
     </row>
     <row r="1468" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1468" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1468" t="s">
         <v>6</v>
@@ -30335,7 +30341,7 @@
     </row>
     <row r="1469" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1469" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1469" t="s">
         <v>6</v>
@@ -30355,7 +30361,7 @@
     </row>
     <row r="1470" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1470" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1470" t="s">
         <v>6</v>
@@ -30375,7 +30381,7 @@
     </row>
     <row r="1471" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1471" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1471" t="s">
         <v>6</v>
@@ -30395,7 +30401,7 @@
     </row>
     <row r="1472" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1472" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1472" t="s">
         <v>6</v>
@@ -30415,7 +30421,7 @@
     </row>
     <row r="1473" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1473" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1473" t="s">
         <v>6</v>
@@ -31535,7 +31541,7 @@
     </row>
     <row r="1529" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1529" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1529" t="s">
         <v>6</v>
@@ -31555,7 +31561,7 @@
     </row>
     <row r="1530" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1530" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1530" t="s">
         <v>6</v>
@@ -31575,7 +31581,7 @@
     </row>
     <row r="1531" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1531" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1531" t="s">
         <v>6</v>
@@ -31595,7 +31601,7 @@
     </row>
     <row r="1532" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1532" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1532" t="s">
         <v>6</v>
@@ -31615,7 +31621,7 @@
     </row>
     <row r="1533" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1533" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1533" t="s">
         <v>6</v>
@@ -31635,7 +31641,7 @@
     </row>
     <row r="1534" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1534" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1534" t="s">
         <v>6</v>
@@ -31655,7 +31661,7 @@
     </row>
     <row r="1535" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1535" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1535" t="s">
         <v>6</v>
@@ -31675,7 +31681,7 @@
     </row>
     <row r="1536" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1536" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1536" t="s">
         <v>6</v>
@@ -31695,7 +31701,7 @@
     </row>
     <row r="1537" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1537" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1537" t="s">
         <v>6</v>
@@ -31715,7 +31721,7 @@
     </row>
     <row r="1538" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1538" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1538" t="s">
         <v>6</v>
@@ -31735,7 +31741,7 @@
     </row>
     <row r="1539" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1539" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1539" t="s">
         <v>6</v>
@@ -31755,7 +31761,7 @@
     </row>
     <row r="1540" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1540" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1540" t="s">
         <v>6</v>
@@ -31775,7 +31781,7 @@
     </row>
     <row r="1541" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1541" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1541" t="s">
         <v>6</v>
@@ -31795,7 +31801,7 @@
     </row>
     <row r="1542" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1542" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1542" t="s">
         <v>6</v>
@@ -31815,7 +31821,7 @@
     </row>
     <row r="1543" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1543" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1543" t="s">
         <v>6</v>
@@ -31835,7 +31841,7 @@
     </row>
     <row r="1544" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1544" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1544" t="s">
         <v>6</v>
@@ -31855,7 +31861,7 @@
     </row>
     <row r="1545" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1545" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1545" t="s">
         <v>6</v>
@@ -31875,7 +31881,7 @@
     </row>
     <row r="1546" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1546" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1546" t="s">
         <v>6</v>
@@ -32755,7 +32761,7 @@
     </row>
     <row r="1590" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1590" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1590" t="s">
         <v>6</v>
@@ -32775,7 +32781,7 @@
     </row>
     <row r="1591" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1591" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1591" t="s">
         <v>6</v>
@@ -32795,7 +32801,7 @@
     </row>
     <row r="1592" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1592" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1592" t="s">
         <v>6</v>
@@ -32815,7 +32821,7 @@
     </row>
     <row r="1593" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1593" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1593" t="s">
         <v>6</v>
@@ -32835,7 +32841,7 @@
     </row>
     <row r="1594" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1594" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1594" t="s">
         <v>6</v>
@@ -32855,7 +32861,7 @@
     </row>
     <row r="1595" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1595" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1595" t="s">
         <v>6</v>
@@ -32875,7 +32881,7 @@
     </row>
     <row r="1596" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1596" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1596" t="s">
         <v>6</v>
@@ -32895,7 +32901,7 @@
     </row>
     <row r="1597" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1597" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1597" t="s">
         <v>6</v>
@@ -32915,7 +32921,7 @@
     </row>
     <row r="1598" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1598" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1598" t="s">
         <v>6</v>
@@ -32935,7 +32941,7 @@
     </row>
     <row r="1599" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1599" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1599" t="s">
         <v>6</v>
@@ -32955,7 +32961,7 @@
     </row>
     <row r="1600" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1600" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1600" t="s">
         <v>6</v>
@@ -32975,7 +32981,7 @@
     </row>
     <row r="1601" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1601" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1601" t="s">
         <v>6</v>
@@ -32995,7 +33001,7 @@
     </row>
     <row r="1602" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1602" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1602" t="s">
         <v>6</v>
@@ -33015,7 +33021,7 @@
     </row>
     <row r="1603" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1603" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1603" t="s">
         <v>6</v>
@@ -33035,7 +33041,7 @@
     </row>
     <row r="1604" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1604" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1604" t="s">
         <v>6</v>
@@ -33055,7 +33061,7 @@
     </row>
     <row r="1605" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1605" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1605" t="s">
         <v>6</v>
@@ -33075,7 +33081,7 @@
     </row>
     <row r="1606" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1606" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1606" t="s">
         <v>6</v>
@@ -33095,7 +33101,7 @@
     </row>
     <row r="1607" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1607" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1607" t="s">
         <v>6</v>
@@ -33115,7 +33121,7 @@
     </row>
     <row r="1608" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1608" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1608" t="s">
         <v>6</v>
@@ -33135,7 +33141,7 @@
     </row>
     <row r="1609" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1609" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1609" t="s">
         <v>6</v>
@@ -33155,7 +33161,7 @@
     </row>
     <row r="1610" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1610" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1610" t="s">
         <v>6</v>
@@ -33175,7 +33181,7 @@
     </row>
     <row r="1611" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1611" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1611" t="s">
         <v>6</v>
@@ -33975,7 +33981,7 @@
     </row>
     <row r="1651" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1651" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1651" t="s">
         <v>6</v>
@@ -33995,7 +34001,7 @@
     </row>
     <row r="1652" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1652" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1652" t="s">
         <v>6</v>
@@ -34015,7 +34021,7 @@
     </row>
     <row r="1653" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1653" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1653" t="s">
         <v>6</v>
@@ -34035,7 +34041,7 @@
     </row>
     <row r="1654" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1654" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1654" t="s">
         <v>6</v>
@@ -34055,7 +34061,7 @@
     </row>
     <row r="1655" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1655" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1655" t="s">
         <v>6</v>
@@ -34075,7 +34081,7 @@
     </row>
     <row r="1656" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1656" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1656" t="s">
         <v>6</v>
@@ -34095,7 +34101,7 @@
     </row>
     <row r="1657" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1657" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1657" t="s">
         <v>6</v>
@@ -34115,7 +34121,7 @@
     </row>
     <row r="1658" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1658" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1658" t="s">
         <v>6</v>
@@ -34135,7 +34141,7 @@
     </row>
     <row r="1659" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1659" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1659" t="s">
         <v>6</v>
@@ -34155,7 +34161,7 @@
     </row>
     <row r="1660" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1660" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1660" t="s">
         <v>6</v>
@@ -34175,7 +34181,7 @@
     </row>
     <row r="1661" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1661" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1661" t="s">
         <v>6</v>
@@ -34195,7 +34201,7 @@
     </row>
     <row r="1662" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1662" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1662" t="s">
         <v>6</v>
@@ -34215,7 +34221,7 @@
     </row>
     <row r="1663" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1663" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1663" t="s">
         <v>6</v>
@@ -34235,7 +34241,7 @@
     </row>
     <row r="1664" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1664" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1664" t="s">
         <v>6</v>
@@ -34255,7 +34261,7 @@
     </row>
     <row r="1665" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1665" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1665" t="s">
         <v>6</v>
@@ -34275,7 +34281,7 @@
     </row>
     <row r="1666" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1666" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1666" t="s">
         <v>6</v>
@@ -34295,7 +34301,7 @@
     </row>
     <row r="1667" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1667" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1667" t="s">
         <v>6</v>
@@ -34315,7 +34321,7 @@
     </row>
     <row r="1668" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1668" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1668" t="s">
         <v>6</v>
@@ -34335,7 +34341,7 @@
     </row>
     <row r="1669" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1669" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1669" t="s">
         <v>6</v>
@@ -34355,7 +34361,7 @@
     </row>
     <row r="1670" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1670" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1670" t="s">
         <v>6</v>
@@ -34375,7 +34381,7 @@
     </row>
     <row r="1671" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1671" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1671" t="s">
         <v>6</v>
@@ -34395,7 +34401,7 @@
     </row>
     <row r="1672" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1672" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1672" t="s">
         <v>6</v>
@@ -35235,7 +35241,7 @@
     </row>
     <row r="1714" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1714" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1714" t="s">
         <v>6</v>
@@ -35255,7 +35261,7 @@
     </row>
     <row r="1715" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1715" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1715" t="s">
         <v>6</v>
@@ -35275,7 +35281,7 @@
     </row>
     <row r="1716" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1716" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1716" t="s">
         <v>6</v>
@@ -35295,7 +35301,7 @@
     </row>
     <row r="1717" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1717" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1717" t="s">
         <v>6</v>
@@ -35315,7 +35321,7 @@
     </row>
     <row r="1718" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1718" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1718" t="s">
         <v>6</v>
@@ -35335,7 +35341,7 @@
     </row>
     <row r="1719" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1719" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1719" t="s">
         <v>6</v>
@@ -35355,7 +35361,7 @@
     </row>
     <row r="1720" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1720" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1720" t="s">
         <v>6</v>
@@ -35375,7 +35381,7 @@
     </row>
     <row r="1721" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1721" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1721" t="s">
         <v>6</v>
@@ -35395,7 +35401,7 @@
     </row>
     <row r="1722" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1722" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1722" t="s">
         <v>6</v>
@@ -35415,7 +35421,7 @@
     </row>
     <row r="1723" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1723" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1723" t="s">
         <v>6</v>
@@ -35435,7 +35441,7 @@
     </row>
     <row r="1724" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1724" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1724" t="s">
         <v>6</v>
@@ -35455,7 +35461,7 @@
     </row>
     <row r="1725" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1725" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1725" t="s">
         <v>6</v>
@@ -35475,7 +35481,7 @@
     </row>
     <row r="1726" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1726" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1726" t="s">
         <v>6</v>
@@ -35495,7 +35501,7 @@
     </row>
     <row r="1727" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1727" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1727" t="s">
         <v>6</v>
@@ -35515,7 +35521,7 @@
     </row>
     <row r="1728" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1728" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1728" t="s">
         <v>6</v>
@@ -35535,7 +35541,7 @@
     </row>
     <row r="1729" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1729" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1729" t="s">
         <v>6</v>
@@ -35555,7 +35561,7 @@
     </row>
     <row r="1730" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1730" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1730" t="s">
         <v>6</v>
@@ -35575,7 +35581,7 @@
     </row>
     <row r="1731" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1731" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1731" t="s">
         <v>6</v>
@@ -35595,7 +35601,7 @@
     </row>
     <row r="1732" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1732" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1732" t="s">
         <v>6</v>
@@ -35618,19 +35624,19 @@
         <v>0</v>
       </c>
       <c r="B1733" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1733" t="s">
         <v>1</v>
       </c>
       <c r="D1733">
-        <v>6.93</v>
+        <v>2.04</v>
       </c>
       <c r="E1733" t="s">
         <v>4</v>
       </c>
       <c r="F1733" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1734" spans="1:6" x14ac:dyDescent="0.2">
@@ -35638,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="B1734" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1734" t="s">
         <v>1</v>
       </c>
       <c r="D1734">
-        <v>12.53</v>
+        <v>9.33</v>
       </c>
       <c r="E1734" t="s">
         <v>4</v>
       </c>
       <c r="F1734" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1735" spans="1:6" x14ac:dyDescent="0.2">
@@ -35658,19 +35664,19 @@
         <v>0</v>
       </c>
       <c r="B1735" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1735" t="s">
         <v>1</v>
       </c>
       <c r="D1735">
-        <v>15.96</v>
+        <v>4.32</v>
       </c>
       <c r="E1735" t="s">
         <v>4</v>
       </c>
       <c r="F1735" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1736" spans="1:6" x14ac:dyDescent="0.2">
@@ -35678,19 +35684,19 @@
         <v>0</v>
       </c>
       <c r="B1736" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1736" t="s">
         <v>1</v>
       </c>
       <c r="D1736">
-        <v>16.48</v>
+        <v>4.93</v>
       </c>
       <c r="E1736" t="s">
         <v>4</v>
       </c>
       <c r="F1736" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1737" spans="1:6" x14ac:dyDescent="0.2">
@@ -35698,19 +35704,16 @@
         <v>0</v>
       </c>
       <c r="B1737" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1737" t="s">
         <v>1</v>
       </c>
-      <c r="D1737">
-        <v>11.61</v>
-      </c>
       <c r="E1737" t="s">
         <v>4</v>
       </c>
       <c r="F1737" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1738" spans="1:6" x14ac:dyDescent="0.2">
@@ -35718,19 +35721,19 @@
         <v>0</v>
       </c>
       <c r="B1738" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1738" t="s">
         <v>1</v>
       </c>
       <c r="D1738">
-        <v>3.26</v>
+        <v>17.86</v>
       </c>
       <c r="E1738" t="s">
         <v>4</v>
       </c>
       <c r="F1738" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1739" spans="1:6" x14ac:dyDescent="0.2">
@@ -35738,19 +35741,19 @@
         <v>0</v>
       </c>
       <c r="B1739" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1739" t="s">
         <v>1</v>
       </c>
       <c r="D1739">
-        <v>4.96</v>
+        <v>12.51</v>
       </c>
       <c r="E1739" t="s">
         <v>4</v>
       </c>
       <c r="F1739" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1740" spans="1:6" x14ac:dyDescent="0.2">
@@ -35758,19 +35761,19 @@
         <v>0</v>
       </c>
       <c r="B1740" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1740" t="s">
         <v>1</v>
       </c>
       <c r="D1740">
-        <v>3.68</v>
+        <v>8.92</v>
       </c>
       <c r="E1740" t="s">
         <v>4</v>
       </c>
       <c r="F1740" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1741" spans="1:6" x14ac:dyDescent="0.2">
@@ -35778,19 +35781,19 @@
         <v>0</v>
       </c>
       <c r="B1741" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1741" t="s">
         <v>1</v>
       </c>
       <c r="D1741">
-        <v>11.86</v>
+        <v>11.33</v>
       </c>
       <c r="E1741" t="s">
         <v>4</v>
       </c>
       <c r="F1741" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1742" spans="1:6" x14ac:dyDescent="0.2">
@@ -35798,19 +35801,19 @@
         <v>0</v>
       </c>
       <c r="B1742" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1742" t="s">
         <v>1</v>
       </c>
       <c r="D1742">
-        <v>5.18</v>
+        <v>9.83</v>
       </c>
       <c r="E1742" t="s">
         <v>4</v>
       </c>
       <c r="F1742" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1743" spans="1:6" x14ac:dyDescent="0.2">
@@ -35818,19 +35821,19 @@
         <v>0</v>
       </c>
       <c r="B1743" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1743" t="s">
         <v>1</v>
       </c>
       <c r="D1743">
-        <v>5.8</v>
+        <v>2.52</v>
       </c>
       <c r="E1743" t="s">
         <v>4</v>
       </c>
       <c r="F1743" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1744" spans="1:6" x14ac:dyDescent="0.2">
@@ -35838,19 +35841,19 @@
         <v>0</v>
       </c>
       <c r="B1744" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1744" t="s">
         <v>1</v>
       </c>
       <c r="D1744">
-        <v>9.7100000000000009</v>
+        <v>11.62</v>
       </c>
       <c r="E1744" t="s">
         <v>4</v>
       </c>
       <c r="F1744" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1745" spans="1:6" x14ac:dyDescent="0.2">
@@ -35858,19 +35861,19 @@
         <v>0</v>
       </c>
       <c r="B1745" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1745" t="s">
         <v>1</v>
       </c>
       <c r="D1745">
-        <v>2.5099999999999998</v>
+        <v>2.11</v>
       </c>
       <c r="E1745" t="s">
         <v>4</v>
       </c>
       <c r="F1745" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1746" spans="1:6" x14ac:dyDescent="0.2">
@@ -35878,19 +35881,16 @@
         <v>0</v>
       </c>
       <c r="B1746" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1746" t="s">
         <v>1</v>
       </c>
-      <c r="D1746">
-        <v>15.47</v>
-      </c>
       <c r="E1746" t="s">
         <v>4</v>
       </c>
       <c r="F1746" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1747" spans="1:6" x14ac:dyDescent="0.2">
@@ -35898,19 +35898,19 @@
         <v>0</v>
       </c>
       <c r="B1747" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1747" t="s">
         <v>1</v>
       </c>
       <c r="D1747">
-        <v>15.96</v>
+        <v>4.63</v>
       </c>
       <c r="E1747" t="s">
         <v>4</v>
       </c>
       <c r="F1747" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1748" spans="1:6" x14ac:dyDescent="0.2">
@@ -35918,19 +35918,19 @@
         <v>0</v>
       </c>
       <c r="B1748" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1748" t="s">
         <v>1</v>
       </c>
       <c r="D1748">
-        <v>16.48</v>
+        <v>7.6</v>
       </c>
       <c r="E1748" t="s">
         <v>4</v>
       </c>
       <c r="F1748" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1749" spans="1:6" x14ac:dyDescent="0.2">
@@ -35938,19 +35938,19 @@
         <v>0</v>
       </c>
       <c r="B1749" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1749" t="s">
         <v>1</v>
       </c>
       <c r="D1749">
-        <v>11.61</v>
+        <v>5.48</v>
       </c>
       <c r="E1749" t="s">
         <v>4</v>
       </c>
       <c r="F1749" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1750" spans="1:6" x14ac:dyDescent="0.2">
@@ -35958,19 +35958,19 @@
         <v>0</v>
       </c>
       <c r="B1750" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1750" t="s">
         <v>1</v>
       </c>
       <c r="D1750">
-        <v>4.5</v>
+        <v>3.15</v>
       </c>
       <c r="E1750" t="s">
         <v>4</v>
       </c>
       <c r="F1750" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1751" spans="1:6" x14ac:dyDescent="0.2">
@@ -35978,19 +35978,19 @@
         <v>0</v>
       </c>
       <c r="B1751" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1751" t="s">
         <v>1</v>
       </c>
       <c r="D1751">
-        <v>9.6</v>
+        <v>7.04</v>
       </c>
       <c r="E1751" t="s">
         <v>4</v>
       </c>
       <c r="F1751" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1752" spans="1:6" x14ac:dyDescent="0.2">
@@ -35998,19 +35998,19 @@
         <v>0</v>
       </c>
       <c r="B1752" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1752" t="s">
         <v>1</v>
       </c>
       <c r="D1752">
-        <v>5.18</v>
+        <v>18.53</v>
       </c>
       <c r="E1752" t="s">
         <v>4</v>
       </c>
       <c r="F1752" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1753" spans="1:6" x14ac:dyDescent="0.2">
@@ -36018,19 +36018,19 @@
         <v>0</v>
       </c>
       <c r="B1753" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1753" t="s">
         <v>1</v>
       </c>
       <c r="D1753">
-        <v>10.36</v>
+        <v>3.9</v>
       </c>
       <c r="E1753" t="s">
         <v>4</v>
       </c>
       <c r="F1753" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1754" spans="1:6" x14ac:dyDescent="0.2">
@@ -36038,19 +36038,19 @@
         <v>0</v>
       </c>
       <c r="B1754" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1754" t="s">
         <v>1</v>
       </c>
       <c r="D1754">
-        <v>9.7100000000000009</v>
+        <v>7.01</v>
       </c>
       <c r="E1754" t="s">
         <v>4</v>
       </c>
       <c r="F1754" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1755" spans="1:6" x14ac:dyDescent="0.2">
@@ -36058,779 +36058,776 @@
         <v>0</v>
       </c>
       <c r="B1755" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1755" t="s">
         <v>1</v>
       </c>
       <c r="D1755">
-        <v>2.5099999999999998</v>
+        <v>3.24</v>
       </c>
       <c r="E1755" t="s">
         <v>4</v>
       </c>
       <c r="F1755" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1756" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1756" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1756" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1756" t="s">
         <v>1</v>
       </c>
       <c r="D1756">
-        <v>10.58</v>
+        <v>18.72</v>
       </c>
       <c r="E1756" t="s">
         <v>4</v>
       </c>
       <c r="F1756" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1757" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1757" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1757" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1757" t="s">
         <v>1</v>
       </c>
       <c r="D1757">
-        <v>15.25</v>
+        <v>17.89</v>
       </c>
       <c r="E1757" t="s">
         <v>4</v>
       </c>
       <c r="F1757" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1758" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1758" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1758" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1758" t="s">
         <v>1</v>
       </c>
       <c r="D1758">
-        <v>12.67</v>
+        <v>9.51</v>
       </c>
       <c r="E1758" t="s">
         <v>4</v>
       </c>
       <c r="F1758" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1759" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1759" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1759" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1759" t="s">
         <v>1</v>
       </c>
       <c r="D1759">
-        <v>9.19</v>
+        <v>5.52</v>
       </c>
       <c r="E1759" t="s">
         <v>4</v>
       </c>
       <c r="F1759" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1760" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1760" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1760" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1760" t="s">
         <v>1</v>
       </c>
       <c r="D1760">
-        <v>2.73</v>
+        <v>14.45</v>
       </c>
       <c r="E1760" t="s">
         <v>4</v>
       </c>
       <c r="F1760" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1761" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1761" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1761" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1761" t="s">
         <v>1</v>
       </c>
       <c r="D1761">
-        <v>12.09</v>
+        <v>17.420000000000002</v>
       </c>
       <c r="E1761" t="s">
         <v>4</v>
       </c>
       <c r="F1761" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1762" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1762" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1762" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1762" t="s">
         <v>1</v>
       </c>
       <c r="D1762">
-        <v>7.2</v>
+        <v>3.61</v>
       </c>
       <c r="E1762" t="s">
         <v>4</v>
       </c>
       <c r="F1762" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1763" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1763" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1763" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1763" t="s">
         <v>1</v>
       </c>
       <c r="D1763">
-        <v>3.51</v>
+        <v>5.88</v>
       </c>
       <c r="E1763" t="s">
         <v>4</v>
       </c>
       <c r="F1763" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1764" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1764" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1764" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1764" t="s">
         <v>1</v>
       </c>
       <c r="D1764">
-        <v>7.92</v>
+        <v>16</v>
       </c>
       <c r="E1764" t="s">
         <v>4</v>
       </c>
       <c r="F1764" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1765" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1765" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1765" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1765" t="s">
         <v>1</v>
       </c>
       <c r="D1765">
-        <v>4.93</v>
+        <v>12.54</v>
       </c>
       <c r="E1765" t="s">
         <v>4</v>
       </c>
       <c r="F1765" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1766" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1766" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1766" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1766" t="s">
         <v>1</v>
       </c>
       <c r="D1766">
-        <v>5.27</v>
+        <v>15</v>
       </c>
       <c r="E1766" t="s">
         <v>4</v>
       </c>
       <c r="F1766" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1767" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1767" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1767" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1767" t="s">
         <v>1</v>
       </c>
       <c r="D1767">
-        <v>5.27</v>
+        <v>8.49</v>
       </c>
       <c r="E1767" t="s">
         <v>4</v>
       </c>
       <c r="F1767" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1768" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1768" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1768" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1768" t="s">
         <v>1</v>
       </c>
       <c r="D1768">
-        <v>13.96</v>
+        <v>9.23</v>
       </c>
       <c r="E1768" t="s">
         <v>4</v>
       </c>
       <c r="F1768" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1769" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1769" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1769" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1769" t="s">
         <v>1</v>
       </c>
       <c r="D1769">
-        <v>4.0999999999999996</v>
+        <v>3.51</v>
       </c>
       <c r="E1769" t="s">
         <v>4</v>
       </c>
       <c r="F1769" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1770" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1770" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1770" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1770" t="s">
         <v>1</v>
       </c>
       <c r="D1770">
-        <v>7.26</v>
+        <v>6.37</v>
       </c>
       <c r="E1770" t="s">
         <v>4</v>
       </c>
       <c r="F1770" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1771" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1771" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1771" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1771" t="s">
         <v>1</v>
       </c>
-      <c r="D1771">
-        <v>2.38</v>
-      </c>
       <c r="E1771" t="s">
         <v>4</v>
       </c>
       <c r="F1771" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1772" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1772" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1772" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1772" t="s">
         <v>1</v>
       </c>
       <c r="D1772">
-        <v>8.31</v>
+        <v>1.55</v>
       </c>
       <c r="E1772" t="s">
         <v>4</v>
       </c>
       <c r="F1772" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1773" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1773" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1773" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1773" t="s">
         <v>1</v>
       </c>
       <c r="D1773">
-        <v>6.02</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="E1773" t="s">
         <v>4</v>
       </c>
       <c r="F1773" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1774" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1774" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B1774" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1774" t="s">
         <v>1</v>
       </c>
       <c r="D1774">
-        <v>6.19</v>
+        <v>2.61</v>
       </c>
       <c r="E1774" t="s">
         <v>4</v>
       </c>
       <c r="F1774" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1775" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1775" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B1775" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1775" t="s">
         <v>1</v>
       </c>
       <c r="D1775">
-        <v>8.32</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="E1775" t="s">
         <v>4</v>
       </c>
       <c r="F1775" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1776" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1776" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B1776" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1776" t="s">
         <v>1</v>
       </c>
       <c r="D1776">
-        <v>3.24</v>
+        <v>4.47</v>
       </c>
       <c r="E1776" t="s">
         <v>4</v>
       </c>
       <c r="F1776" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1777" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1777" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B1777" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1777" t="s">
         <v>1</v>
       </c>
       <c r="D1777">
-        <v>6.29</v>
+        <v>12.11</v>
       </c>
       <c r="E1777" t="s">
         <v>4</v>
       </c>
       <c r="F1777" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1778" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1778" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B1778" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1778" t="s">
         <v>1</v>
       </c>
       <c r="D1778">
-        <v>3.68</v>
+        <v>7.94</v>
       </c>
       <c r="E1778" t="s">
         <v>4</v>
       </c>
       <c r="F1778" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1779" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1779" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B1779" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1779" t="s">
         <v>1</v>
       </c>
       <c r="D1779">
-        <v>9.31</v>
+        <v>7.04</v>
       </c>
       <c r="E1779" t="s">
         <v>4</v>
       </c>
       <c r="F1779" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1780" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1780" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B1780" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1780" t="s">
         <v>1</v>
       </c>
       <c r="D1780">
-        <v>5.13</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="E1780" t="s">
         <v>4</v>
       </c>
       <c r="F1780" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1781" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1781" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B1781" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1781" t="s">
         <v>1</v>
       </c>
       <c r="D1781">
-        <v>4.18</v>
+        <v>14.47</v>
       </c>
       <c r="E1781" t="s">
         <v>4</v>
       </c>
       <c r="F1781" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1782" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1782" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B1782" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1782" t="s">
         <v>1</v>
       </c>
       <c r="D1782">
-        <v>13.39</v>
+        <v>6.21</v>
       </c>
       <c r="E1782" t="s">
         <v>4</v>
       </c>
       <c r="F1782" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1783" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1783" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B1783" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1783" t="s">
         <v>1</v>
       </c>
       <c r="D1783">
-        <v>8.5</v>
+        <v>14.09</v>
       </c>
       <c r="E1783" t="s">
         <v>4</v>
       </c>
       <c r="F1783" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1784" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1784" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B1784" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1784" t="s">
         <v>1</v>
       </c>
       <c r="D1784">
-        <v>10.78</v>
+        <v>7.57</v>
       </c>
       <c r="E1784" t="s">
         <v>4</v>
       </c>
       <c r="F1784" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1785" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1785" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B1785" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1785" t="s">
         <v>1</v>
       </c>
       <c r="D1785">
-        <v>14.14</v>
+        <v>3.88</v>
       </c>
       <c r="E1785" t="s">
         <v>4</v>
       </c>
       <c r="F1785" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1786" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1786" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B1786" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1786" t="s">
         <v>1</v>
       </c>
       <c r="D1786">
-        <v>3.52</v>
+        <v>1.92</v>
       </c>
       <c r="E1786" t="s">
         <v>4</v>
       </c>
       <c r="F1786" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1787" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1787" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B1787" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1787" t="s">
         <v>1</v>
       </c>
       <c r="D1787">
-        <v>5.24</v>
+        <v>19.940000000000001</v>
       </c>
       <c r="E1787" t="s">
         <v>4</v>
       </c>
       <c r="F1787" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1788" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1788" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B1788" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1788" t="s">
         <v>1</v>
       </c>
       <c r="D1788">
-        <v>6.28</v>
+        <v>17.52</v>
       </c>
       <c r="E1788" t="s">
         <v>4</v>
       </c>
       <c r="F1788" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1789" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1789" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B1789" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1789" t="s">
         <v>1</v>
       </c>
       <c r="D1789">
-        <v>6.83</v>
+        <v>12.5</v>
       </c>
       <c r="E1789" t="s">
         <v>4</v>
       </c>
       <c r="F1789" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1790" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1790" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B1790" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1790" t="s">
         <v>1</v>
       </c>
       <c r="D1790">
-        <v>2.5299999999999998</v>
+        <v>2.16</v>
       </c>
       <c r="E1790" t="s">
         <v>4</v>
       </c>
       <c r="F1790" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1791" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1791" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B1791" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1791" t="s">
         <v>1</v>
       </c>
       <c r="D1791">
-        <v>4.18</v>
+        <v>19.760000000000002</v>
       </c>
       <c r="E1791" t="s">
         <v>4</v>
       </c>
       <c r="F1791" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1792" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1792" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B1792" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1792" t="s">
         <v>1</v>
       </c>
       <c r="D1792">
-        <v>4.1100000000000003</v>
+        <v>3.75</v>
       </c>
       <c r="E1792" t="s">
         <v>4</v>
       </c>
       <c r="F1792" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1793" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1793" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B1793" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1793" t="s">
         <v>1</v>
       </c>
       <c r="D1793">
-        <v>11.82</v>
+        <v>12.42</v>
       </c>
       <c r="E1793" t="s">
         <v>4</v>
       </c>
       <c r="F1793" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1794" spans="1:6" x14ac:dyDescent="0.2">
@@ -36838,779 +36835,813 @@
         <v>3</v>
       </c>
       <c r="B1794" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1794" t="s">
         <v>1</v>
       </c>
       <c r="D1794">
-        <v>2.15</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="E1794" t="s">
         <v>4</v>
       </c>
       <c r="F1794" s="2">
-        <v>45240</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1795" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1795" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1795" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1795" t="s">
         <v>1</v>
       </c>
       <c r="D1795">
-        <v>18.559999999999999</v>
+        <v>16.59</v>
       </c>
       <c r="E1795" t="s">
         <v>4</v>
       </c>
       <c r="F1795" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1796" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1796" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1796" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1796" t="s">
         <v>1</v>
       </c>
       <c r="D1796">
-        <v>10.51</v>
+        <v>7.08</v>
       </c>
       <c r="E1796" t="s">
         <v>4</v>
       </c>
       <c r="F1796" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1797" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1797" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1797" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1797" t="s">
         <v>1</v>
       </c>
       <c r="D1797">
-        <v>11.83</v>
+        <v>3.63</v>
       </c>
       <c r="E1797" t="s">
         <v>4</v>
       </c>
       <c r="F1797" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1798" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1798" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1798" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1798" t="s">
         <v>1</v>
       </c>
       <c r="D1798">
-        <v>3.2</v>
+        <v>2.37</v>
       </c>
       <c r="E1798" t="s">
         <v>4</v>
       </c>
       <c r="F1798" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1799" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1799" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1799" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1799" t="s">
         <v>1</v>
       </c>
       <c r="D1799">
-        <v>14.73</v>
+        <v>3.4</v>
       </c>
       <c r="E1799" t="s">
         <v>4</v>
       </c>
       <c r="F1799" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1800" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1800" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1800" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1800" t="s">
         <v>1</v>
       </c>
       <c r="D1800">
-        <v>17.3</v>
+        <v>15.19</v>
       </c>
       <c r="E1800" t="s">
         <v>4</v>
       </c>
       <c r="F1800" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1801" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1801" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1801" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1801" t="s">
         <v>1</v>
       </c>
       <c r="D1801">
-        <v>14</v>
+        <v>2.15</v>
       </c>
       <c r="E1801" t="s">
         <v>4</v>
       </c>
       <c r="F1801" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1802" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1802" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1802" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1802" t="s">
         <v>1</v>
       </c>
       <c r="D1802">
-        <v>19.7</v>
+        <v>6.17</v>
       </c>
       <c r="E1802" t="s">
         <v>4</v>
       </c>
       <c r="F1802" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1803" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1803" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1803" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1803" t="s">
         <v>1</v>
       </c>
       <c r="D1803">
-        <v>5.22</v>
+        <v>1.62</v>
       </c>
       <c r="E1803" t="s">
         <v>4</v>
       </c>
       <c r="F1803" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1804" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1804" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1804" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1804" t="s">
         <v>1</v>
       </c>
-      <c r="D1804">
-        <v>4.4000000000000004</v>
-      </c>
       <c r="E1804" t="s">
         <v>4</v>
       </c>
       <c r="F1804" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1805" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1805" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1805" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1805" t="s">
         <v>1</v>
       </c>
       <c r="D1805">
-        <v>16.100000000000001</v>
+        <v>1.28</v>
       </c>
       <c r="E1805" t="s">
         <v>4</v>
       </c>
       <c r="F1805" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1806" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1806" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1806" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1806" t="s">
         <v>1</v>
       </c>
       <c r="D1806">
-        <v>12.71</v>
+        <v>11.56</v>
       </c>
       <c r="E1806" t="s">
         <v>4</v>
       </c>
       <c r="F1806" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1807" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1807" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1807" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1807" t="s">
         <v>1</v>
       </c>
       <c r="D1807">
-        <v>3.5</v>
+        <v>11.7</v>
       </c>
       <c r="E1807" t="s">
         <v>4</v>
       </c>
       <c r="F1807" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1808" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1808" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1808" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1808" t="s">
         <v>1</v>
       </c>
       <c r="D1808">
-        <v>12.1</v>
+        <v>1.19</v>
       </c>
       <c r="E1808" t="s">
         <v>4</v>
       </c>
       <c r="F1808" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1809" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1809" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1809" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1809" t="s">
         <v>1</v>
       </c>
       <c r="D1809">
-        <v>2.4</v>
+        <v>15.21</v>
       </c>
       <c r="E1809" t="s">
         <v>4</v>
       </c>
       <c r="F1809" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1810" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1810" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1810" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1810" t="s">
         <v>1</v>
       </c>
       <c r="D1810">
-        <v>9.4</v>
+        <v>4.72</v>
       </c>
       <c r="E1810" t="s">
         <v>4</v>
       </c>
       <c r="F1810" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1811" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1811" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1811" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1811" t="s">
         <v>1</v>
       </c>
       <c r="D1811">
-        <v>9.3699999999999992</v>
+        <v>1.93</v>
       </c>
       <c r="E1811" t="s">
         <v>4</v>
       </c>
       <c r="F1811" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1812" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1812" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1812" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1812" t="s">
         <v>1</v>
       </c>
       <c r="D1812">
-        <v>17.14</v>
+        <v>3.47</v>
       </c>
       <c r="E1812" t="s">
         <v>4</v>
       </c>
       <c r="F1812" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1813" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1813" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1813" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1813" t="s">
         <v>1</v>
       </c>
       <c r="D1813">
-        <v>5.37</v>
+        <v>2.85</v>
       </c>
       <c r="E1813" t="s">
         <v>4</v>
       </c>
       <c r="F1813" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1814" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1814" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B1814" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1814" t="s">
         <v>1</v>
       </c>
       <c r="D1814">
-        <v>10.6</v>
+        <v>1.38</v>
       </c>
       <c r="E1814" t="s">
         <v>4</v>
       </c>
       <c r="F1814" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1815" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1815" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B1815" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1815" t="s">
         <v>1</v>
       </c>
       <c r="D1815">
-        <v>2.8</v>
+        <v>8.49</v>
       </c>
       <c r="E1815" t="s">
         <v>4</v>
       </c>
       <c r="F1815" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1816" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1816" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B1816" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1816" t="s">
         <v>1</v>
       </c>
       <c r="D1816">
-        <v>18.399999999999999</v>
+        <v>9.89</v>
       </c>
       <c r="E1816" t="s">
         <v>4</v>
       </c>
       <c r="F1816" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1817" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1817" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B1817" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1817" t="s">
         <v>1</v>
       </c>
       <c r="D1817">
-        <v>12.65</v>
+        <v>15.34</v>
       </c>
       <c r="E1817" t="s">
         <v>4</v>
       </c>
       <c r="F1817" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1818" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1818" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B1818" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1818" t="s">
         <v>1</v>
       </c>
       <c r="D1818">
-        <v>3.51</v>
+        <v>14.99</v>
       </c>
       <c r="E1818" t="s">
         <v>4</v>
       </c>
       <c r="F1818" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1819" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1819" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B1819" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1819" t="s">
         <v>1</v>
       </c>
       <c r="D1819">
-        <v>7.38</v>
+        <v>4.2300000000000004</v>
       </c>
       <c r="E1819" t="s">
         <v>4</v>
       </c>
       <c r="F1819" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1820" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1820" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B1820" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1820" t="s">
         <v>1</v>
       </c>
       <c r="D1820">
-        <v>10.57</v>
+        <v>1.18</v>
       </c>
       <c r="E1820" t="s">
         <v>4</v>
       </c>
       <c r="F1820" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1821" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1821" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B1821" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1821" t="s">
         <v>1</v>
       </c>
       <c r="D1821">
-        <v>8.39</v>
+        <v>3.84</v>
       </c>
       <c r="E1821" t="s">
         <v>4</v>
       </c>
       <c r="F1821" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1822" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1822" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B1822" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1822" t="s">
         <v>1</v>
       </c>
       <c r="D1822">
-        <v>2.97</v>
+        <v>3.28</v>
       </c>
       <c r="E1822" t="s">
         <v>4</v>
       </c>
       <c r="F1822" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1823" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1823" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B1823" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1823" t="s">
         <v>1</v>
       </c>
       <c r="D1823">
-        <v>5.49</v>
+        <v>13.81</v>
       </c>
       <c r="E1823" t="s">
         <v>4</v>
       </c>
       <c r="F1823" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1824" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1824" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B1824" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1824" t="s">
         <v>1</v>
       </c>
       <c r="D1824">
-        <v>15.32</v>
+        <v>3.59</v>
       </c>
       <c r="E1824" t="s">
         <v>4</v>
       </c>
       <c r="F1824" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1825" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1825" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B1825" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1825" t="s">
         <v>1</v>
       </c>
       <c r="D1825">
-        <v>4.96</v>
+        <v>11.37</v>
       </c>
       <c r="E1825" t="s">
         <v>4</v>
       </c>
       <c r="F1825" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1826" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1826" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B1826" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1826" t="s">
         <v>1</v>
       </c>
       <c r="D1826">
-        <v>12.36</v>
+        <v>2.59</v>
       </c>
       <c r="E1826" t="s">
         <v>4</v>
       </c>
       <c r="F1826" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1827" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1827" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B1827" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1827" t="s">
         <v>1</v>
       </c>
       <c r="D1827">
-        <v>3.3</v>
+        <v>2.78</v>
       </c>
       <c r="E1827" t="s">
         <v>4</v>
       </c>
       <c r="F1827" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1828" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1828" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B1828" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1828" t="s">
         <v>1</v>
       </c>
-      <c r="D1828">
-        <v>4.03</v>
-      </c>
       <c r="E1828" t="s">
         <v>4</v>
       </c>
       <c r="F1828" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1829" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1829" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B1829" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1829" t="s">
         <v>1</v>
       </c>
       <c r="D1829">
-        <v>7.27</v>
+        <v>11.77</v>
       </c>
       <c r="E1829" t="s">
         <v>4</v>
       </c>
       <c r="F1829" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1830" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1830" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B1830" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1830" t="s">
         <v>1</v>
       </c>
       <c r="D1830">
-        <v>2.73</v>
+        <v>5.46</v>
       </c>
       <c r="E1830" t="s">
         <v>4</v>
       </c>
       <c r="F1830" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1831" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1831" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B1831" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1831" t="s">
         <v>1</v>
       </c>
       <c r="D1831">
-        <v>6.73</v>
+        <v>4.09</v>
       </c>
       <c r="E1831" t="s">
         <v>4</v>
       </c>
       <c r="F1831" s="2">
-        <v>45243</v>
+        <v>45403</v>
       </c>
     </row>
     <row r="1832" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1832" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B1832" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C1832" t="s">
         <v>1</v>
       </c>
       <c r="D1832">
-        <v>3.83</v>
+        <v>2.11</v>
       </c>
       <c r="E1832" t="s">
         <v>4</v>
       </c>
       <c r="F1832" s="2">
-        <v>45243</v>
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1833" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1833" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1833" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1833">
+        <v>15.79</v>
+      </c>
+      <c r="E1833" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1833" s="2">
+        <v>45403</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1834" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1834" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1834">
+        <v>9.82</v>
+      </c>
+      <c r="E1834" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1834" s="2">
+        <v>45403</v>
       </c>
     </row>
   </sheetData>

--- a/data/octanol_30pct_avoidance_ALLDATA.xlsx
+++ b/data/octanol_30pct_avoidance_ALLDATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiabrown/Documents/git/cest-2.1-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{449C4FD5-8DB4-0045-8DF1-CFE72754A81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4888D707-4E76-FE4C-AA46-A35BC8679CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7338" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8554" uniqueCount="26">
   <si>
     <t>N2</t>
   </si>
@@ -105,6 +105,12 @@
   <si>
     <t>MOY0006</t>
   </si>
+  <si>
+    <t>MOY00022</t>
+  </si>
+  <si>
+    <t>MOY00023</t>
+  </si>
 </sst>
 </file>
 
@@ -113,7 +119,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +263,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -603,10 +616,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -962,11 +977,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1834"/>
+  <dimension ref="A1:I2138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A674" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A683" sqref="A683:A700"/>
+      <pane ySplit="1" topLeftCell="A2108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2110" sqref="C2110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -37644,6 +37659,5996 @@
         <v>45403</v>
       </c>
     </row>
+    <row r="1835" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1835" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1835" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1835" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1835" s="3">
+        <v>15.52</v>
+      </c>
+      <c r="E1835" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1835" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1836" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1836" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1836" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1836" s="3">
+        <v>18.13</v>
+      </c>
+      <c r="E1836" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1836" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1837" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1837" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1837" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1837" s="3">
+        <v>14.46</v>
+      </c>
+      <c r="E1837" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1837" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1838" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1838" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1838" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1838" s="3">
+        <v>13.64</v>
+      </c>
+      <c r="E1838" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1838" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1839" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1839" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1839" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1839" s="3">
+        <v>7.13</v>
+      </c>
+      <c r="E1839" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1839" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1840" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1840" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1840" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1840" s="3">
+        <v>1.9</v>
+      </c>
+      <c r="E1840" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1840" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1841" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1841" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1841" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1841" s="3">
+        <v>2.15</v>
+      </c>
+      <c r="E1841" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1841" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1842" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1842" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1842" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1842" s="3">
+        <v>11.09</v>
+      </c>
+      <c r="E1842" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1842" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1843" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1843" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1843" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1843" s="3">
+        <v>6.41</v>
+      </c>
+      <c r="E1843" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1843" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1844" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1844" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1844" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1844" s="3">
+        <v>14.12</v>
+      </c>
+      <c r="E1844" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1844" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1845" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1845" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1845" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1845" s="3">
+        <v>7.18</v>
+      </c>
+      <c r="E1845" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1845" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1846" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1846" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1846" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1846" s="3">
+        <v>13.79</v>
+      </c>
+      <c r="E1846" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1846" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1847" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1847" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1847" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1847" s="3">
+        <v>4.67</v>
+      </c>
+      <c r="E1847" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1847" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1848" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1848" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1848" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1848" s="3">
+        <v>7.38</v>
+      </c>
+      <c r="E1848" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1848" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1849" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1849" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1849" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1849" s="3">
+        <v>6.33</v>
+      </c>
+      <c r="E1849" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1849" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1850" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1850" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1850" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1850" s="3">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="E1850" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1850" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1851" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1851" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1851" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1851" s="3">
+        <v>13.13</v>
+      </c>
+      <c r="E1851" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1851" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1852" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1852" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1852" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1852" s="3">
+        <v>13.81</v>
+      </c>
+      <c r="E1852" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1852" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1853" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1853" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1853" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1853" s="3">
+        <v>18.93</v>
+      </c>
+      <c r="E1853" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1853" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1854" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1854" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1854" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1854" s="3">
+        <v>7.8</v>
+      </c>
+      <c r="E1854" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1854" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1855" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1855" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1855" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1855" s="3">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="E1855" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1855" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1856" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1856" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1856" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1856" s="3">
+        <v>9.84</v>
+      </c>
+      <c r="E1856" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1856" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1857" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1857" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1857" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1857" s="3">
+        <v>8.77</v>
+      </c>
+      <c r="E1857" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1857" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1858" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1858" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1858" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1858" s="3">
+        <v>7.5</v>
+      </c>
+      <c r="E1858" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1858" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1859" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1859" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1859" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1859" s="3">
+        <v>6.58</v>
+      </c>
+      <c r="E1859" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1859" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1860" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1860" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1860" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1860" s="3">
+        <v>3.07</v>
+      </c>
+      <c r="E1860" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1860" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1861" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1861" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1861" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1861" s="3">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E1861" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1861" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1862" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1862" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1862" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1862" s="3">
+        <v>1.92</v>
+      </c>
+      <c r="E1862" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1862" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1863" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1863" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1863" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1863" s="3">
+        <v>8.7200000000000006</v>
+      </c>
+      <c r="E1863" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1863" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1864" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1864" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1864" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1864" s="3">
+        <v>15.54</v>
+      </c>
+      <c r="E1864" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1864" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1865" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1865" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1865" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1865" s="3">
+        <v>6.95</v>
+      </c>
+      <c r="E1865" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1865" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1866" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1866" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1866" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1866" s="3">
+        <v>13.99</v>
+      </c>
+      <c r="E1866" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1866" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1867" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1867" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1867" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1867" s="3">
+        <v>2.68</v>
+      </c>
+      <c r="E1867" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1867" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1868" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1868" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1868" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1868" s="3">
+        <v>14.44</v>
+      </c>
+      <c r="E1868" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1868" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1869" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1869" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1869" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1869" s="3">
+        <v>1.96</v>
+      </c>
+      <c r="E1869" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1869" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1870" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1870" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1870" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1870" s="3">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="E1870" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1870" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1871" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1871" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1871" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1871" s="3">
+        <v>4.13</v>
+      </c>
+      <c r="E1871" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1871" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1872" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1872" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1872" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1872" s="3">
+        <v>4</v>
+      </c>
+      <c r="E1872" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1872" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1873" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1873" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1873" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1873" s="3">
+        <v>8.75</v>
+      </c>
+      <c r="E1873" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1873" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1874" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1874" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1874" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1874" s="3">
+        <v>3.82</v>
+      </c>
+      <c r="E1874" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1874" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1875" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1875" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1875" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1875" s="3">
+        <v>8.86</v>
+      </c>
+      <c r="E1875" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1875" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1876" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1876" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1876" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1876" s="3">
+        <v>1.68</v>
+      </c>
+      <c r="E1876" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1876" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1877" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1877" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1877" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1877" s="3"/>
+      <c r="E1877" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1877" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1878" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1878" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1878" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1878" s="3">
+        <v>13.55</v>
+      </c>
+      <c r="E1878" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1878" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1879" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1879" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1879" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1879" s="3">
+        <v>11.97</v>
+      </c>
+      <c r="E1879" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1879" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1880" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1880" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1880" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1880" s="3">
+        <v>13.12</v>
+      </c>
+      <c r="E1880" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1880" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1881" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1881" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1881" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1881" s="3">
+        <v>12.19</v>
+      </c>
+      <c r="E1881" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1881" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1882" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1882" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1882" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1882" s="3">
+        <v>10.32</v>
+      </c>
+      <c r="E1882" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1882" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1883" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1883" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1883" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1883" s="3">
+        <v>9.32</v>
+      </c>
+      <c r="E1883" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1883" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1884" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1884" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1884" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1884" s="3">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="E1884" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1884" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1885" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1885" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1885" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1885" s="3">
+        <v>9.9</v>
+      </c>
+      <c r="E1885" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1885" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1886" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1886" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1886" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1886" s="3">
+        <v>3.99</v>
+      </c>
+      <c r="E1886" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1886" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1887" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1887" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1887" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1887" s="3">
+        <v>11.48</v>
+      </c>
+      <c r="E1887" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1887" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1888" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1888" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1888" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1888" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E1888" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1888" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1889" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1889" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1889" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1889" s="3">
+        <v>9.26</v>
+      </c>
+      <c r="E1889" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1889" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1890" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1890" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1890" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1890" s="3">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="E1890" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1890" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1891" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1891" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1891" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1891" s="3">
+        <v>3.19</v>
+      </c>
+      <c r="E1891" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1891" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1892" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1892" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1892" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1892" s="3">
+        <v>10.34</v>
+      </c>
+      <c r="E1892" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1892" s="4">
+        <v>45412</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1893" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1893" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1893" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1893" s="3">
+        <v>2.76</v>
+      </c>
+      <c r="E1893" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1893" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1894" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1894" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1894" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1894" s="3">
+        <v>3.58</v>
+      </c>
+      <c r="E1894" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1894" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1895" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1895" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1895" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1895" s="3">
+        <v>6.4</v>
+      </c>
+      <c r="E1895" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1895" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1896" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1896" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1896" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1896" s="3"/>
+      <c r="E1896" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1896" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1897" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1897" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1897" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1897" s="3">
+        <v>6.95</v>
+      </c>
+      <c r="E1897" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1897" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1898" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1898" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1898" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1898" s="3">
+        <v>5.13</v>
+      </c>
+      <c r="E1898" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1898" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1899" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1899" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1899" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1899" s="3">
+        <v>6.53</v>
+      </c>
+      <c r="E1899" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1899" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1900" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1900" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1900" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1900" s="3">
+        <v>2.76</v>
+      </c>
+      <c r="E1900" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1900" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1901" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1901" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1901" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1901" s="3">
+        <v>5.25</v>
+      </c>
+      <c r="E1901" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1901" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1902" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1902" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1902" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1902" s="3">
+        <v>18.239999999999998</v>
+      </c>
+      <c r="E1902" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1902" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1903" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1903" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1903" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1903" s="3">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="E1903" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1903" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1904" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1904" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1904" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1904" s="3">
+        <v>5.81</v>
+      </c>
+      <c r="E1904" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1904" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1905" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1905" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1905" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1905" s="3">
+        <v>2.97</v>
+      </c>
+      <c r="E1905" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1905" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1906" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1906" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1906" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1906" s="3">
+        <v>6.81</v>
+      </c>
+      <c r="E1906" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1906" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1907" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1907" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1907" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1907" s="3"/>
+      <c r="E1907" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1907" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1908" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1908" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1908" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1908" s="3">
+        <v>2.8</v>
+      </c>
+      <c r="E1908" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1908" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1909" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1909" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1909" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1909" s="3">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E1909" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1909" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1910" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1910" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1910" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1910" s="3">
+        <v>14.82</v>
+      </c>
+      <c r="E1910" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1910" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1911" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1911" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1911" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1911" s="3">
+        <v>2.23</v>
+      </c>
+      <c r="E1911" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1911" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1912" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1912" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1912" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1912" s="3"/>
+      <c r="E1912" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1912" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1913" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1913" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1913" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1913" s="3"/>
+      <c r="E1913" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1913" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1914" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1914" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1914" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1914" s="3">
+        <v>2.75</v>
+      </c>
+      <c r="E1914" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1914" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1915" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1915" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1915" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1915" s="3">
+        <v>4.53</v>
+      </c>
+      <c r="E1915" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1915" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1916" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1916" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1916" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1916" s="3">
+        <v>18.34</v>
+      </c>
+      <c r="E1916" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1916" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1917" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1917" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1917" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1917" s="3">
+        <v>10.24</v>
+      </c>
+      <c r="E1917" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1917" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1918" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1918" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1918" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1918" s="3"/>
+      <c r="E1918" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1918" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1919" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1919" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1919" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1919" s="3">
+        <v>9.52</v>
+      </c>
+      <c r="E1919" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1919" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1920" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1920" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1920" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1920" s="3">
+        <v>11.35</v>
+      </c>
+      <c r="E1920" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1920" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1921" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1921" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1921" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1921" s="3"/>
+      <c r="E1921" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1921" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1922" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1922" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1922" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1922" s="3">
+        <v>15.62</v>
+      </c>
+      <c r="E1922" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1922" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1923" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1923" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1923" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1923" s="3">
+        <v>7.15</v>
+      </c>
+      <c r="E1923" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1923" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1924" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1924" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1924" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1924" s="3">
+        <v>11.14</v>
+      </c>
+      <c r="E1924" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1924" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1925" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1925" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1925" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1925" s="3">
+        <v>15.54</v>
+      </c>
+      <c r="E1925" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1925" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1926" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1926" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1926" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1926" s="3">
+        <v>14.09</v>
+      </c>
+      <c r="E1926" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1926" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1927" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1927" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1927" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1927" s="3">
+        <v>7.37</v>
+      </c>
+      <c r="E1927" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1927" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1928" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1928" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1928" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1928" s="3">
+        <v>8.94</v>
+      </c>
+      <c r="E1928" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1928" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1929" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1929" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1929" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1929" s="3"/>
+      <c r="E1929" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1929" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1930" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1930" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1930" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1930" s="3">
+        <v>6.98</v>
+      </c>
+      <c r="E1930" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1930" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1931" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1931" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1931" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1931" s="3"/>
+      <c r="E1931" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1931" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1932" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1932" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1932" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1932" s="3">
+        <v>3.41</v>
+      </c>
+      <c r="E1932" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1932" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1933" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1933" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1933" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1933" s="3">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="E1933" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1933" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1934" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1934" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1934" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1934" s="3">
+        <v>10.19</v>
+      </c>
+      <c r="E1934" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1934" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1935" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1935" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1935" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1935" s="3">
+        <v>3.03</v>
+      </c>
+      <c r="E1935" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1935" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1936" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1936" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1936" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1936" s="3"/>
+      <c r="E1936" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1936" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1937" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1937" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1937" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1937" s="3">
+        <v>2.33</v>
+      </c>
+      <c r="E1937" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1937" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1938" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1938" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1938" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1938" s="3">
+        <v>3.83</v>
+      </c>
+      <c r="E1938" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1938" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1939" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1939" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1939" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1939" s="3"/>
+      <c r="E1939" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1939" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1940" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1940" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1940" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1940" s="3">
+        <v>5.65</v>
+      </c>
+      <c r="E1940" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1940" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1941" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1941" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1941" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1941" s="3">
+        <v>10.87</v>
+      </c>
+      <c r="E1941" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1941" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1942" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1942" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1942" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1942" s="3">
+        <v>9.02</v>
+      </c>
+      <c r="E1942" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1942" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1943" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1943" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1943" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1943" s="3"/>
+      <c r="E1943" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1943" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1944" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1944" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1944" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1944" s="3">
+        <v>2.38</v>
+      </c>
+      <c r="E1944" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1944" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1945" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1945" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1945" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1945" s="3">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="E1945" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1945" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1946" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1946" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1946" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1946" s="3">
+        <v>7.53</v>
+      </c>
+      <c r="E1946" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1946" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1947" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1947" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1947" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1947" s="3">
+        <v>16.57</v>
+      </c>
+      <c r="E1947" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1947" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1948" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1948" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1948" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1948" s="3"/>
+      <c r="E1948" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1948" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1949" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1949" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1949" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1949" s="3"/>
+      <c r="E1949" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1949" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1950" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1950" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1950" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1950" s="3"/>
+      <c r="E1950" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1950" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1951" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1951" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1951" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1951" s="3">
+        <v>18.86</v>
+      </c>
+      <c r="E1951" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1951" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1952" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1952" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1952" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1952" s="3">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="E1952" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1952" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1953" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1953" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1953" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1953" s="3">
+        <v>12.7</v>
+      </c>
+      <c r="E1953" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1953" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1954" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1954" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1954" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1954" s="3">
+        <v>18.72</v>
+      </c>
+      <c r="E1954" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1954" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1955" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1955" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1955" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1955" s="3">
+        <v>10.82</v>
+      </c>
+      <c r="E1955" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1955" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1956" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1956" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1956" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1956" s="3">
+        <v>3.94</v>
+      </c>
+      <c r="E1956" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1956" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1957" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1957" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1957" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1957" s="3">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="E1957" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1957" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1958" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1958" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1958" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1958" s="3">
+        <v>9.92</v>
+      </c>
+      <c r="E1958" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1958" s="4">
+        <v>45407</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1959" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1959" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1959" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1959">
+        <v>2.56</v>
+      </c>
+      <c r="E1959" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1959" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1960" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1960" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1960" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1960">
+        <v>13.36</v>
+      </c>
+      <c r="E1960" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1960" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1961" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1961" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1961" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1961">
+        <v>3.39</v>
+      </c>
+      <c r="E1961" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1961" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1962" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1962" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1962" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1962">
+        <v>2.14</v>
+      </c>
+      <c r="E1962" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1962" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1963" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1963" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1963" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1963">
+        <v>5.45</v>
+      </c>
+      <c r="E1963" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1963" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1964" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1964" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1964" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1964">
+        <v>3.59</v>
+      </c>
+      <c r="E1964" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1964" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1965" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1965" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1965" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1965">
+        <v>14.91</v>
+      </c>
+      <c r="E1965" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1965" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1966" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1966" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1966" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1966">
+        <v>13.97</v>
+      </c>
+      <c r="E1966" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1966" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1967" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1967" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1967" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1967">
+        <v>9.07</v>
+      </c>
+      <c r="E1967" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1967" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1968" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1968" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1968" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1968" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1968" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1969" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1969" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1969" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1969" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1969" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1970" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1970" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1970" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1970" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1970" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1971" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1971" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1971" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1971">
+        <v>1.2</v>
+      </c>
+      <c r="E1971" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1971" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1972" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1972" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1972" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1972">
+        <v>6.65</v>
+      </c>
+      <c r="E1972" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1972" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1973" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1973" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1973" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1973">
+        <v>9.27</v>
+      </c>
+      <c r="E1973" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1973" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1974" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1974" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1974" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1974">
+        <v>10.89</v>
+      </c>
+      <c r="E1974" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1974" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1975" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1975" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1975" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1975">
+        <v>10.89</v>
+      </c>
+      <c r="E1975" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1975" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1976" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1976" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1976" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1976">
+        <v>3.02</v>
+      </c>
+      <c r="E1976" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1976" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1977" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1977" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1977" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1977" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1977" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1978" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1978" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1978" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1978">
+        <v>13.79</v>
+      </c>
+      <c r="E1978" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1978" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1979" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1979" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1979" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1979">
+        <v>5.68</v>
+      </c>
+      <c r="E1979" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1979" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1980" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1980" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1980" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1980">
+        <v>7.88</v>
+      </c>
+      <c r="E1980" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1980" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1981" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1981" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1981" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1981">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E1981" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1981" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1982" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1982" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1982" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1982">
+        <v>11.02</v>
+      </c>
+      <c r="E1982" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1982" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1983" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1983" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1983" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1983">
+        <v>1.24</v>
+      </c>
+      <c r="E1983" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1983" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1984" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1984" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1984" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1984">
+        <v>7.25</v>
+      </c>
+      <c r="E1984" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1984" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1985" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1985" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1985" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1985">
+        <v>3.48</v>
+      </c>
+      <c r="E1985" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1985" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1986" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1986" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1986" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1986">
+        <v>7.76</v>
+      </c>
+      <c r="E1986" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1986" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1987" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1987" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1987" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1987">
+        <v>3.86</v>
+      </c>
+      <c r="E1987" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1987" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1988" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1988" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1988" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1988">
+        <v>12.84</v>
+      </c>
+      <c r="E1988" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1988" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1989" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1989" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1989" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1989">
+        <v>14.93</v>
+      </c>
+      <c r="E1989" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1989" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1990" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1990" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1990" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1990">
+        <v>1.18</v>
+      </c>
+      <c r="E1990" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1990" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1991" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1991" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1991" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1991">
+        <v>2.41</v>
+      </c>
+      <c r="E1991" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1991" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1992" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1992" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1992" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1992">
+        <v>4.33</v>
+      </c>
+      <c r="E1992" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1992" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1993" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1993" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1993" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1993">
+        <v>2.63</v>
+      </c>
+      <c r="E1993" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1993" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1994" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1994" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1994" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1994">
+        <v>4.21</v>
+      </c>
+      <c r="E1994" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1994" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1995" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1995" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1995" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1995">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E1995" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1995" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1996" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1996" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1996" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1996">
+        <v>4.96</v>
+      </c>
+      <c r="E1996" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1996" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1997" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1997" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1997" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1997" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1997" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1998" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1998" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1998" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1998">
+        <v>2.48</v>
+      </c>
+      <c r="E1998" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1998" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1999" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1999" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1999" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1999">
+        <v>3.1</v>
+      </c>
+      <c r="E1999" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1999" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2000" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2000" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2000" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2000">
+        <v>5.12</v>
+      </c>
+      <c r="E2000" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2000" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2001" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2001" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2001" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2001">
+        <v>1.98</v>
+      </c>
+      <c r="E2001" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2001" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2002" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2002" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2002" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2002">
+        <v>7.41</v>
+      </c>
+      <c r="E2002" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2002" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2003" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2003" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2003" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2003">
+        <v>8.09</v>
+      </c>
+      <c r="E2003" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2003" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2004" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2004" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2004" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2004">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E2004" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2004" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2005" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2005" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2005" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2005">
+        <v>7.18</v>
+      </c>
+      <c r="E2005" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2005" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2006" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2006" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2006" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2006">
+        <v>3.16</v>
+      </c>
+      <c r="E2006" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2006" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2007" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2007" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2007" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2007">
+        <v>1.48</v>
+      </c>
+      <c r="E2007" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2007" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2008" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2008" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2008" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2008" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2008" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2009" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2009" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2009" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2009">
+        <v>17.93</v>
+      </c>
+      <c r="E2009" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2009" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2010" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2010" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2010" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2010">
+        <v>14.46</v>
+      </c>
+      <c r="E2010" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2010" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2011" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2011" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2011" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2011">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="E2011" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2011" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2012" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2012" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2012" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2012">
+        <v>4.08</v>
+      </c>
+      <c r="E2012" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2012" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2013" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2013" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2013" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2013" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2013" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2013" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2014" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2014" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2014" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2014" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2014">
+        <v>3.93</v>
+      </c>
+      <c r="E2014" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2014" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2015" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2015" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2015" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2015" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2015">
+        <v>14.11</v>
+      </c>
+      <c r="E2015" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2015" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2016" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2016" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2016" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2016" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2016">
+        <v>11.42</v>
+      </c>
+      <c r="E2016" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2016" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2017" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2017" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2017" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2017" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2017">
+        <v>7.03</v>
+      </c>
+      <c r="E2017" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2017" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2018" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2018" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2018" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2018" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2018">
+        <v>14.32</v>
+      </c>
+      <c r="E2018" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2018" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2019" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2019" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2019" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2019" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2019" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2019" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2020" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2020" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2020" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2020" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2020" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2020" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2021" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2021" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2021" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2021" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2021">
+        <v>8.1</v>
+      </c>
+      <c r="E2021" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2021" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2022" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2022" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2022" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2022" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2022">
+        <v>3.71</v>
+      </c>
+      <c r="E2022" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2022" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2023" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2023" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2023" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2023" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2023">
+        <v>5.75</v>
+      </c>
+      <c r="E2023" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2023" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2024" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2024" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2024" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2024" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2024">
+        <v>7.02</v>
+      </c>
+      <c r="E2024" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2024" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2025" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2025" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2025" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2025" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2025">
+        <v>4.7</v>
+      </c>
+      <c r="E2025" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2025" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2026" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2026" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2026" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2026" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2026">
+        <v>12.69</v>
+      </c>
+      <c r="E2026" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2026" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2027" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2027" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2027" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2027" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2027">
+        <v>9.01</v>
+      </c>
+      <c r="E2027" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2027" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2028" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2028" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2028" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2028" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2028">
+        <v>10.38</v>
+      </c>
+      <c r="E2028" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2028" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2029" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2029" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2029" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2029" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2029">
+        <v>1.75</v>
+      </c>
+      <c r="E2029" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2029" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2030" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2030" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2030" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2030" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2030">
+        <v>1.9</v>
+      </c>
+      <c r="E2030" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2030" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2031" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2031" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2031" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2031" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2031">
+        <v>11.39</v>
+      </c>
+      <c r="E2031" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2031" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2032" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2032" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2032" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2032" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2032">
+        <v>2.73</v>
+      </c>
+      <c r="E2032" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2032" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2033" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2033" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2033" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2033" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2033">
+        <v>8.81</v>
+      </c>
+      <c r="E2033" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2033" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2034" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2034" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2034" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2034" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2034">
+        <v>17.61</v>
+      </c>
+      <c r="E2034" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2034" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2035" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2035" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2035" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2035" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2035" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2035" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2036" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2036" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2036" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2036" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2036">
+        <v>16.010000000000002</v>
+      </c>
+      <c r="E2036" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2036" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2037" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2037" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2037" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2037" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2037">
+        <v>9.89</v>
+      </c>
+      <c r="E2037" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2037" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2038" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2038" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2038" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2038" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2038">
+        <v>7.18</v>
+      </c>
+      <c r="E2038" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2038" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2039" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2039" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2039" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2039" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2039">
+        <v>9.77</v>
+      </c>
+      <c r="E2039" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2039" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2040" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2040" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2040" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2040" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2040">
+        <v>4.26</v>
+      </c>
+      <c r="E2040" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2040" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2041" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2041" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2041" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2041" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2041" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2041" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2042" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2042" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2042" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2042" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2042">
+        <v>12.46</v>
+      </c>
+      <c r="E2042" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2042" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2043" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2043" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2043" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2043" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2043">
+        <v>5.85</v>
+      </c>
+      <c r="E2043" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2043" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2044" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2044" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2044" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2044" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2044">
+        <v>7.13</v>
+      </c>
+      <c r="E2044" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2044" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2045" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2045" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2045" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2045" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2045">
+        <v>6.84</v>
+      </c>
+      <c r="E2045" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2045" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2046" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2046" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2046" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2046" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2046">
+        <v>7.63</v>
+      </c>
+      <c r="E2046" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2046" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="2047" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2047" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2047" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2047" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2047">
+        <v>2.81</v>
+      </c>
+      <c r="E2047" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2047" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2048" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2048" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2048" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2048" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2048">
+        <v>10.66</v>
+      </c>
+      <c r="E2048" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2048" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2049" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2049" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2049" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2049" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2049">
+        <v>11.97</v>
+      </c>
+      <c r="E2049" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2049" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2050" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2050" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2050" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2050" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2050" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2050" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2051" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2051" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2051" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2051" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2051">
+        <v>3.21</v>
+      </c>
+      <c r="E2051" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2051" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2052" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2052" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2052" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2052" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2052">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="E2052" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2052" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2053" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2053" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2053" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2053" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2053">
+        <v>10.81</v>
+      </c>
+      <c r="E2053" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2053" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2054" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2054" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2054" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2054" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2054">
+        <v>1.59</v>
+      </c>
+      <c r="E2054" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2054" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2055" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2055" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2055" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2055" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2055">
+        <v>14.82</v>
+      </c>
+      <c r="E2055" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2055" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2056" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2056" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2056" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2056" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2056">
+        <v>2.81</v>
+      </c>
+      <c r="E2056" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2056" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2057" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2057" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2057" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2057" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2057">
+        <v>4.96</v>
+      </c>
+      <c r="E2057" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2057" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2058" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2058" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2058" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2058" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2058">
+        <v>12.98</v>
+      </c>
+      <c r="E2058" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2058" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2059" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2059" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2059" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2059" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2059">
+        <v>14.69</v>
+      </c>
+      <c r="E2059" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2059" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2060" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2060" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2060" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2060" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2060">
+        <v>3.18</v>
+      </c>
+      <c r="E2060" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2060" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2061" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2061" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2061" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2061" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2061">
+        <v>2.15</v>
+      </c>
+      <c r="E2061" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2061" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2062" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2062" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2062" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2062" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2062">
+        <v>6.89</v>
+      </c>
+      <c r="E2062" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2062" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2063" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2063" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2063" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2063" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2063">
+        <v>11.12</v>
+      </c>
+      <c r="E2063" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2063" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2064" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2064" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2064" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2064" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2064">
+        <v>2.56</v>
+      </c>
+      <c r="E2064" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2064" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2065" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2065" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2065" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2065" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2065">
+        <v>5.45</v>
+      </c>
+      <c r="E2065" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2065" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2066" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2066" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2066" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2066" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2066">
+        <v>13.81</v>
+      </c>
+      <c r="E2066" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2066" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2067" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2067" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2067" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2067" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2067">
+        <v>4.1900000000000004</v>
+      </c>
+      <c r="E2067" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2067" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2068" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2068" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2068" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2068" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2068">
+        <v>19.8</v>
+      </c>
+      <c r="E2068" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2068" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2069" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2069" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2069" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2069" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2069">
+        <v>6.79</v>
+      </c>
+      <c r="E2069" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2069" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2070" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2070" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2070" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2070" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2070">
+        <v>5.19</v>
+      </c>
+      <c r="E2070" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2070" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2071" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2071" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2071" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2071" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2071">
+        <v>1.75</v>
+      </c>
+      <c r="E2071" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2071" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2072" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2072" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2072" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2072" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2072">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E2072" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2072" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2073" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2073" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2073" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2073" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2073">
+        <v>2.17</v>
+      </c>
+      <c r="E2073" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2073" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2074" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2074" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2074" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2074" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2074">
+        <v>2.54</v>
+      </c>
+      <c r="E2074" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2074" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2075" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2075" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2075" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2075" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2075">
+        <v>5.4</v>
+      </c>
+      <c r="E2075" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2075" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2076" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2076" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2076" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2076" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2076">
+        <v>11.75</v>
+      </c>
+      <c r="E2076" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2076" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2077" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2077" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2077" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2077" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2077">
+        <v>5.98</v>
+      </c>
+      <c r="E2077" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2077" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2078" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2078" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2078" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2078" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2078">
+        <v>6.76</v>
+      </c>
+      <c r="E2078" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2078" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2079" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2079" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2079" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2079" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2079">
+        <v>11.53</v>
+      </c>
+      <c r="E2079" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2079" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2080" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2080" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2080" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2080" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2080">
+        <v>6.37</v>
+      </c>
+      <c r="E2080" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2080" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2081" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2081" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2081" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2081" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2081">
+        <v>11.19</v>
+      </c>
+      <c r="E2081" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2081" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2082" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2082" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2082" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2082" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2082">
+        <v>9.66</v>
+      </c>
+      <c r="E2082" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2082" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2083" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2083" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2083" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2083" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2083">
+        <v>1.76</v>
+      </c>
+      <c r="E2083" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2083" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2084" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2084" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2084" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2084" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2084">
+        <v>1.43</v>
+      </c>
+      <c r="E2084" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2084" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2085" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2085" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2085" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2085" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2085">
+        <v>3.68</v>
+      </c>
+      <c r="E2085" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2085" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2086" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2086" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2086" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2086" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2086" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2086" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2087" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2087" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2087" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2087" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2087">
+        <v>12.44</v>
+      </c>
+      <c r="E2087" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2087" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2088" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2088" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2088" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2088" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2088">
+        <v>3.42</v>
+      </c>
+      <c r="E2088" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2088" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2089" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2089" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2089" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2089" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2089">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E2089" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2089" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2090" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2090" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2090" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2090" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2090">
+        <v>2.88</v>
+      </c>
+      <c r="E2090" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2090" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2091" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2091" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2091" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2091" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2091">
+        <v>14.66</v>
+      </c>
+      <c r="E2091" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2091" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2092" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2092" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2092" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2092" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2092">
+        <v>3.87</v>
+      </c>
+      <c r="E2092" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2092" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2093" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2093" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2093" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2093" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2093" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2093" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2094" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2094" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2094" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2094" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2094">
+        <v>3.36</v>
+      </c>
+      <c r="E2094" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2094" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2095" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2095" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2095" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2095" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2095">
+        <v>10.86</v>
+      </c>
+      <c r="E2095" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2095" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2096" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2096" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2096" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2096" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2096">
+        <v>2.65</v>
+      </c>
+      <c r="E2096" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2096" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2097" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2097" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2097" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2097" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2097">
+        <v>10.98</v>
+      </c>
+      <c r="E2097" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2097" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2098" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2098" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2098" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2098" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2098">
+        <v>14.61</v>
+      </c>
+      <c r="E2098" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2098" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2099" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2099" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2099" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2099" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2099">
+        <v>19.239999999999998</v>
+      </c>
+      <c r="E2099" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2099" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2100" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2100" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2101" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2101" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2101" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2102" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2102">
+        <v>4.63</v>
+      </c>
+      <c r="E2102" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2102" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2103" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2103" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2103">
+        <v>7.04</v>
+      </c>
+      <c r="E2103" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2103" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2104" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2104">
+        <v>6.59</v>
+      </c>
+      <c r="E2104" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2104" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2105" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2105" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2105">
+        <v>5.19</v>
+      </c>
+      <c r="E2105" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2105" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2106" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2106">
+        <v>8.02</v>
+      </c>
+      <c r="E2106" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2106" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2107" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2107" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2107">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="E2107" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2107" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2108" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2108" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2108">
+        <v>1.49</v>
+      </c>
+      <c r="E2108" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2108" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2109" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2109" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2109">
+        <v>12.31</v>
+      </c>
+      <c r="E2109" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2109" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2110" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2110">
+        <v>19.3</v>
+      </c>
+      <c r="E2110" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2110" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2111" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2111" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2111">
+        <v>1.79</v>
+      </c>
+      <c r="E2111" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2111" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2112" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2112">
+        <v>3.91</v>
+      </c>
+      <c r="E2112" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2112" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2113" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2113" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2113">
+        <v>8.35</v>
+      </c>
+      <c r="E2113" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2113" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2114" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2114" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2114" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2114">
+        <v>15.12</v>
+      </c>
+      <c r="E2114" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2114" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2115" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2115" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2115">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="E2115" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2115" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2116" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2116" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2116">
+        <v>13.98</v>
+      </c>
+      <c r="E2116" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2116" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2117" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2117" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2117" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2117">
+        <v>15.44</v>
+      </c>
+      <c r="E2117" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2117" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2118" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2118" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2118" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2118">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="E2118" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2118" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2119" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2119" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2119" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2119" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2119" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2120" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2120" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2120">
+        <v>2.34</v>
+      </c>
+      <c r="E2120" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2120" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2121" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2121" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2121" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2121">
+        <v>4.97</v>
+      </c>
+      <c r="E2121" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2121" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2122" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2122" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2122">
+        <v>4.54</v>
+      </c>
+      <c r="E2122" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2122" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2123" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2123" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2123">
+        <v>2.6</v>
+      </c>
+      <c r="E2123" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2123" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2124" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2124" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2124" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2124" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2125" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2125" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2125" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2125">
+        <v>19.8</v>
+      </c>
+      <c r="E2125" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2125" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2126" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2126" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2126" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2126">
+        <v>2.06</v>
+      </c>
+      <c r="E2126" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2126" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2127" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2127" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2127" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2127" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2127" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2128" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2128" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2128" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2128">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E2128" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2128" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2129" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2129" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2129">
+        <v>12.68</v>
+      </c>
+      <c r="E2129" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2129" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2130" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2130" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2130" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2130">
+        <v>11.17</v>
+      </c>
+      <c r="E2130" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2130" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2131" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2131" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2131" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2131">
+        <v>10.36</v>
+      </c>
+      <c r="E2131" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2131" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2132" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2132" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2132">
+        <v>13.96</v>
+      </c>
+      <c r="E2132" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2132" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2133" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2133" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2133" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2133">
+        <v>2.57</v>
+      </c>
+      <c r="E2133" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2133" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2134" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2134" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2134" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2134">
+        <v>5.7</v>
+      </c>
+      <c r="E2134" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2134" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2135" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2135" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2135" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2135">
+        <v>16.78</v>
+      </c>
+      <c r="E2135" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2135" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2136" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2136" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2136" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2136">
+        <v>2.31</v>
+      </c>
+      <c r="E2136" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2136" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2137" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2137" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2137" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2137" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2137" s="2">
+        <v>45422</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2138" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2138">
+        <v>2.09</v>
+      </c>
+      <c r="E2138" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2138" s="2">
+        <v>45422</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/octanol_30pct_avoidance_ALLDATA.xlsx
+++ b/data/octanol_30pct_avoidance_ALLDATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiabrown/Documents/git/cest-2.1-Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4888D707-4E76-FE4C-AA46-A35BC8679CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE21B77-9CFD-F548-8CAA-2DE02C1B3378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="27720" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -980,8 +980,8 @@
   <dimension ref="A1:I2138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2110" sqref="C2110"/>
+      <pane ySplit="1" topLeftCell="A2037" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2047" sqref="D2047:D2069"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
